--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -44,7 +44,22 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 9:25 AM</t>
+    <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 23 August, 2025 9:26 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -254,10 +269,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +281,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,32 +689,46 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
+      <c r="P8" s="13">
+        <v>30</v>
+      </c>
       <c r="Q8" s="13"/>
     </row>
     <row r="9" ht="16.5" customHeight="1">
       <c t="s" r="A9" s="14">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -707,13 +736,13 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c t="s" r="G9" s="15">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c t="s" r="K9" s="17">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -44,22 +44,100 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>BETAFOS 1 AMP. 2ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>30.00</t>
   </si>
   <si>
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 9:26 AM</t>
+    <t>QUIBRON T/SR 300MG 100 TAB</t>
+  </si>
+  <si>
+    <t>1:41</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>6.6000</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>TAVACIN 500MG 5 F.C. TAB</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 23 August, 2025 9:32 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -717,42 +795,240 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13">
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>19</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>22</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>23</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>24</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>26</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>16</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>27</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>29</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
         <v>30</v>
       </c>
-      <c r="Q8" s="13"/>
-    </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>31</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>34</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
         <v>16</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>17</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>18</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>35</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>37</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>38</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>39</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>40</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="P14" s="13">
+        <v>231.38999999999999</v>
+      </c>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c t="s" r="A15" s="14">
+        <v>42</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c t="s" r="G15" s="15">
+        <v>43</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c t="s" r="K15" s="17">
+        <v>44</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="47">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -766,10 +1042,40 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:Q15"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -137,7 +137,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 9:32 AM</t>
+    <t>Saturday, 23 August, 2025 9:36 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -77,6 +77,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>CONCOR 5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
@@ -137,7 +152,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 9:36 AM</t>
+    <t>Saturday, 23 August, 2025 9:41 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -861,7 +876,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -870,14 +885,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -887,14 +902,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -903,14 +918,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -920,14 +935,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -943,7 +958,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -953,14 +968,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -969,20 +984,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -997,38 +1012,71 @@
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
-      <c r="P14" s="13">
-        <v>231.38999999999999</v>
-      </c>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="14">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
         <v>42</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c t="s" r="G15" s="15">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
         <v>43</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c t="s" r="K15" s="17">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
         <v>44</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>45</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>278.91000000000003</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>47</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>48</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>49</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1072,10 +1120,15 @@
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -152,7 +152,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 9:41 AM</t>
+    <t>Saturday, 23 August, 2025 9:55 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -152,7 +152,19 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 9:55 AM</t>
+    <t>قطن 50جم</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 23 August, 2025 10:02 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1045,38 +1057,71 @@
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>278.91000000000003</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
         <v>47</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
         <v>48</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>44</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
         <v>49</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>288.91000000000003</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>51</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>52</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>53</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1125,10 +1170,15 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -164,7 +164,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 10:02 AM</t>
+    <t>Saturday, 23 August, 2025 10:03 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t>0:2</t>
+  </si>
+  <si>
+    <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>59.4000</t>
   </si>
   <si>
     <t>PANTOLOC 40MG 14 TAB</t>
@@ -904,7 +913,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -914,11 +923,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>21</v>
@@ -930,14 +939,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -954,7 +963,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -970,7 +979,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -980,14 +989,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -996,14 +1005,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1013,14 +1022,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>41</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1036,21 +1045,21 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1062,66 +1071,99 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>288.91000000000003</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>50</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
         <v>51</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>47</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
         <v>52</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
         <v>53</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+      <c t="s" r="Q16" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>348.31</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>54</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>55</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>56</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1175,10 +1217,15 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -173,7 +173,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 10:03 AM</t>
+    <t>Saturday, 23 August, 2025 10:04 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -146,15 +146,27 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>43:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
@@ -173,7 +185,10 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 10:04 AM</t>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>Saturday, 23 August, 2025 10:13 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1132,38 +1147,104 @@
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>348.31</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
         <v>54</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
         <v>55</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>47</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
         <v>56</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>58</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>51</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>47</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>48</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>378.31</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>59</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>60</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>61</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1222,10 +1303,20 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -137,6 +137,18 @@
     <t>0:5</t>
   </si>
   <si>
+    <t>SEPTAZOLE 400/80MG 20*10 TAB.</t>
+  </si>
+  <si>
+    <t>0:19</t>
+  </si>
+  <si>
+    <t>340.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
     <t>TAVACIN 500MG 5 F.C. TAB</t>
   </si>
   <si>
@@ -188,7 +200,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 10:13 AM</t>
+    <t>Saturday, 23 August, 2025 10:31 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1060,7 +1072,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1070,14 +1082,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1086,28 +1098,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1119,20 +1131,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1165,7 +1177,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1192,59 +1204,92 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>378.31</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
-        <v>59</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
-        <v>60</v>
-      </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
-        <v>61</v>
-      </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>62</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>55</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>51</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>52</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="P20" s="13">
+        <v>395.31</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="14">
+        <v>63</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c t="s" r="G21" s="15">
+        <v>64</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c t="s" r="K21" s="17">
+        <v>65</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="77">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1313,10 +1358,15 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -200,7 +200,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 10:31 AM</t>
+    <t>Saturday, 23 August, 2025 10:57 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AMPOFER 20MG/ML 5 AMP. FOR I.V. INJ./INF.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>BETAFOS 1 AMP. 2ML</t>
   </si>
   <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>31.00</t>
   </si>
   <si>
@@ -89,9 +104,6 @@
     <t>47.5200</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -104,9 +116,6 @@
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>102.00</t>
   </si>
   <si>
@@ -161,7 +170,7 @@
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
-    <t>43:0</t>
+    <t>42:0</t>
   </si>
   <si>
     <t>0</t>
@@ -170,7 +179,16 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>15.0000</t>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>89:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -185,6 +203,15 @@
     <t>2.0000</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>قطن 50جم</t>
   </si>
   <si>
@@ -200,7 +227,19 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 10:57 AM</t>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 23 August, 2025 11:38 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -940,7 +979,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -950,14 +989,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -966,14 +1005,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -990,7 +1029,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1006,7 +1045,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1023,7 +1062,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1039,7 +1078,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1049,14 +1088,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1065,14 +1104,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1082,14 +1121,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1098,14 +1137,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1122,7 +1161,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1138,24 +1177,24 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1164,31 +1203,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1197,31 +1236,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1230,66 +1269,198 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>64</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>61</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>54</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>65</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>67</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>68</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>54</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>69</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" ht="24.75" customHeight="1">
-      <c r="P20" s="13">
-        <v>395.31</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="14">
-        <v>63</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c t="s" r="G21" s="15">
-        <v>64</v>
-      </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c t="s" r="K21" s="17">
-        <v>65</v>
-      </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>71</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>61</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>54</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>55</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>72</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>73</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>54</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>74</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="P24" s="13">
+        <v>582.30999999999995</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="14">
+        <v>76</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c t="s" r="G25" s="15">
+        <v>77</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c t="s" r="K25" s="17">
+        <v>78</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="97">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1363,10 +1534,30 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:Q25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -227,6 +227,12 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>ماكينه حلاقه جليت فليكتور</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -239,7 +245,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 11:38 AM</t>
+    <t>Saturday, 23 August, 2025 11:41 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1418,49 +1424,82 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>74</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
         <v>75</v>
       </c>
-      <c t="s" r="Q23" s="12">
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>54</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>76</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="24" ht="25.5" customHeight="1">
-      <c r="P24" s="13">
-        <v>582.30999999999995</v>
-      </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="14">
-        <v>76</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c t="s" r="G25" s="15">
-        <v>77</v>
-      </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c t="s" r="K25" s="17">
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="P25" s="13">
+        <v>612.30999999999995</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
         <v>78</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
+        <v>79</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
+        <v>80</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1554,10 +1593,15 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -104,6 +104,18 @@
     <t>47.5200</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>9:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -113,6 +125,21 @@
     <t>59.4000</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
@@ -173,9 +200,6 @@
     <t>42:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
@@ -245,7 +269,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 11:41 AM</t>
+    <t>Saturday, 23 August, 2025 11:50 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1018,7 +1042,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1028,11 +1052,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>26</v>
@@ -1044,14 +1068,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1061,11 +1085,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>26</v>
@@ -1077,31 +1101,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1110,14 +1134,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1127,14 +1151,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1143,14 +1167,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1167,7 +1191,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1183,7 +1207,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1193,14 +1217,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1209,31 +1233,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1242,28 +1266,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1275,31 +1299,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1315,21 +1339,21 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1341,28 +1365,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1374,31 +1398,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1407,31 +1431,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1440,66 +1464,132 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q24" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>80</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>81</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>40</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>63</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>82</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>83</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>40</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>84</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="25" ht="24.75" customHeight="1">
-      <c r="P25" s="13">
-        <v>612.30999999999995</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
-        <v>78</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
-        <v>79</v>
-      </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
-        <v>80</v>
-      </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>655.14999999999998</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
+        <v>86</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>87</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>88</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1598,10 +1688,20 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -224,7 +224,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -269,7 +272,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 11:50 AM</t>
+    <t>Saturday, 23 August, 2025 12:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1389,7 +1392,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1398,7 +1401,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1415,11 +1418,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1431,14 +1434,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1448,11 +1451,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1464,7 +1467,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1497,14 +1500,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1530,14 +1533,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1547,11 +1550,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1559,13 +1562,13 @@
     </row>
     <row r="27" ht="25.5" customHeight="1">
       <c r="P27" s="13">
-        <v>655.14999999999998</v>
+        <v>661.14999999999998</v>
       </c>
       <c r="Q27" s="13"/>
     </row>
     <row r="28" ht="16.5" customHeight="1">
       <c t="s" r="A28" s="14">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -1573,13 +1576,13 @@
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c t="s" r="G28" s="15">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
       <c r="J28" s="16"/>
       <c t="s" r="K28" s="17">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L28" s="17"/>
       <c r="M28" s="17"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -116,6 +116,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -272,7 +281,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 12:00 PM</t>
+    <t>Saturday, 23 August, 2025 12:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1078,7 +1087,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1095,7 +1104,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1111,21 +1120,21 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>26</v>
@@ -1137,20 +1146,20 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1177,7 +1186,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1194,7 +1203,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1210,7 +1219,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1220,14 +1229,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1236,14 +1245,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1253,14 +1262,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1269,14 +1278,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1293,7 +1302,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1309,24 +1318,24 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1348,7 +1357,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1356,10 +1365,10 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1368,31 +1377,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>72</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1401,31 +1410,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>75</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1441,21 +1450,21 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1467,31 +1476,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1500,28 +1509,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>28</v>
@@ -1533,66 +1542,99 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
         <v>86</v>
       </c>
-      <c t="s" r="Q26" s="12">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>87</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>43</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>88</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>661.14999999999998</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
-        <v>87</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
-        <v>88</v>
-      </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
-        <v>89</v>
-      </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>680.14999999999998</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>90</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>91</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>92</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1701,10 +1743,15 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -116,6 +116,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
     <t>OTAL EAR DROPS 5 ML</t>
   </si>
   <si>
@@ -281,7 +290,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 12:01 PM</t>
+    <t>Saturday, 23 August, 2025 12:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1087,7 +1096,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1120,7 +1129,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1137,7 +1146,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1153,21 +1162,21 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>26</v>
@@ -1179,20 +1188,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1219,7 +1228,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1236,7 +1245,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1252,7 +1261,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1262,14 +1271,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1278,14 +1287,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1295,14 +1304,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1311,14 +1320,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1335,7 +1344,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1351,24 +1360,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1390,7 +1399,7 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1398,10 +1407,10 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1410,31 +1419,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>75</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1443,31 +1452,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>78</v>
-      </c>
-      <c t="s" r="Q23" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1483,21 +1492,21 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1509,31 +1518,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1542,28 +1551,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>28</v>
@@ -1575,66 +1584,99 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
         <v>89</v>
       </c>
-      <c t="s" r="Q27" s="12">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>90</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>46</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>91</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>680.14999999999998</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
-        <v>90</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
-        <v>91</v>
-      </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
-        <v>92</v>
-      </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="P29" s="13">
+        <v>789.14999999999998</v>
+      </c>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="14">
+        <v>93</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c t="s" r="G30" s="15">
+        <v>94</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c t="s" r="K30" s="17">
+        <v>95</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="122">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1748,10 +1790,15 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:Q30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -257,6 +257,15 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>قطن 50جم</t>
   </si>
   <si>
@@ -290,7 +299,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 12:09 PM</t>
+    <t>Saturday, 23 August, 2025 12:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1535,14 +1544,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1551,14 +1560,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1568,14 +1577,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1584,14 +1593,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1617,14 +1626,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1634,49 +1643,82 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
         <v>92</v>
       </c>
-      <c t="s" r="Q28" s="12">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>93</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>46</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>94</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="29" ht="25.5" customHeight="1">
-      <c r="P29" s="13">
-        <v>789.14999999999998</v>
-      </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
-        <v>93</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
-        <v>94</v>
-      </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
-        <v>95</v>
-      </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>849.14999999999998</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>96</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>97</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>98</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1795,10 +1837,15 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -212,6 +212,15 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>TUSSKAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -293,13 +302,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>Saturday, 23 August, 2025 12:15 PM</t>
+    <t>Saturday, 23 August, 2025 12:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1402,24 +1405,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1449,10 +1452,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1461,14 +1464,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1478,14 +1481,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>78</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1494,14 +1497,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1511,14 +1514,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>81</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1534,7 +1537,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1544,14 +1547,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1577,14 +1580,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1593,14 +1596,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1610,14 +1613,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1626,14 +1629,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1643,7 +1646,7 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -1659,14 +1662,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1676,49 +1679,82 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
         <v>95</v>
       </c>
-      <c t="s" r="Q29" s="12">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>96</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>46</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>68</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>849.14999999999998</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
-        <v>96</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>873.14999999999998</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
         <v>97</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
         <v>98</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>99</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1842,10 +1878,15 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -125,6 +125,18 @@
     <t>109.0000</t>
   </si>
   <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
     <t>OTAL EAR DROPS 5 ML</t>
   </si>
   <si>
@@ -143,6 +155,15 @@
     <t>59.4000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -302,7 +323,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 12:16 PM</t>
+    <t>Saturday, 23 August, 2025 12:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1141,7 +1162,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1151,14 +1172,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1167,14 +1188,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1184,14 +1205,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1200,28 +1221,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>26</v>
@@ -1233,14 +1254,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1250,11 +1271,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>26</v>
@@ -1266,31 +1287,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1299,14 +1320,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1323,7 +1344,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>59</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1332,14 +1353,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1349,14 +1370,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1365,14 +1386,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1382,14 +1403,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>66</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1405,7 +1426,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1415,14 +1436,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1431,20 +1452,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1452,10 +1473,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1464,20 +1485,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1510,7 +1531,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1518,10 +1539,10 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>81</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1530,28 +1551,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1563,31 +1584,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>28</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1596,20 +1617,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1636,21 +1657,21 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>28</v>
@@ -1662,31 +1683,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1695,66 +1716,132 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q30" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>100</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>101</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>53</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>79</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>102</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>103</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>53</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>75</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>873.14999999999998</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
-        <v>97</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
-        <v>98</v>
-      </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
-        <v>99</v>
-      </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>940.70000000000005</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>104</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>105</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>106</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1883,10 +1970,20 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -137,6 +137,12 @@
     <t>44.5500</t>
   </si>
   <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>OTAL EAR DROPS 5 ML</t>
   </si>
   <si>
@@ -299,9 +305,6 @@
     <t>قطن 50جم</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>10.00</t>
   </si>
   <si>
@@ -323,7 +326,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 12:46 PM</t>
+    <t>Saturday, 23 August, 2025 12:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1195,7 +1198,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1205,11 +1208,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1221,14 +1224,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1238,14 +1241,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1254,14 +1257,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1271,11 +1274,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>26</v>
@@ -1287,28 +1290,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>26</v>
@@ -1320,28 +1323,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>26</v>
@@ -1353,14 +1356,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1370,14 +1373,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1386,14 +1389,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1403,14 +1406,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1419,14 +1422,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1436,14 +1439,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1452,14 +1455,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1469,14 +1472,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1485,7 +1488,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1502,11 +1505,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1518,31 +1521,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1551,31 +1554,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1584,31 +1587,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>88</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1617,31 +1620,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1650,31 +1653,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1683,31 +1686,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1716,31 +1719,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1756,21 +1759,21 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>28</v>
@@ -1782,66 +1785,99 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q32" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>103</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>104</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>55</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>77</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>940.70000000000005</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
-        <v>104</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>971.70000000000005</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
         <v>105</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
         <v>106</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>107</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1980,10 +2016,15 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -326,7 +326,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 12:47 PM</t>
+    <t>Saturday, 23 August, 2025 12:58 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -116,6 +116,36 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>HEPAMARIN 140MG 30 CAPSULE</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
+    <t>LOADLESS 5/20MG 30 CAP</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
   </si>
   <si>
@@ -125,6 +155,15 @@
     <t>109.0000</t>
   </si>
   <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
     <t>OMEGA-3 PLUS 30 CAPS.</t>
   </si>
   <si>
@@ -272,9 +311,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
@@ -326,7 +362,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 12:58 PM</t>
+    <t>Saturday, 23 August, 2025 1:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1132,7 +1168,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1142,14 +1178,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1158,14 +1194,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1175,11 +1211,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>26</v>
@@ -1191,14 +1227,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1208,14 +1244,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1224,14 +1260,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1241,11 +1277,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1257,14 +1293,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1274,11 +1310,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>26</v>
@@ -1290,14 +1326,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1307,11 +1343,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>26</v>
@@ -1323,31 +1359,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1356,14 +1392,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1373,14 +1409,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1389,14 +1425,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1406,14 +1442,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1422,14 +1458,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1439,14 +1475,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>68</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1455,28 +1491,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>26</v>
@@ -1488,14 +1524,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1505,14 +1541,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1521,7 +1557,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1538,11 +1574,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1554,31 +1590,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>28</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1600,7 +1636,7 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1611,7 +1647,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1627,24 +1663,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>90</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1653,28 +1689,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1686,28 +1722,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>28</v>
@@ -1719,28 +1755,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1752,31 +1788,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>28</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1785,31 +1821,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1818,66 +1854,198 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>109</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>56</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>68</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>110</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>971.70000000000005</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
-        <v>105</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
-        <v>106</v>
-      </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
-        <v>107</v>
-      </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>112</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>40</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>68</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>94</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>113</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>114</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>68</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>94</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>115</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>116</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>68</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>90</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1107.3299999999999</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
+        <v>117</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>118</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>119</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2021,10 +2189,30 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ACYCLOVIR-MISR 5% TOPICAL CREAM 10 GM</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>AMPOFER 20MG/ML 5 AMP. FOR I.V. INJ./INF.</t>
   </si>
   <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>275.00</t>
   </si>
   <si>
@@ -74,9 +89,6 @@
     <t>31.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>COLOVATIL 30 F.C. TABS</t>
   </si>
   <si>
@@ -95,9 +107,6 @@
     <t>CONCOR 5MG 30 TAB</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>72.00</t>
   </si>
   <si>
@@ -206,9 +215,6 @@
     <t>92.00</t>
   </si>
   <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -233,6 +239,15 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>PRIDOCAINE CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
     <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
   </si>
   <si>
@@ -362,7 +377,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 1:20 PM</t>
+    <t>Saturday, 23 August, 2025 1:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1086,7 +1101,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1095,14 +1110,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1112,14 +1127,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>30</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1135,7 +1150,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1145,14 +1160,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1161,14 +1176,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1178,14 +1193,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1194,14 +1209,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1211,14 +1226,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1227,14 +1242,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1244,14 +1259,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1260,14 +1275,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1277,14 +1292,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1300,7 +1315,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1317,7 +1332,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1333,7 +1348,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1343,14 +1358,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1359,14 +1374,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1376,14 +1391,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1392,14 +1407,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1409,14 +1424,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1432,7 +1447,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1449,7 +1464,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1465,7 +1480,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1482,7 +1497,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1498,24 +1513,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1524,31 +1539,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1557,14 +1572,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1574,14 +1589,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1590,14 +1605,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1607,14 +1622,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1623,14 +1638,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1640,14 +1655,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1656,14 +1671,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1673,14 +1688,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1689,14 +1704,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1706,14 +1721,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1722,31 +1737,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1755,31 +1770,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1788,31 +1803,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1821,31 +1836,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1854,31 +1869,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>28</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1887,31 +1902,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1920,31 +1935,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1953,31 +1968,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1986,66 +2001,132 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1107.3299999999999</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
-        <v>117</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
         <v>118</v>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
         <v>119</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>70</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>99</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>120</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>121</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>70</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>95</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>1162.3299999999999</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>122</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>123</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>124</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2209,10 +2290,20 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -377,7 +377,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 1:28 PM</t>
+    <t>Saturday, 23 August, 2025 2:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -77,6 +77,21 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>BETAFOS 1 AMP. 2ML</t>
   </si>
   <si>
@@ -92,18 +107,12 @@
     <t>COLOVATIL 30 F.C. TABS</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>63.00</t>
   </si>
   <si>
     <t>20.7900</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>CONCOR 5MG 30 TAB</t>
   </si>
   <si>
@@ -137,6 +146,12 @@
     <t>24.7500</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
     <t>LOADLESS 5/20MG 30 CAP</t>
   </si>
   <si>
@@ -377,7 +392,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 2:12 PM</t>
+    <t>Saturday, 23 August, 2025 2:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1101,7 +1116,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1110,14 +1125,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1127,14 +1142,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1150,7 +1165,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1167,7 +1182,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1183,7 +1198,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1193,14 +1208,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1209,14 +1224,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1226,14 +1241,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1242,14 +1257,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1259,14 +1274,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1275,14 +1290,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1292,14 +1307,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1308,14 +1323,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1332,7 +1347,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1348,7 +1363,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1358,14 +1373,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1374,14 +1389,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1391,14 +1406,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1407,14 +1422,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1424,14 +1439,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1440,14 +1455,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1464,7 +1479,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1480,7 +1495,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1490,14 +1505,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1506,7 +1521,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1523,14 +1538,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1546,24 +1561,24 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1572,14 +1587,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1589,14 +1604,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1605,31 +1620,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1638,14 +1653,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1655,14 +1670,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1671,14 +1686,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1688,14 +1703,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1704,14 +1719,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1721,14 +1736,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1737,14 +1752,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1754,14 +1769,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1770,14 +1785,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1787,14 +1802,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1803,31 +1818,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1836,28 +1851,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1869,31 +1884,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>107</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1902,28 +1917,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1935,31 +1950,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1968,28 +1983,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2001,28 +2016,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2034,31 +2049,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2067,66 +2082,132 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q39" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>123</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>124</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>75</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>104</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>125</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>126</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>75</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>100</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>1162.3299999999999</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
-        <v>122</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
-        <v>123</v>
-      </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
-        <v>124</v>
-      </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>1197.97</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
+        <v>127</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>128</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>129</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2300,10 +2381,20 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -287,6 +287,12 @@
     <t>0:5</t>
   </si>
   <si>
+    <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>SEPTAZOLE 400/80MG 20*10 TAB.</t>
   </si>
   <si>
@@ -329,13 +335,13 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>89:0</t>
+    <t>88:0</t>
   </si>
   <si>
     <t>20.00</t>
   </si>
   <si>
-    <t>20.0000</t>
+    <t>40.0000</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -356,7 +362,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
@@ -380,6 +386,9 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>ماكينه حلاقه جليت فليكتور</t>
   </si>
   <si>
@@ -389,10 +398,13 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>Saturday, 23 August, 2025 2:38 PM</t>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 23 August, 2025 2:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1792,7 +1804,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1802,11 +1814,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>26</v>
@@ -1818,14 +1830,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1835,14 +1847,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1851,7 +1863,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1868,11 +1880,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1884,31 +1896,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1917,14 +1929,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1934,14 +1946,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1950,14 +1962,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1967,14 +1979,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>112</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1983,7 +1995,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2000,14 +2012,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2016,14 +2028,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2033,14 +2045,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2049,14 +2061,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2066,14 +2078,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2082,14 +2094,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2099,14 +2111,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2115,14 +2127,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2132,14 +2144,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2148,14 +2160,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2165,49 +2177,82 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>1197.97</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
-        <v>127</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
         <v>128</v>
       </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
         <v>129</v>
       </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>75</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>102</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>1317.97</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
+        <v>131</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>132</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>133</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2391,10 +2436,15 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -104,6 +104,21 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>172.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>COLOVATIL 30 F.C. TABS</t>
   </si>
   <si>
@@ -146,6 +161,15 @@
     <t>24.7500</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -350,10 +374,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>4:0</t>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>13:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -362,7 +386,10 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>9.0000</t>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>7:0</t>
   </si>
   <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
@@ -401,10 +428,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>Saturday, 23 August, 2025 2:42 PM</t>
+    <t>Saturday, 23 August, 2025 2:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1177,7 +1201,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1187,14 +1211,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1203,14 +1227,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1220,14 +1244,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1236,14 +1260,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1253,14 +1277,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1269,14 +1293,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1286,11 +1310,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>26</v>
@@ -1302,14 +1326,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1319,11 +1343,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>26</v>
@@ -1335,14 +1359,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1352,14 +1376,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1368,14 +1392,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1385,11 +1409,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>26</v>
@@ -1401,14 +1425,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1418,14 +1442,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1434,14 +1458,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1451,11 +1475,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>26</v>
@@ -1467,14 +1491,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1484,14 +1508,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1500,14 +1524,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1517,14 +1541,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1533,14 +1557,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1550,14 +1574,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1566,14 +1590,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1583,14 +1607,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1599,7 +1623,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1616,14 +1640,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1632,28 +1656,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>26</v>
@@ -1665,14 +1689,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1682,11 +1706,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>26</v>
@@ -1705,24 +1729,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1731,14 +1755,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1748,14 +1772,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1764,14 +1788,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1781,14 +1805,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1804,7 +1828,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1814,14 +1838,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1830,14 +1854,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1847,14 +1871,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1863,14 +1887,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1880,14 +1904,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1896,14 +1920,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1913,14 +1937,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1929,31 +1953,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1962,31 +1986,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1995,31 +2019,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>114</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2035,24 +2059,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2061,31 +2085,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2094,31 +2118,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2127,31 +2151,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2160,31 +2184,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2193,66 +2217,132 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>135</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>136</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>83</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>114</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q43" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>1317.97</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
-        <v>131</v>
-      </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
-        <v>132</v>
-      </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
-        <v>133</v>
-      </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>137</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>138</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>83</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>110</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="P45" s="13">
+        <v>1567.97</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="14">
+        <v>139</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c t="s" r="G46" s="15">
+        <v>140</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c t="s" r="K46" s="17">
+        <v>141</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="202">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2441,10 +2531,20 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="K46:Q46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -428,7 +428,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 2:48 PM</t>
+    <t>Saturday, 23 August, 2025 2:56 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -104,6 +104,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>CALCIMATE 500 MG 12 CAPS.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
@@ -362,9 +371,6 @@
     <t>88:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
     <t>40.0000</t>
   </si>
   <si>
@@ -407,9 +413,6 @@
     <t>10.00</t>
   </si>
   <si>
-    <t>10.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -428,7 +431,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 2:56 PM</t>
+    <t>Saturday, 23 August, 2025 2:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1201,7 +1204,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1211,14 +1214,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1227,14 +1230,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1244,14 +1247,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>38</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1267,7 +1270,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1284,7 +1287,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1300,7 +1303,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1310,14 +1313,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1326,14 +1329,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1343,11 +1346,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>26</v>
@@ -1359,14 +1362,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1376,14 +1379,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1399,7 +1402,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1409,14 +1412,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>26</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1425,14 +1428,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1442,11 +1445,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>26</v>
@@ -1458,14 +1461,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1475,11 +1478,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>26</v>
@@ -1491,14 +1494,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1508,14 +1511,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1548,7 +1551,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1564,7 +1567,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1574,11 +1577,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>26</v>
@@ -1590,14 +1593,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1607,14 +1610,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1623,14 +1626,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1640,11 +1643,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1663,7 +1666,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1680,7 +1683,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1696,7 +1699,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1710,7 +1713,7 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>26</v>
@@ -1722,28 +1725,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>26</v>
@@ -1755,20 +1758,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1795,7 +1798,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1812,7 +1815,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1828,7 +1831,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1861,7 +1864,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1871,14 +1874,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1887,14 +1890,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1904,14 +1907,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>26</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1920,14 +1923,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1937,11 +1940,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>26</v>
@@ -1953,14 +1956,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1977,7 +1980,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2026,24 +2029,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2065,7 +2068,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2073,7 +2076,7 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2085,31 +2088,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>122</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2118,31 +2121,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2151,31 +2154,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2184,31 +2187,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2217,31 +2220,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2250,31 +2253,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>136</v>
+        <v>59</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2283,66 +2286,99 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
-      <c r="P45" s="13">
-        <v>1567.97</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>138</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
         <v>139</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>86</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>113</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>1577.97</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
         <v>140</v>
       </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
         <v>141</v>
       </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>142</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2541,10 +2577,15 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -365,6 +365,18 @@
     <t>15.00</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -431,7 +443,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 2:57 PM</t>
+    <t>Saturday, 23 August, 2025 3:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2105,14 +2117,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2121,14 +2133,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2138,14 +2150,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>124</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2194,7 +2206,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2204,14 +2216,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2220,14 +2232,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2237,14 +2249,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2253,14 +2265,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2270,14 +2282,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2286,14 +2298,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2307,10 +2319,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2319,14 +2331,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2336,49 +2348,82 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>1577.97</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
-        <v>140</v>
-      </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
-        <v>141</v>
-      </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
         <v>142</v>
       </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>143</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>86</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>113</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>1602.97</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>144</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>145</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>146</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2582,10 +2627,15 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -443,7 +443,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 3:22 PM</t>
+    <t>Saturday, 23 August, 2025 3:23 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -146,6 +146,18 @@
     <t>47.5200</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -221,6 +233,15 @@
     <t>49.5000</t>
   </si>
   <si>
+    <t>MIXDERM CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>OMEGA-3 PLUS 30 CAPS.</t>
   </si>
   <si>
@@ -350,12 +371,6 @@
     <t>TUSSKAN SYRUP 100 ML</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -443,7 +458,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 3:23 PM</t>
+    <t>Saturday, 23 August, 2025 4:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1365,7 +1380,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1414,7 +1429,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1424,14 +1439,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>55</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1440,14 +1455,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1457,14 +1472,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1473,14 +1488,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1490,11 +1505,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>26</v>
@@ -1513,7 +1528,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1523,11 +1538,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>26</v>
@@ -1539,14 +1554,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1556,14 +1571,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1572,7 +1587,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1589,14 +1604,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1605,14 +1620,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1645,7 +1660,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1655,11 +1670,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1671,14 +1686,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1688,14 +1703,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1704,14 +1719,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1721,14 +1736,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1737,7 +1752,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1754,14 +1769,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1770,20 +1785,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1810,7 +1825,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1824,7 +1839,7 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>26</v>
@@ -1836,31 +1851,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1869,14 +1884,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1886,14 +1901,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1902,14 +1917,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1926,7 +1941,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1935,14 +1950,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1952,14 +1967,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1992,7 +2007,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2001,14 +2016,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2018,14 +2033,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2041,7 +2056,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2051,14 +2066,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2067,20 +2082,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2088,10 +2103,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2100,28 +2115,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2133,28 +2148,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2166,31 +2181,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2199,31 +2214,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>132</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2232,31 +2247,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>134</v>
+        <v>63</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2265,31 +2280,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2305,24 +2320,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2331,31 +2346,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2364,66 +2379,132 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>145</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>146</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>93</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>122</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q47" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>1602.97</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
-        <v>144</v>
-      </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
-        <v>145</v>
-      </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
-        <v>146</v>
-      </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>147</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>148</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>93</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>75</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
+        <v>1659.97</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
+        <v>149</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
+        <v>150</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>151</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2632,10 +2713,20 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -339,6 +339,18 @@
   </si>
   <si>
     <t>0:5</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
   </si>
   <si>
     <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
@@ -2023,7 +2035,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2033,11 +2045,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>26</v>
@@ -2049,14 +2061,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2066,7 +2078,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2089,7 +2101,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2099,14 +2111,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2115,7 +2127,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2132,11 +2144,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2148,31 +2160,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2181,14 +2193,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2198,14 +2210,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2231,14 +2243,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2247,14 +2259,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2264,14 +2276,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>133</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2320,7 +2332,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2330,14 +2342,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2346,14 +2358,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2363,14 +2375,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2379,14 +2391,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2396,14 +2408,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2412,14 +2424,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2429,14 +2441,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2445,14 +2457,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2462,49 +2474,82 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>1659.97</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
-        <v>149</v>
-      </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
-        <v>150</v>
-      </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
         <v>151</v>
       </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>152</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>93</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>75</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>1667.02</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>153</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>154</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>155</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2723,10 +2768,15 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
@@ -95,9 +107,6 @@
     <t>BETAFOS 1 AMP. 2ML</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>31.00</t>
   </si>
   <si>
@@ -149,13 +158,13 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>20:0</t>
+    <t>19:0</t>
   </si>
   <si>
     <t>33.00</t>
   </si>
   <si>
-    <t>33.0000</t>
+    <t>66.0000</t>
   </si>
   <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
@@ -182,6 +191,18 @@
     <t>24.7500</t>
   </si>
   <si>
+    <t>HISTAZINE-1 0.1% SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -200,15 +221,24 @@
     <t>LOADLESS 5/20MG 30 CAP</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>114.00</t>
   </si>
   <si>
     <t>37.6200</t>
   </si>
   <si>
+    <t>LUBRISTIRA 15ML EYE DROPS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
     <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
   </si>
   <si>
@@ -236,12 +266,6 @@
     <t>MIXDERM CREAM 15 GM</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>OMEGA-3 PLUS 30 CAPS.</t>
   </si>
   <si>
@@ -290,9 +314,6 @@
     <t>1:3</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>108.00</t>
   </si>
   <si>
@@ -317,6 +338,15 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>PRIMPERAN 10MG 10 SCORED TAB.</t>
+  </si>
+  <si>
+    <t>10.50</t>
+  </si>
+  <si>
+    <t>10.5000</t>
+  </si>
+  <si>
     <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
   </si>
   <si>
@@ -413,6 +443,15 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -470,7 +509,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 4:37 PM</t>
+    <t>Saturday, 23 August, 2025 5:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1194,7 +1233,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1203,14 +1242,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1220,14 +1259,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>30</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1243,7 +1282,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1260,7 +1299,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1276,7 +1315,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1286,14 +1325,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1302,14 +1341,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1319,14 +1358,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>41</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1342,7 +1381,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1359,7 +1398,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1375,7 +1414,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1385,14 +1424,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1401,14 +1440,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1418,14 +1457,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1434,14 +1473,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1451,14 +1490,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1467,14 +1506,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1484,14 +1523,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1517,14 +1556,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1533,14 +1572,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1550,14 +1589,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>26</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1566,14 +1605,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1583,14 +1622,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1599,14 +1638,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1616,14 +1655,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1632,31 +1671,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1665,14 +1704,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1682,14 +1721,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1698,14 +1737,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1722,7 +1761,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1738,7 +1777,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1748,14 +1787,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>30</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1764,14 +1803,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1781,11 +1820,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1797,14 +1836,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1821,7 +1860,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1837,7 +1876,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1847,14 +1886,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1870,24 +1909,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1896,14 +1935,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1913,14 +1952,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1929,7 +1968,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1946,14 +1985,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1962,31 +2001,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1995,14 +2034,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2012,14 +2051,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>109</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2028,14 +2067,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2045,14 +2084,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2061,14 +2100,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2078,14 +2117,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2094,14 +2133,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2111,14 +2150,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2127,14 +2166,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2144,14 +2183,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2160,14 +2199,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2177,14 +2216,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2200,24 +2239,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2226,31 +2265,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2259,31 +2298,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2292,31 +2331,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>24</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>137</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2325,31 +2364,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>141</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2358,31 +2397,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2391,31 +2430,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>35</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2424,31 +2463,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2457,31 +2496,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>150</v>
+        <v>61</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2497,59 +2536,224 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>61</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>155</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>156</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>73</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>113</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q50" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>1667.02</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
-        <v>153</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
-        <v>154</v>
-      </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
-        <v>155</v>
-      </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>158</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>90</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>73</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>159</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>160</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>61</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>73</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>136</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>162</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>163</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>73</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>136</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>164</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>165</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>73</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>24</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="P55" s="13">
+        <v>1871.52</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="14">
+        <v>166</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c t="s" r="G56" s="15">
+        <v>167</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c t="s" r="K56" s="17">
+        <v>168</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="252">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2773,10 +2977,35 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -452,6 +452,9 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">حنه جومانا </t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -509,7 +512,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 5:38 PM</t>
+    <t>Saturday, 23 August, 2025 5:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2513,14 +2516,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>150</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2529,7 +2532,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2546,14 +2549,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2562,14 +2565,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>156</v>
+        <v>61</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2579,14 +2582,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2595,14 +2598,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2612,14 +2615,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>36</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2628,14 +2631,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2645,14 +2648,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2661,14 +2664,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>163</v>
+        <v>61</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2682,10 +2685,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2694,14 +2697,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2711,49 +2714,82 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
-      <c r="P55" s="13">
-        <v>1871.52</v>
-      </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="14">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>165</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
         <v>166</v>
       </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c t="s" r="G56" s="15">
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>73</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>24</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="P56" s="13">
+        <v>1891.52</v>
+      </c>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="14">
         <v>167</v>
       </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c t="s" r="K56" s="17">
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c t="s" r="G57" s="15">
         <v>168</v>
       </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c t="s" r="K57" s="17">
+        <v>169</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
+  <mergeCells count="257">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3002,10 +3038,15 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="K57:Q57"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -155,6 +155,18 @@
     <t>47.5200</t>
   </si>
   <si>
+    <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -179,6 +191,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>ECTOMETHRIN 5% LOTION 50 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>HEPAMARIN 140MG 30 CAPSULE</t>
   </si>
   <si>
@@ -194,15 +215,30 @@
     <t>HISTAZINE-1 0.1% SYRUP 100ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>34.00</t>
   </si>
   <si>
     <t>34.0000</t>
   </si>
   <si>
+    <t>IVERZINE 6MG 24 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>KAPRITAGE SOAP 100 GM</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -284,6 +320,9 @@
     <t>6:0</t>
   </si>
   <si>
+    <t>OPTIDEX -T EYE DROPS 5 ML</t>
+  </si>
+  <si>
     <t>OTAL EAR DROPS 5 ML</t>
   </si>
   <si>
@@ -386,9 +425,6 @@
     <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
   </si>
   <si>
-    <t>55.0000</t>
-  </si>
-  <si>
     <t>SEPTAZOLE 400/80MG 20*10 TAB.</t>
   </si>
   <si>
@@ -440,9 +476,6 @@
     <t>88:0</t>
   </si>
   <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t>حلاوة حرير</t>
   </si>
   <si>
@@ -497,9 +530,6 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>45.0000</t>
-  </si>
-  <si>
     <t>ماكينه حلاقه جليت فليكتور</t>
   </si>
   <si>
@@ -512,7 +542,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 5:51 PM</t>
+    <t>Saturday, 23 August, 2025 5:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1467,7 +1497,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1500,7 +1530,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1549,7 +1579,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1559,11 +1589,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1575,14 +1605,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1592,14 +1622,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1615,7 +1645,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1625,14 +1655,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1641,14 +1671,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1658,14 +1688,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1674,20 +1704,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1714,7 +1744,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1724,14 +1754,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>30</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1740,14 +1770,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1757,14 +1787,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1780,7 +1810,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1819,15 +1849,15 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1839,14 +1869,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1856,11 +1886,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>30</v>
@@ -1872,14 +1902,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1889,11 +1919,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1905,14 +1935,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1922,14 +1952,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1938,14 +1968,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1955,14 +1985,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1978,7 +2008,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1988,11 +2018,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>30</v>
@@ -2004,31 +2034,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2044,7 +2074,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2054,14 +2084,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2070,7 +2100,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2087,11 +2117,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2103,14 +2133,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2120,14 +2150,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2136,14 +2166,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2153,14 +2183,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2169,31 +2199,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>119</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2202,14 +2232,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2219,11 +2249,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>30</v>
@@ -2235,14 +2265,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2252,14 +2282,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2268,14 +2298,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2285,14 +2315,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2301,7 +2331,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2318,11 +2348,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2334,14 +2364,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2351,14 +2381,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2367,31 +2397,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2407,24 +2437,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2433,31 +2463,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2466,28 +2496,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2499,28 +2529,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2532,31 +2562,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>61</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>151</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2565,31 +2595,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>61</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>155</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2598,28 +2628,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2631,28 +2661,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2664,31 +2694,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2697,31 +2727,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>49</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2730,66 +2760,231 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>166</v>
+        <v>49</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>24</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>167</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>168</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>85</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>126</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q56" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="56" ht="25.5" customHeight="1">
-      <c r="P56" s="13">
-        <v>1891.52</v>
-      </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c t="s" r="A57" s="14">
-        <v>167</v>
-      </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c t="s" r="G57" s="15">
-        <v>168</v>
-      </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
-      <c t="s" r="K57" s="17">
-        <v>169</v>
-      </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>170</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>102</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>85</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>171</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>172</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>49</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>85</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>148</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>173</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>174</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>85</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>148</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>175</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>176</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>85</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>24</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="P61" s="13">
+        <v>2163.52</v>
+      </c>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="14">
+        <v>177</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c t="s" r="G62" s="15">
+        <v>178</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c t="s" r="K62" s="17">
+        <v>179</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="282">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3043,10 +3238,35 @@
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:Q62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -65,303 +65,315 @@
     <t>AMPOFER 20MG/ML 5 AMP. FOR I.V. INJ./INF.</t>
   </si>
   <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>BETAFOS 1 AMP. 2ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>CALCIMATE 500 MG 12 CAPS.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>CALDIN C 30 TABS.</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>-62.7000</t>
+  </si>
+  <si>
+    <t>0:-2</t>
+  </si>
+  <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>172.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>CONCOR 5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>9:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>ECTOMETHRIN 5% LOTION 50 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>HEPAMARIN 140MG 30 CAPSULE</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
+    <t>HISTAZINE-1 0.1% SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>IVERZINE 6MG 24 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>KAPRITAGE SOAP 100 GM</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>LOADLESS 5/20MG 30 CAP</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>LUBRISTIRA 15ML EYE DROPS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
+    <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>MIXDERM CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>OPTIDEX -T EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>275.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>ANTODINE 20MG 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>19.8000</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>BETAFOS 1 AMP. 2ML</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>CALCIMATE 500 MG 12 CAPS.</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>172.0000</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>COLOVATIL 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>CONCOR 5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>19:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>9:2</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>ECTOMETHRIN 5% LOTION 50 ML</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>HEPAMARIN 140MG 30 CAPSULE</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>24.7500</t>
-  </si>
-  <si>
-    <t>HISTAZINE-1 0.1% SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>IVERZINE 6MG 24 TABS.</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>84.0000</t>
-  </si>
-  <si>
-    <t>KAPRITAGE SOAP 100 GM</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>LOADLESS 5/20MG 30 CAP</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>LUBRISTIRA 15ML EYE DROPS</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>83.00</t>
-  </si>
-  <si>
-    <t>83.0000</t>
-  </si>
-  <si>
-    <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>109.00</t>
-  </si>
-  <si>
-    <t>109.0000</t>
-  </si>
-  <si>
-    <t>MILGA ADVANCE 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>MIXDERM CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>OMEGA-3 PLUS 30 CAPS.</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>OPTIDEX -T EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>OTAL EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>59.4000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
     <t>102.00</t>
   </si>
   <si>
@@ -542,7 +554,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 5:52 PM</t>
+    <t>Saturday, 23 August, 2025 6:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1381,7 +1393,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1391,14 +1403,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>40</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>41</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1407,14 +1419,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1431,7 +1443,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1440,14 +1452,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1457,14 +1469,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1473,14 +1485,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1497,7 +1509,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1506,14 +1518,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1530,7 +1542,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1563,7 +1575,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1579,7 +1591,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1589,14 +1601,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1605,14 +1617,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1629,7 +1641,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1645,7 +1657,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1655,14 +1667,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1671,14 +1683,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1688,11 +1700,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1704,14 +1716,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1721,11 +1733,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1737,14 +1749,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1754,14 +1766,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1770,14 +1782,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1787,14 +1799,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>30</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1803,14 +1815,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1820,11 +1832,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>30</v>
@@ -1836,20 +1848,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1860,7 +1872,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1876,24 +1888,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1902,14 +1914,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1919,14 +1931,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1935,7 +1947,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1952,14 +1964,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1968,14 +1980,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1985,14 +1997,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2001,14 +2013,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2018,14 +2030,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2051,14 +2063,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2067,14 +2079,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2084,11 +2096,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2100,14 +2112,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2117,11 +2129,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2133,14 +2145,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2150,14 +2162,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2166,14 +2178,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2183,11 +2195,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>30</v>
@@ -2199,28 +2211,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>30</v>
@@ -2245,7 +2257,7 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2272,7 +2284,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2282,14 +2294,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2298,14 +2310,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2315,11 +2327,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2331,14 +2343,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2348,11 +2360,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2364,14 +2376,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2388,7 +2400,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>132</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2397,14 +2409,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2414,14 +2426,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q44" s="12">
         <v>136</v>
-      </c>
-      <c t="s" r="Q44" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2437,7 +2449,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2447,11 +2459,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>30</v>
@@ -2463,14 +2475,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2480,11 +2492,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>30</v>
@@ -2503,7 +2515,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2513,14 +2525,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2529,7 +2541,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2546,11 +2558,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2562,31 +2574,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>24</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2595,31 +2607,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2641,18 +2653,18 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>51</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2661,20 +2673,20 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2682,10 +2694,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2694,20 +2706,20 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2715,7 +2727,7 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2727,31 +2739,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>162</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2767,13 +2779,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2800,24 +2812,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2826,31 +2838,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>102</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2859,31 +2871,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2892,31 +2904,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2925,66 +2937,99 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>2163.52</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
-        <v>177</v>
-      </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
-        <v>178</v>
-      </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
         <v>179</v>
       </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>180</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>89</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>24</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>1990.8199999999999</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
+        <v>181</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>182</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>183</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3263,10 +3308,15 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -104,6 +104,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.1200</t>
+  </si>
+  <si>
     <t>BETAFOS 1 AMP. 2ML</t>
   </si>
   <si>
@@ -191,6 +203,30 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>COSMOFER 50MG/ML FOR INF. 5 AMPS.</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>470.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -203,6 +239,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>DROSPIFEM 0.03/3MG 21 TABS.</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
     <t>ECTOMETHRIN 5% LOTION 50 ML</t>
   </si>
   <si>
@@ -257,9 +302,6 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>0:4</t>
-  </si>
-  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -554,7 +596,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 6:00 PM</t>
+    <t>Saturday, 23 August, 2025 6:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1327,7 +1369,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1337,14 +1379,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1353,14 +1395,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1370,14 +1412,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1386,14 +1428,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1403,14 +1445,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1426,7 +1468,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1436,14 +1478,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>44</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>45</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1452,14 +1494,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1476,7 +1518,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1485,14 +1527,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1502,14 +1544,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1525,7 +1567,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1542,7 +1584,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1551,14 +1593,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1575,7 +1617,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1608,7 +1650,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1624,7 +1666,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1634,14 +1676,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1650,14 +1692,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1667,11 +1709,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>30</v>
@@ -1683,14 +1725,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1700,14 +1742,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1716,7 +1758,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1733,11 +1775,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1749,14 +1791,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1766,11 +1808,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1782,14 +1824,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1799,14 +1841,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>82</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1815,14 +1857,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1832,14 +1874,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1848,7 +1890,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1865,14 +1907,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1881,28 +1923,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1914,14 +1956,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1931,14 +1973,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1947,14 +1989,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1964,14 +2006,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1980,14 +2022,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1997,11 +2039,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>30</v>
@@ -2013,7 +2055,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2026,15 +2068,15 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2046,14 +2088,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2063,11 +2105,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>30</v>
@@ -2079,14 +2121,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2096,11 +2138,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2112,14 +2154,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2129,14 +2171,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2145,14 +2187,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2162,11 +2204,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2178,14 +2220,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2195,11 +2237,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>30</v>
@@ -2211,14 +2253,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2228,14 +2270,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2244,31 +2286,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2277,14 +2319,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2294,14 +2336,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2310,14 +2352,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2327,14 +2369,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2343,14 +2385,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2360,14 +2402,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2376,31 +2418,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2409,14 +2451,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2426,14 +2468,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>136</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2449,7 +2491,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2459,14 +2501,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2475,14 +2517,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2492,14 +2534,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>66</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2508,14 +2550,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2532,7 +2574,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2548,7 +2590,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2558,14 +2600,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2574,14 +2616,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2591,14 +2633,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>24</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2607,31 +2649,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2640,31 +2682,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2673,31 +2715,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>55</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2706,28 +2748,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2739,31 +2781,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>35</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2772,31 +2814,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>166</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2805,31 +2847,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>39</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>170</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2838,31 +2880,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2871,28 +2913,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>39</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>36</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2904,7 +2946,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2917,18 +2959,18 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>23</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2937,31 +2979,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>131</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2970,66 +3012,198 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>1990.8199999999999</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
-        <v>181</v>
-      </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
-        <v>182</v>
-      </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
-        <v>183</v>
-      </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>188</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>120</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>103</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>189</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>190</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>21</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>103</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>166</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>191</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>192</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>103</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>166</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>193</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>194</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>103</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>24</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="P66" s="13">
+        <v>2286.8200000000002</v>
+      </c>
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="14">
+        <v>195</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c t="s" r="G67" s="15">
+        <v>196</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c t="s" r="K67" s="17">
+        <v>197</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="307">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3313,10 +3487,30 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="K67:Q67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -230,84 +230,90 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>9:2</t>
+    <t>8:2</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
+    <t>63.8400</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>DROSPIFEM 0.03/3MG 21 TABS.</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
+    <t>ECTOMETHRIN 5% LOTION 50 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>HEPAMARIN 140MG 30 CAPSULE</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
+    <t>HISTAZINE-1 0.1% SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>IVERZINE 6MG 24 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>KAPRITAGE SOAP 100 GM</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
     <t>15.8400</t>
   </si>
   <si>
-    <t>DROSPIFEM 0.03/3MG 21 TABS.</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>87.0000</t>
-  </si>
-  <si>
-    <t>ECTOMETHRIN 5% LOTION 50 ML</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>HEPAMARIN 140MG 30 CAPSULE</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>24.7500</t>
-  </si>
-  <si>
-    <t>HISTAZINE-1 0.1% SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>IVERZINE 6MG 24 TABS.</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>84.0000</t>
-  </si>
-  <si>
-    <t>KAPRITAGE SOAP 100 GM</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
     <t>LOADLESS 5/20MG 30 CAP</t>
   </si>
   <si>
@@ -317,6 +323,15 @@
     <t>37.6200</t>
   </si>
   <si>
+    <t>LOLAWEST 3GM 6 SACHETS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>LUBRISTIRA 15ML EYE DROPS</t>
   </si>
   <si>
@@ -413,9 +428,6 @@
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>102.00</t>
   </si>
   <si>
@@ -596,7 +608,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 6:07 PM</t>
+    <t>Saturday, 23 August, 2025 6:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1749,7 +1761,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>30</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1758,7 +1770,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1775,11 +1787,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1791,7 +1803,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1808,11 +1820,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1824,14 +1836,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1841,11 +1853,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>30</v>
@@ -1857,7 +1869,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1874,11 +1886,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1890,7 +1902,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1907,11 +1919,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1923,7 +1935,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1940,11 +1952,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1956,7 +1968,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1977,7 +1989,7 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>65</v>
@@ -1989,14 +2001,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2010,7 +2022,7 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>30</v>
@@ -2022,7 +2034,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2039,11 +2051,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>30</v>
@@ -2055,7 +2067,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2068,15 +2080,15 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2088,31 +2100,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2121,14 +2133,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2138,14 +2150,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2154,7 +2166,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2171,14 +2183,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2187,14 +2199,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2204,14 +2216,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2220,14 +2232,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2237,14 +2249,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2253,14 +2265,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2270,14 +2282,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2286,14 +2298,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2303,11 +2315,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2319,14 +2331,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2336,11 +2348,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2352,14 +2364,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2369,14 +2381,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2385,14 +2397,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2402,11 +2414,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>30</v>
@@ -2418,28 +2430,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>30</v>
@@ -2451,28 +2463,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>30</v>
@@ -2484,14 +2496,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2501,14 +2513,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2517,14 +2529,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2534,11 +2546,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2550,14 +2562,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2567,11 +2579,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2583,14 +2595,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2607,7 +2619,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>150</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2616,14 +2628,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2633,14 +2645,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q49" s="12">
         <v>154</v>
-      </c>
-      <c t="s" r="Q49" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2656,7 +2668,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2666,11 +2678,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>30</v>
@@ -2682,14 +2694,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2699,11 +2711,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>30</v>
@@ -2722,7 +2734,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2732,14 +2744,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2748,7 +2760,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2765,11 +2777,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2781,31 +2793,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>24</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>145</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2814,31 +2826,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2860,18 +2872,18 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>59</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2880,20 +2892,20 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2901,10 +2913,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2913,20 +2925,20 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>178</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2934,7 +2946,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2946,7 +2958,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2959,18 +2971,18 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>39</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>180</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2992,7 +3004,7 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3019,24 +3031,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3045,31 +3057,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3078,31 +3090,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3111,31 +3123,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>192</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3144,66 +3156,99 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>24</v>
+        <v>170</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
-      <c r="P66" s="13">
-        <v>2286.8200000000002</v>
-      </c>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="14">
-        <v>195</v>
-      </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c t="s" r="G67" s="15">
-        <v>196</v>
-      </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
-      <c t="s" r="K67" s="17">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
         <v>197</v>
       </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>198</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>108</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>24</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>2430.8200000000002</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
+        <v>199</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
+        <v>200</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>201</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="307">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3507,10 +3552,15 @@
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -161,6 +161,12 @@
     <t>4:0</t>
   </si>
   <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>28:0</t>
+  </si>
+  <si>
     <t>COLOVATIL 30 F.C. TABS</t>
   </si>
   <si>
@@ -344,6 +350,18 @@
     <t>83.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">LUNGOCORT 0.5/2ML  AMP</t>
+  </si>
+  <si>
+    <t>0:16</t>
+  </si>
+  <si>
+    <t>264.00</t>
+  </si>
+  <si>
+    <t>13.2000</t>
+  </si>
+  <si>
     <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
   </si>
   <si>
@@ -371,6 +389,27 @@
     <t>MIXDERM CREAM 15 GM</t>
   </si>
   <si>
+    <t>MUCOPHYLLINE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>OCTOVENT PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
     <t>OMEGA-3 PLUS 30 CAPS.</t>
   </si>
   <si>
@@ -503,6 +542,15 @@
     <t>17.0000</t>
   </si>
   <si>
+    <t>SWABIVENT NEBULIZER SOLN. 20 AMP. 2.5ML</t>
+  </si>
+  <si>
+    <t>176.00</t>
+  </si>
+  <si>
+    <t>8.8000</t>
+  </si>
+  <si>
     <t>TAVACIN 500MG 5 F.C. TAB</t>
   </si>
   <si>
@@ -599,16 +647,13 @@
     <t>ماكينه حلاقه جليت فليكتور</t>
   </si>
   <si>
-    <t>16:0</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
     <t>8:0</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 6:23 PM</t>
+    <t>Saturday, 23 August, 2025 6:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1546,7 +1591,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1556,14 +1601,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1572,14 +1617,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1589,14 +1634,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1605,14 +1650,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1622,14 +1667,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1638,14 +1683,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1655,14 +1700,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1671,14 +1716,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1688,14 +1733,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1704,14 +1749,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1721,14 +1766,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>30</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1737,14 +1782,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1754,14 +1799,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1770,14 +1815,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1787,14 +1832,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1803,14 +1848,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1820,11 +1865,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1836,14 +1881,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1853,14 +1898,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1869,14 +1914,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1886,14 +1931,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1902,7 +1947,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1919,11 +1964,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1935,7 +1980,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1952,11 +1997,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1968,14 +2013,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1985,14 +2030,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2008,7 +2053,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2018,14 +2063,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2034,14 +2079,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2051,11 +2096,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>30</v>
@@ -2067,14 +2112,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2084,14 +2129,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2100,7 +2145,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2113,15 +2158,15 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2133,31 +2178,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2173,24 +2218,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2199,14 +2244,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2216,7 +2261,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2239,7 +2284,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2249,11 +2294,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2265,14 +2310,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2282,11 +2327,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>30</v>
@@ -2298,14 +2343,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2315,11 +2360,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2338,7 +2383,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2348,11 +2393,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2364,14 +2409,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2381,11 +2426,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2397,14 +2442,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2414,11 +2459,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>30</v>
@@ -2430,14 +2475,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2447,14 +2492,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2463,31 +2508,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2496,14 +2541,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2513,14 +2558,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2529,14 +2574,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2546,14 +2591,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2562,14 +2607,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2579,14 +2624,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2595,31 +2640,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2628,14 +2673,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2652,7 +2697,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>154</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2661,14 +2706,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2678,14 +2723,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2694,14 +2739,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2711,14 +2756,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2734,7 +2779,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2744,14 +2789,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2760,14 +2805,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2784,7 +2829,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2793,14 +2838,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>169</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2810,14 +2855,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>24</v>
+        <v>170</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2826,31 +2871,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>19</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2859,31 +2904,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2892,31 +2937,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>59</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2925,28 +2970,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>39</v>
+        <v>181</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2958,28 +3003,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2991,31 +3036,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>185</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>184</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3024,31 +3069,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>188</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>188</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3057,28 +3102,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3090,28 +3135,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>125</v>
+        <v>194</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>39</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>40</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3123,7 +3168,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3136,18 +3181,18 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>170</v>
+        <v>39</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3156,31 +3201,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>196</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>149</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>200</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3189,66 +3234,231 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>24</v>
+        <v>202</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
+        <v>203</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>205</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>206</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>110</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>161</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>208</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>138</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>110</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>209</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>210</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>21</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>110</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>186</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
         <v>97</v>
       </c>
-      <c t="s" r="Q66" s="12">
+      <c t="s" r="Q69" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>211</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>127</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>110</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>186</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q70" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>2430.8200000000002</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
-        <v>199</v>
-      </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
-        <v>200</v>
-      </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
-        <v>201</v>
-      </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>212</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>213</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>110</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>24</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>2562.8200000000002</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
+        <v>214</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
+        <v>215</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>216</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3557,10 +3767,35 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -266,6 +266,15 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>EPILAT RETARD 20MG SR. 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>HEPAMARIN 140MG 30 CAPSULE</t>
   </si>
   <si>
@@ -464,6 +473,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>PANADOL JOINT 24 ER TABS.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>33.5000</t>
+  </si>
+  <si>
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
@@ -560,6 +578,15 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>TRAJENTA 5 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>501.00</t>
+  </si>
+  <si>
+    <t>501.0000</t>
+  </si>
+  <si>
     <t>TUSSKAN SYRUP 100 ML</t>
   </si>
   <si>
@@ -653,7 +680,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 6:33 PM</t>
+    <t>Saturday, 23 August, 2025 6:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1921,7 +1948,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1931,14 +1958,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1947,14 +1974,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1971,7 +1998,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2053,7 +2080,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2063,14 +2090,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2079,14 +2106,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2096,14 +2123,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2119,7 +2146,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2129,7 +2156,7 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -2152,7 +2179,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2169,7 +2196,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2191,15 +2218,15 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2211,31 +2238,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2244,28 +2271,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>30</v>
@@ -2277,14 +2304,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2294,14 +2321,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2334,7 +2361,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2350,7 +2377,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2360,14 +2387,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2376,14 +2403,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2393,11 +2420,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2409,14 +2436,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2449,7 +2476,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2459,14 +2486,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2475,14 +2502,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2492,14 +2519,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2508,14 +2535,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>141</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2525,11 +2552,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2541,14 +2568,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2558,11 +2585,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2581,7 +2608,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2598,7 +2625,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2614,7 +2641,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2628,7 +2655,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>30</v>
@@ -2640,28 +2667,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>30</v>
@@ -2680,13 +2707,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2713,7 +2740,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2730,7 +2757,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2746,7 +2773,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2763,7 +2790,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2779,7 +2806,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2812,7 +2839,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>164</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2822,14 +2849,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>167</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2838,14 +2865,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2855,14 +2882,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2871,14 +2898,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2888,14 +2915,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>30</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2904,14 +2931,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2921,11 +2948,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>30</v>
@@ -2937,14 +2964,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2954,11 +2981,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>19</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>30</v>
@@ -2970,14 +2997,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>180</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2994,7 +3021,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3020,14 +3047,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>24</v>
+        <v>184</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>25</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3036,31 +3063,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3069,28 +3096,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>188</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3102,31 +3129,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3148,18 +3175,18 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>39</v>
+        <v>195</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3175,21 +3202,21 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>197</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>39</v>
+        <v>198</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3201,31 +3228,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>201</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>39</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>200</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3234,31 +3261,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>202</v>
+        <v>39</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>204</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3274,24 +3301,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>206</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>161</v>
+        <v>39</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3300,31 +3327,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>209</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3346,18 +3373,18 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>97</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>23</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3366,28 +3393,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>127</v>
+        <v>215</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3399,66 +3426,165 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>24</v>
+        <v>218</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q71" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>219</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>21</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>113</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>195</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>220</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>130</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>113</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>195</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q73" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>2562.8200000000002</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
-        <v>214</v>
-      </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
-        <v>215</v>
-      </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
-        <v>216</v>
-      </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>221</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>222</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>113</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>24</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="P75" s="13">
+        <v>3119.3200000000002</v>
+      </c>
+      <c r="Q75" s="13"/>
+    </row>
+    <row r="76" ht="16.5" customHeight="1">
+      <c t="s" r="A76" s="14">
+        <v>223</v>
+      </c>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c t="s" r="G76" s="15">
+        <v>224</v>
+      </c>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+      <c t="s" r="K76" s="17">
+        <v>225</v>
+      </c>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="352">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3792,10 +3918,25 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="K76:Q76"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -680,7 +680,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 6:45 PM</t>
+    <t>Saturday, 23 August, 2025 6:51 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>AMARYL 4 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>AMPOFER 20MG/ML 5 AMP. FOR I.V. INJ./INF.</t>
   </si>
   <si>
@@ -92,18 +107,12 @@
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
     <t>19.8000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
@@ -275,6 +284,18 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>44.2800</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
     <t>HEPAMARIN 140MG 30 CAPSULE</t>
   </si>
   <si>
@@ -467,9 +488,6 @@
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
-    <t>108.00</t>
-  </si>
-  <si>
     <t>27.0000</t>
   </si>
   <si>
@@ -530,9 +548,6 @@
     <t>6.6000</t>
   </si>
   <si>
-    <t>0:5</t>
-  </si>
-  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -680,7 +695,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 6:51 PM</t>
+    <t>Saturday, 23 August, 2025 6:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1404,7 +1419,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1413,14 +1428,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1430,14 +1445,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1453,7 +1468,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1463,14 +1478,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1479,14 +1494,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1503,7 +1518,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1519,7 +1534,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1536,7 +1551,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1552,7 +1567,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1569,7 +1584,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1578,14 +1593,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1595,14 +1610,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1611,14 +1626,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1628,14 +1643,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1644,14 +1659,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1661,14 +1676,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1684,7 +1699,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1701,7 +1716,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1710,14 +1725,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1727,14 +1742,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>61</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1750,7 +1765,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1760,14 +1775,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1776,14 +1791,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1793,14 +1808,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1809,14 +1824,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1826,14 +1841,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>30</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1842,14 +1857,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1859,14 +1874,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>78</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1875,14 +1890,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1892,14 +1907,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>81</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1915,7 +1930,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1948,7 +1963,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1981,7 +1996,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1991,14 +2006,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2007,14 +2022,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2024,14 +2039,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>94</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2047,7 +2062,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2057,14 +2072,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2073,14 +2088,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2090,11 +2105,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2106,14 +2121,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2123,14 +2138,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2139,14 +2154,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2156,14 +2171,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2172,14 +2187,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2189,14 +2204,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2205,14 +2220,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2222,14 +2237,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2238,20 +2253,20 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2262,7 +2277,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2278,24 +2293,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2304,31 +2319,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2337,31 +2352,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2370,14 +2385,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2387,14 +2402,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2403,14 +2418,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2420,11 +2435,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2436,14 +2451,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2453,14 +2468,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2469,14 +2484,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2486,11 +2501,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2526,7 +2541,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2542,7 +2557,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>141</v>
+        <v>28</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2552,11 +2567,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2568,14 +2583,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2585,14 +2600,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2601,14 +2616,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2618,11 +2633,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2634,14 +2649,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2651,14 +2666,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2667,7 +2682,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2684,14 +2699,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2700,31 +2715,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2733,14 +2748,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2750,14 +2765,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2766,31 +2781,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2806,7 +2821,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2823,7 +2838,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2839,7 +2854,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2856,7 +2871,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2872,7 +2887,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2905,7 +2920,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>170</v>
+        <v>28</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2915,14 +2930,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>173</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2931,14 +2946,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>175</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2948,14 +2963,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2964,14 +2979,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2981,14 +2996,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>84</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>30</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3021,7 +3036,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3037,7 +3052,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3047,14 +3062,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>184</v>
+        <v>24</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>185</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3063,14 +3078,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3080,14 +3095,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3096,14 +3111,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3113,14 +3128,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3129,7 +3144,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3146,11 +3161,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>25</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3162,20 +3177,20 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>194</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3183,10 +3198,10 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3195,28 +3210,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>197</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>198</v>
+        <v>29</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>199</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3228,28 +3243,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>39</v>
+        <v>200</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>61</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3261,24 +3276,24 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>39</v>
+        <v>203</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3301,24 +3316,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3327,31 +3342,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>208</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>209</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3367,24 +3382,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>213</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3393,31 +3408,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>215</v>
+        <v>26</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3426,31 +3441,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>40</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>218</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3466,24 +3481,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>100</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3492,31 +3507,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3525,66 +3540,132 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>222</v>
+        <v>26</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>24</v>
+        <v>200</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q74" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>225</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>137</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>120</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>200</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q75" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="75" ht="24.75" customHeight="1">
-      <c r="P75" s="13">
-        <v>3119.3200000000002</v>
-      </c>
-      <c r="Q75" s="13"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c t="s" r="A76" s="14">
-        <v>223</v>
-      </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c t="s" r="G76" s="15">
-        <v>224</v>
-      </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="16"/>
-      <c t="s" r="K76" s="17">
-        <v>225</v>
-      </c>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>226</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>227</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>120</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>29</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="P77" s="13">
+        <v>3199.2399999999998</v>
+      </c>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
+        <v>228</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>229</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>230</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="352">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3933,10 +4014,20 @@
     <mergeCell ref="H74:K74"/>
     <mergeCell ref="L74:M74"/>
     <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -170,6 +170,15 @@
     <t>4:0</t>
   </si>
   <si>
+    <t>CEFZIM 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -233,13 +242,13 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>2:3</t>
+    <t>2:2</t>
   </si>
   <si>
     <t>36.00</t>
   </si>
   <si>
-    <t>11.8800</t>
+    <t>23.7600</t>
   </si>
   <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
@@ -395,9 +404,6 @@
     <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
   </si>
   <si>
-    <t>23.7600</t>
-  </si>
-  <si>
     <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
   </si>
   <si>
@@ -644,18 +650,21 @@
     <t xml:space="preserve">حنه جومانا </t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -695,7 +704,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 6:59 PM</t>
+    <t>Saturday, 23 August, 2025 7:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1666,7 +1675,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1676,11 +1685,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1692,14 +1701,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1709,14 +1718,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1732,7 +1741,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1749,7 +1758,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1758,14 +1767,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1775,14 +1784,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>64</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1798,7 +1807,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1808,14 +1817,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1824,14 +1833,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1841,14 +1850,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1857,14 +1866,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1874,14 +1883,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1890,14 +1899,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1907,14 +1916,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1923,14 +1932,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1940,14 +1949,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>84</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1963,7 +1972,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1996,7 +2005,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2029,7 +2038,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2039,14 +2048,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2055,14 +2064,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2072,14 +2081,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2088,14 +2097,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2112,7 +2121,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2194,7 +2203,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2204,14 +2213,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2220,14 +2229,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2237,14 +2246,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2260,7 +2269,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2270,7 +2279,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2293,7 +2302,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2310,7 +2319,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2332,15 +2341,15 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2352,31 +2361,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2385,28 +2394,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2418,14 +2427,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2435,14 +2444,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2451,7 +2460,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2468,14 +2477,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2484,14 +2493,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2501,14 +2510,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2517,14 +2526,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2534,11 +2543,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2550,14 +2559,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2567,11 +2576,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2583,14 +2592,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>144</v>
+        <v>28</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2600,14 +2609,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2616,14 +2625,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2633,14 +2642,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2656,7 +2665,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2666,11 +2675,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2682,14 +2691,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2699,11 +2708,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2715,14 +2724,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2732,14 +2741,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2748,14 +2757,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2765,11 +2774,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2788,21 +2797,21 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2821,21 +2830,21 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2847,14 +2856,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2864,11 +2873,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2880,14 +2889,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2897,14 +2906,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2913,14 +2922,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2930,11 +2939,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2946,14 +2955,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2963,11 +2972,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2979,14 +2988,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2996,14 +3005,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3012,14 +3021,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3029,14 +3038,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3045,14 +3054,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>81</v>
+        <v>182</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3062,11 +3071,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>24</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>87</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3078,14 +3087,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3095,11 +3104,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>186</v>
+        <v>24</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>187</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3111,14 +3120,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3128,11 +3137,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3144,7 +3153,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3161,14 +3170,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3177,14 +3186,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3194,11 +3203,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3210,14 +3219,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3227,11 +3236,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>29</v>
+        <v>197</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>30</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3243,31 +3252,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>199</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3276,31 +3285,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3309,31 +3318,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>42</v>
+        <v>205</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>64</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3355,7 +3364,7 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3363,10 +3372,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3375,20 +3384,20 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>210</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3396,7 +3405,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3408,7 +3417,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3421,18 +3430,18 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>212</v>
+        <v>42</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>214</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3441,7 +3450,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3454,18 +3463,18 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>218</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3474,31 +3483,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>220</v>
+        <v>26</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>221</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3507,31 +3516,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>148</v>
+        <v>26</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>43</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>221</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3540,31 +3549,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>26</v>
+        <v>223</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>107</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3580,24 +3589,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>174</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3606,66 +3615,132 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>227</v>
+        <v>26</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q76" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>228</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>139</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>123</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>202</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>176</v>
+      </c>
+      <c t="s" r="Q77" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="77" ht="25.5" customHeight="1">
-      <c r="P77" s="13">
-        <v>3199.2399999999998</v>
-      </c>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="14">
-        <v>228</v>
-      </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c t="s" r="G78" s="15">
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
         <v>229</v>
       </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c t="s" r="K78" s="17">
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
         <v>230</v>
       </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>123</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>29</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="P79" s="13">
+        <v>3280.1199999999999</v>
+      </c>
+      <c r="Q79" s="13"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c t="s" r="A80" s="14">
+        <v>231</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c t="s" r="G80" s="15">
+        <v>232</v>
+      </c>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c t="s" r="K80" s="17">
+        <v>233</v>
+      </c>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="372">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4024,10 +4099,20 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="K80:Q80"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -702,6 +702,12 @@
   </si>
   <si>
     <t>8:0</t>
+  </si>
+  <si>
+    <t>مناديل سولو سحب</t>
+  </si>
+  <si>
+    <t>15:0</t>
   </si>
   <si>
     <t>Saturday, 23 August, 2025 7:00 PM</t>
@@ -3709,38 +3715,71 @@
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
-      <c r="P79" s="13">
-        <v>3280.1199999999999</v>
-      </c>
-      <c r="Q79" s="13"/>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c t="s" r="A80" s="14">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
         <v>231</v>
       </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c t="s" r="G80" s="15">
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
         <v>232</v>
       </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="16"/>
-      <c t="s" r="K80" s="17">
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>123</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>109</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="P80" s="13">
+        <v>3325.1199999999999</v>
+      </c>
+      <c r="Q80" s="13"/>
+    </row>
+    <row r="81" ht="16.5" customHeight="1">
+      <c t="s" r="A81" s="14">
         <v>233</v>
       </c>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c t="s" r="G81" s="15">
+        <v>234</v>
+      </c>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+      <c t="s" r="K81" s="17">
+        <v>235</v>
+      </c>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="372">
+  <mergeCells count="377">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4109,10 +4148,15 @@
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="L78:M78"/>
     <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="K81:Q81"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -710,7 +710,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 7:00 PM</t>
+    <t>Saturday, 23 August, 2025 7:05 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -206,6 +206,12 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
     <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -239,6 +245,18 @@
     <t>188.0000</t>
   </si>
   <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -263,9 +281,6 @@
     <t>63.8400</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>DROSPIFEM 0.03/3MG 21 TABS.</t>
   </si>
   <si>
@@ -305,6 +320,15 @@
     <t>0:5</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:6</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
     <t>HEPAMARIN 140MG 30 CAPSULE</t>
   </si>
   <si>
@@ -461,9 +485,6 @@
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>OPTIDEX -T EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -626,12 +647,6 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -710,7 +725,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 7:05 PM</t>
+    <t>Saturday, 23 August, 2025 7:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1813,7 +1828,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1823,14 +1838,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1839,14 +1854,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1856,14 +1871,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1872,14 +1887,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1889,14 +1904,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1905,14 +1920,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1922,11 +1937,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>64</v>
@@ -1938,14 +1953,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1955,14 +1970,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1971,14 +1986,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1988,14 +2003,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2004,14 +2019,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2021,14 +2036,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2037,7 +2052,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2054,11 +2069,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2070,14 +2085,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2087,14 +2102,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2103,14 +2118,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2120,14 +2135,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2136,14 +2151,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2153,14 +2168,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2169,14 +2184,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2186,14 +2201,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2202,14 +2217,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2219,14 +2234,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2235,14 +2250,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2252,14 +2267,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2275,7 +2290,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2285,14 +2300,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2325,7 +2340,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2341,7 +2356,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2351,14 +2366,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2367,31 +2382,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2400,28 +2415,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2433,14 +2448,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2450,14 +2465,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2466,20 +2481,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2506,21 +2521,21 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2532,14 +2547,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2549,14 +2564,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2565,14 +2580,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2622,7 +2637,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2638,7 +2653,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2648,14 +2663,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>147</v>
+        <v>29</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2664,14 +2679,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2681,11 +2696,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2697,14 +2712,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2714,11 +2729,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2730,14 +2745,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2747,14 +2762,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2763,14 +2778,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2780,14 +2795,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2803,7 +2818,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2813,14 +2828,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>88</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2829,31 +2844,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2869,7 +2884,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2902,7 +2917,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2916,7 +2931,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2928,31 +2943,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2961,14 +2976,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2978,14 +2993,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2994,14 +3009,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3011,14 +3026,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3027,14 +3042,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3044,14 +3059,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3060,14 +3075,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>182</v>
+        <v>28</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3077,14 +3092,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3093,14 +3108,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3110,14 +3125,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>24</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>90</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3126,14 +3141,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3143,14 +3158,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3159,14 +3174,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3176,11 +3191,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3192,14 +3207,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3209,14 +3224,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>194</v>
+        <v>24</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>195</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3225,14 +3240,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>26</v>
+        <v>194</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3242,14 +3257,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3258,7 +3273,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3275,14 +3290,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>29</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>30</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3298,24 +3313,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>201</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3331,21 +3346,21 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>204</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3357,31 +3372,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>208</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3390,31 +3405,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>42</v>
+        <v>209</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3423,28 +3438,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3456,31 +3471,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>26</v>
+        <v>213</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3489,31 +3504,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>26</v>
+        <v>215</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>217</v>
+        <v>42</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>139</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3522,7 +3537,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3535,18 +3550,18 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>221</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3555,31 +3570,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3588,31 +3603,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>43</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3621,7 +3636,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3634,18 +3649,18 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>110</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>28</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3654,28 +3669,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>139</v>
+        <v>228</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>176</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3687,31 +3702,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>29</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3720,66 +3735,165 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>232</v>
+        <v>26</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>109</v>
+        <v>209</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
-      <c r="P80" s="13">
-        <v>3325.1199999999999</v>
-      </c>
-      <c r="Q80" s="13"/>
-    </row>
-    <row r="81" ht="16.5" customHeight="1">
-      <c t="s" r="A81" s="14">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
         <v>233</v>
       </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c t="s" r="G81" s="15">
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>147</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>131</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>209</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
         <v>234</v>
       </c>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="16"/>
-      <c t="s" r="K81" s="17">
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
         <v>235</v>
       </c>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>131</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>29</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>236</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>237</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>131</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>117</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="P83" s="13">
+        <v>3389.5999999999999</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
+        <v>238</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
+        <v>239</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>240</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="377">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4153,10 +4267,25 @@
     <mergeCell ref="H79:K79"/>
     <mergeCell ref="L79:M79"/>
     <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -350,6 +350,15 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>67.0000</t>
+  </si>
+  <si>
     <t>IVERZINE 6MG 24 TABS.</t>
   </si>
   <si>
@@ -521,9 +530,6 @@
     <t>PANADOL JOINT 24 ER TABS.</t>
   </si>
   <si>
-    <t>67.00</t>
-  </si>
-  <si>
     <t>33.5000</t>
   </si>
   <si>
@@ -650,7 +656,10 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>88:0</t>
+    <t>87:0</t>
+  </si>
+  <si>
+    <t>60.0000</t>
   </si>
   <si>
     <t>حلاوة حرير</t>
@@ -696,9 +705,6 @@
   </si>
   <si>
     <t>12:0</t>
-  </si>
-  <si>
-    <t>60.0000</t>
   </si>
   <si>
     <t>قطن 50جم</t>
@@ -2290,7 +2296,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2356,7 +2362,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2366,14 +2372,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2382,14 +2388,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2399,14 +2405,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2422,7 +2428,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2432,7 +2438,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2455,7 +2461,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2472,7 +2478,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2494,15 +2500,15 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2514,31 +2520,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2547,28 +2553,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2580,14 +2586,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2597,14 +2603,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2637,7 +2643,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2653,7 +2659,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2663,14 +2669,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2679,14 +2685,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2696,11 +2702,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2712,14 +2718,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2752,7 +2758,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2762,14 +2768,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2778,14 +2784,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2795,14 +2801,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>39</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2811,14 +2817,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2828,11 +2834,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2844,14 +2850,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2861,11 +2867,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>88</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2884,7 +2890,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2901,7 +2907,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2917,7 +2923,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2931,7 +2937,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2943,28 +2949,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2976,24 +2982,24 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>19</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3016,7 +3022,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3026,11 +3032,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3042,14 +3048,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3059,14 +3065,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3075,14 +3081,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3092,11 +3098,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3108,14 +3114,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3125,11 +3131,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3141,14 +3147,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3158,14 +3164,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3174,14 +3180,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3191,14 +3197,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3207,14 +3213,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>66</v>
+        <v>191</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3224,11 +3230,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>95</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3240,14 +3246,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>194</v>
+        <v>66</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3257,11 +3263,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>24</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3273,14 +3279,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3290,11 +3296,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3306,7 +3312,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3323,14 +3329,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3339,14 +3345,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3356,11 +3362,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3372,14 +3378,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3389,11 +3395,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>29</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>30</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3405,31 +3411,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>208</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>209</v>
+        <v>29</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>183</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3438,31 +3444,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>80</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3484,18 +3490,18 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3517,7 +3523,7 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3528,7 +3534,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3544,13 +3550,13 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>26</v>
+        <v>218</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3558,7 +3564,7 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3570,7 +3576,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3583,15 +3589,15 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3616,7 +3622,7 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3624,10 +3630,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>147</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3636,7 +3642,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3649,18 +3655,18 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>226</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3669,31 +3675,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>228</v>
+        <v>26</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>182</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
+        <v>228</v>
+      </c>
+      <c t="s" r="Q77" s="12">
         <v>229</v>
-      </c>
-      <c t="s" r="Q77" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3709,24 +3715,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>79</v>
+        <v>231</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>184</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>43</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3742,24 +3748,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3768,31 +3774,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3801,28 +3807,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>235</v>
+        <v>150</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>29</v>
+        <v>211</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3847,53 +3853,86 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>3389.5999999999999</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
         <v>238</v>
       </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
         <v>239</v>
       </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>134</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>120</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="P84" s="13">
+        <v>3491.5999999999999</v>
+      </c>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
         <v>240</v>
       </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
+        <v>241</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>242</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4282,10 +4321,15 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -731,7 +731,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 7:18 PM</t>
+    <t>Saturday, 23 August, 2025 7:19 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -113,6 +113,15 @@
     <t>19.8000</t>
   </si>
   <si>
+    <t>ATOREZA 40/10MG 28 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
@@ -134,6 +143,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>BLOKATENS 5/80MG 28 F.C. TAB</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>61.0000</t>
+  </si>
+  <si>
     <t>CALCIMATE 500 MG 12 CAPS.</t>
   </si>
   <si>
@@ -269,15 +287,21 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>DOLCYL 2MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
     <t>8:2</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>63.8400</t>
   </si>
   <si>
@@ -380,9 +404,6 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>48.0000</t>
-  </si>
-  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -731,7 +752,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 7:19 PM</t>
+    <t>Saturday, 23 August, 2025 7:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1537,7 +1558,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1547,11 +1568,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -1563,14 +1584,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1587,7 +1608,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1603,7 +1624,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1620,7 +1641,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1636,7 +1657,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1653,7 +1674,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1662,14 +1683,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1679,14 +1700,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1695,14 +1716,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1712,14 +1733,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1728,14 +1749,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1745,14 +1766,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1761,14 +1782,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1778,14 +1799,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1794,14 +1815,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1811,14 +1832,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1827,14 +1848,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1844,11 +1865,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1867,7 +1888,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1884,7 +1905,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1893,14 +1914,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1910,14 +1931,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1926,14 +1947,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1943,14 +1964,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1959,14 +1980,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1976,14 +1997,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1992,14 +2013,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2009,14 +2030,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2025,14 +2046,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2042,14 +2063,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2058,14 +2079,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2075,14 +2096,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2091,14 +2112,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2108,11 +2129,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2124,14 +2145,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2141,14 +2162,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2157,14 +2178,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2174,14 +2195,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2190,14 +2211,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2207,14 +2228,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2223,14 +2244,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2240,14 +2261,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2256,14 +2277,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2273,14 +2294,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2289,14 +2310,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2306,14 +2327,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2322,14 +2343,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2339,14 +2360,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2355,7 +2376,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2372,11 +2393,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2388,14 +2409,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2405,14 +2426,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2428,7 +2449,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2438,14 +2459,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2478,7 +2499,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2494,7 +2515,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2504,14 +2525,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2520,31 +2541,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2553,28 +2574,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>138</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2586,14 +2607,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2603,14 +2624,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2619,28 +2640,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2652,20 +2673,20 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>28</v>
+        <v>145</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2692,7 +2713,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2702,14 +2723,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2725,7 +2746,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2735,11 +2756,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2751,7 +2772,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2768,14 +2789,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2784,14 +2805,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2801,14 +2822,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>29</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2817,14 +2838,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2834,11 +2855,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>39</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2850,14 +2871,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2867,11 +2888,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>88</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2883,14 +2904,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2900,14 +2921,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2916,14 +2937,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2933,14 +2954,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>42</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2956,7 +2977,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2966,14 +2987,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2982,31 +3003,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3022,7 +3043,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3032,11 +3053,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>114</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3048,14 +3069,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3065,11 +3086,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3088,24 +3109,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>19</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3114,14 +3135,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3131,14 +3152,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>122</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3147,14 +3168,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3164,14 +3185,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3180,14 +3201,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3197,14 +3218,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3213,14 +3234,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>191</v>
+        <v>28</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3230,14 +3251,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3246,14 +3267,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3263,14 +3284,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>24</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>95</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3279,14 +3300,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3296,14 +3317,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3312,14 +3333,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>198</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3329,11 +3350,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3345,14 +3366,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3362,14 +3383,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>24</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3378,14 +3399,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>26</v>
+        <v>203</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3395,14 +3416,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3411,7 +3432,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3428,14 +3449,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>29</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>30</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3451,24 +3472,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>210</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3484,21 +3505,21 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>213</v>
+        <v>26</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3510,31 +3531,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>215</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3543,31 +3564,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>42</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3576,28 +3597,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>26</v>
+        <v>220</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3616,24 +3637,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>26</v>
+        <v>222</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>48</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3649,24 +3670,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>26</v>
+        <v>225</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>48</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>179</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>150</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3675,7 +3696,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3688,18 +3709,18 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>48</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>229</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3708,31 +3729,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>231</v>
+        <v>26</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3741,31 +3762,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>43</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3774,7 +3795,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3787,18 +3808,18 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>52</v>
+        <v>236</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3807,28 +3828,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>150</v>
+        <v>238</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3840,31 +3861,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>237</v>
+        <v>85</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>29</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3873,66 +3894,165 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>26</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>120</v>
+        <v>218</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>121</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
-      <c r="P84" s="13">
-        <v>3491.5999999999999</v>
-      </c>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c t="s" r="A85" s="14">
-        <v>240</v>
-      </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c t="s" r="G85" s="15">
-        <v>241</v>
-      </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="16"/>
-      <c t="s" r="K85" s="17">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
         <v>242</v>
       </c>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>157</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>141</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>218</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>192</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>243</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>244</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>141</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>29</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>245</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>246</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>141</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>128</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="P87" s="13">
+        <v>3705.5999999999999</v>
+      </c>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="14">
+        <v>247</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c t="s" r="G88" s="15">
+        <v>248</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c t="s" r="K88" s="17">
+        <v>249</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="397">
+  <mergeCells count="412">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4326,10 +4446,25 @@
     <mergeCell ref="H83:K83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="K88:Q88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -752,7 +752,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 7:20 PM</t>
+    <t>Saturday, 23 August, 2025 7:21 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>AGIOLAX 12 GRANULES IN SACHETS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
     <t>AMARYL 4 MG 30 TABS</t>
   </si>
   <si>
@@ -89,9 +101,6 @@
     <t>0.0000</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -752,7 +761,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 7:21 PM</t>
+    <t>Saturday, 23 August, 2025 7:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1443,7 +1452,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1452,14 +1461,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1469,14 +1478,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>25</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1485,14 +1494,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1502,14 +1511,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1518,14 +1527,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1542,7 +1551,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1558,7 +1567,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1575,7 +1584,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1591,7 +1600,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1601,14 +1610,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1617,14 +1626,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1641,7 +1650,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1657,7 +1666,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1674,7 +1683,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1690,7 +1699,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1707,7 +1716,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1723,7 +1732,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1740,7 +1749,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>53</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1749,14 +1758,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1766,14 +1775,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1782,14 +1791,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1799,14 +1808,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>61</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1822,7 +1831,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1832,11 +1841,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1848,14 +1857,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1865,14 +1874,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1888,7 +1897,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1905,7 +1914,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1914,14 +1923,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1931,14 +1940,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1947,14 +1956,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1964,14 +1973,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1987,7 +1996,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1997,14 +2006,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2013,14 +2022,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2030,14 +2039,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>70</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2046,14 +2055,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2063,14 +2072,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2079,14 +2088,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2096,14 +2105,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2112,14 +2121,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2136,7 +2145,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2152,7 +2161,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2162,14 +2171,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2185,7 +2194,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2195,14 +2204,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2218,7 +2227,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2251,7 +2260,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2284,7 +2293,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2294,14 +2303,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>110</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2310,14 +2319,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2327,14 +2336,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>113</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2360,14 +2369,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2376,14 +2385,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2400,7 +2409,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2416,7 +2425,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2449,7 +2458,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2482,7 +2491,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2515,7 +2524,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2525,14 +2534,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2541,14 +2550,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2558,14 +2567,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2581,7 +2590,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2591,14 +2600,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2614,7 +2623,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2631,7 +2640,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2653,15 +2662,15 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2673,31 +2682,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2706,31 +2715,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>91</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2739,14 +2748,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2756,14 +2765,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>71</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2779,7 +2788,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2796,7 +2805,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2812,7 +2821,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2822,14 +2831,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>29</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>30</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2838,14 +2847,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2855,11 +2864,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2871,14 +2880,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2911,7 +2920,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2921,14 +2930,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2937,14 +2946,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>85</v>
+        <v>167</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2954,14 +2963,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>42</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>43</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2970,14 +2979,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2987,11 +2996,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3003,14 +3012,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3020,11 +3029,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>96</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3043,7 +3052,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3060,7 +3069,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3076,7 +3085,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3090,10 +3099,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3102,31 +3111,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>19</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3135,31 +3144,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3168,14 +3177,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3185,14 +3194,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3208,7 +3217,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3225,7 +3234,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3241,7 +3250,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3274,7 +3283,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3307,7 +3316,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>194</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3317,14 +3326,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>110</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3333,14 +3342,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3350,14 +3359,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3366,14 +3375,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>72</v>
+        <v>201</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3383,14 +3392,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>24</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>103</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3399,14 +3408,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>203</v>
+        <v>75</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3416,14 +3425,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>28</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3432,14 +3441,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>206</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3456,7 +3465,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3489,7 +3498,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3505,7 +3514,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3538,7 +3547,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3548,11 +3557,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>29</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3564,31 +3573,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>217</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>32</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>192</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3610,18 +3619,18 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>86</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>87</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3630,31 +3639,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3676,18 +3685,18 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3703,21 +3712,21 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>26</v>
+        <v>228</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3729,28 +3738,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>51</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3769,13 +3778,13 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -3783,10 +3792,10 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>186</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>157</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3795,31 +3804,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>236</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3828,31 +3837,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3861,31 +3870,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>85</v>
+        <v>241</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>240</v>
+        <v>194</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>49</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3894,31 +3903,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>223</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3927,31 +3936,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3960,28 +3969,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>244</v>
+        <v>160</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>29</v>
+        <v>221</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>94</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -3993,66 +4002,99 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
-      <c r="P87" s="13">
-        <v>3705.5999999999999</v>
-      </c>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="14">
-        <v>247</v>
-      </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c t="s" r="G88" s="15">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
         <v>248</v>
       </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c t="s" r="K88" s="17">
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
         <v>249</v>
       </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>144</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>131</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>3805.5999999999999</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
+        <v>250</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
+        <v>251</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>252</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4461,10 +4503,15 @@
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -212,6 +212,15 @@
     <t>28:0</t>
   </si>
   <si>
+    <t>CLATEX 75MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
     <t>COLOVATIL 30 F.C. TABS</t>
   </si>
   <si>
@@ -233,12 +242,27 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>CONCOR AMLO 5/5 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>69.3000</t>
+  </si>
+  <si>
     <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
   </si>
   <si>
     <t>1:1</t>
   </si>
   <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -293,9 +317,6 @@
     <t>36.00</t>
   </si>
   <si>
-    <t>23.7600</t>
-  </si>
-  <si>
     <t>DOLCYL 2MG 30 TAB.</t>
   </si>
   <si>
@@ -512,9 +533,6 @@
     <t>OMEGA-3 PLUS 30 CAPS.</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>135.00</t>
   </si>
   <si>
@@ -551,6 +569,9 @@
     <t>92.00</t>
   </si>
   <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -761,7 +782,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 7:42 PM</t>
+    <t>Saturday, 23 August, 2025 7:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1897,7 +1918,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1930,7 +1951,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1947,7 +1968,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>73</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1956,14 +1977,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1973,14 +1994,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1989,14 +2010,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2006,14 +2027,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2039,14 +2060,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2055,14 +2076,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2072,14 +2093,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>73</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2088,14 +2109,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2105,11 +2126,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2121,14 +2142,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2138,14 +2159,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2154,14 +2175,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2171,14 +2192,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2187,14 +2208,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2204,14 +2225,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2220,14 +2241,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2237,14 +2258,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2253,14 +2274,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2270,11 +2291,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2286,14 +2307,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2303,14 +2324,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2319,14 +2340,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2336,14 +2357,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2352,14 +2373,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2369,14 +2390,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2385,14 +2406,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2402,14 +2423,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2418,14 +2439,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2435,14 +2456,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2451,14 +2472,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2468,14 +2489,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2484,14 +2505,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2501,14 +2522,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2517,7 +2538,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2534,11 +2555,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2550,7 +2571,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2567,14 +2588,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2590,7 +2611,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2600,14 +2621,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2640,7 +2661,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2656,7 +2677,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2666,14 +2687,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2682,31 +2703,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2715,28 +2736,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>25</v>
@@ -2748,14 +2769,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2765,14 +2786,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2781,28 +2802,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2814,20 +2835,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>31</v>
+        <v>155</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2854,7 +2875,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2864,14 +2885,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2887,7 +2908,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>31</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2897,11 +2918,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2913,7 +2934,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2930,14 +2951,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2946,14 +2967,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2963,14 +2984,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>32</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2979,14 +3000,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>88</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2996,11 +3017,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3012,14 +3033,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3029,11 +3050,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>97</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3045,14 +3066,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3062,14 +3083,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3078,14 +3099,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3095,14 +3116,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3111,14 +3132,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3128,14 +3149,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>103</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3144,31 +3165,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3177,14 +3198,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3194,7 +3215,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3217,7 +3238,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3234,7 +3255,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3250,24 +3271,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>23</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3276,14 +3297,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3293,14 +3314,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3309,14 +3330,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3326,14 +3347,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3342,14 +3363,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>197</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3359,14 +3380,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3375,14 +3396,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>201</v>
+        <v>31</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3392,14 +3413,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3408,14 +3429,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3425,14 +3446,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>28</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>106</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3441,14 +3462,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3458,14 +3479,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3474,14 +3495,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>208</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3491,11 +3512,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>25</v>
@@ -3507,14 +3528,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3524,14 +3545,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>28</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3540,14 +3561,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>213</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3557,14 +3578,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3573,7 +3594,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3590,14 +3611,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>32</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3613,24 +3634,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>220</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3646,21 +3667,21 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>223</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>89</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>90</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3672,31 +3693,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>225</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3705,31 +3726,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>51</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3738,28 +3759,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>230</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3778,24 +3799,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>232</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>51</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3811,24 +3832,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>235</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>235</v>
+        <v>51</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>189</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>160</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3837,7 +3858,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3850,18 +3871,18 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>51</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>239</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3870,31 +3891,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>241</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3903,31 +3924,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>52</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3936,7 +3957,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3949,18 +3970,18 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>61</v>
+        <v>246</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3969,28 +3990,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>160</v>
+        <v>248</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>195</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4002,31 +4023,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>247</v>
+        <v>96</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>32</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4035,66 +4056,165 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>249</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>131</v>
+        <v>228</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>132</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>3805.5999999999999</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
-        <v>250</v>
-      </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
-        <v>251</v>
-      </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
         <v>252</v>
       </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>167</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>151</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>228</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>253</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>254</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>151</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>32</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>255</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>256</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>151</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>138</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>3960.27</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
+        <v>257</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
+        <v>258</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
+        <v>259</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4508,10 +4628,25 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -143,6 +143,15 @@
     <t>9.1200</t>
   </si>
   <si>
+    <t>BETADINE ANTISEPTIC SOLN. 10% 60 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>BETAFOS 1 AMP. 2ML</t>
   </si>
   <si>
@@ -345,12 +354,6 @@
   </si>
   <si>
     <t>ECTOMETHRIN 5% LOTION 50 ML</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
   </si>
   <si>
     <t>EPILAT RETARD 20MG SR. 20 F.C. TAB.</t>
@@ -1687,7 +1690,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1720,7 +1723,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1737,7 +1740,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1753,7 +1756,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1786,7 +1789,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1803,7 +1806,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1812,14 +1815,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1829,14 +1832,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1845,14 +1848,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1862,14 +1865,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>64</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1885,7 +1888,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1895,11 +1898,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1911,14 +1914,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1928,14 +1931,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1951,7 +1954,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1984,7 +1987,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2001,7 +2004,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>76</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2010,14 +2013,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2027,14 +2030,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2043,14 +2046,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2060,11 +2063,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>25</v>
@@ -2076,14 +2079,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2093,11 +2096,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>25</v>
@@ -2116,7 +2119,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2126,14 +2129,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2149,7 +2152,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2159,14 +2162,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2175,14 +2178,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2192,14 +2195,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>76</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2208,14 +2211,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2225,14 +2228,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2241,14 +2244,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2258,14 +2261,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2281,7 +2284,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2291,14 +2294,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2314,7 +2317,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2324,14 +2327,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2347,7 +2350,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2357,14 +2360,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2380,7 +2383,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2413,7 +2416,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2423,11 +2426,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2439,14 +2442,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2456,14 +2459,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2472,14 +2475,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2489,14 +2492,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2505,14 +2508,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2522,11 +2525,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>25</v>
@@ -2538,14 +2541,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2555,14 +2558,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2571,14 +2574,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2588,11 +2591,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2604,14 +2607,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2621,11 +2624,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2637,7 +2640,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2654,11 +2657,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2670,14 +2673,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2687,14 +2690,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2710,7 +2713,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2720,14 +2723,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2736,14 +2739,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2753,11 +2756,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>25</v>
@@ -2769,14 +2772,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2786,14 +2789,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2802,7 +2805,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2815,15 +2818,15 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2835,31 +2838,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2868,28 +2871,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>25</v>
@@ -2908,7 +2911,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2918,14 +2921,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2934,7 +2937,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2951,14 +2954,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2967,14 +2970,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2984,14 +2987,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3007,7 +3010,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3017,11 +3020,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>32</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3033,14 +3036,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>31</v>
+        <v>168</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3050,11 +3053,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3066,14 +3069,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3083,14 +3086,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3099,14 +3102,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3116,14 +3119,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3139,7 +3142,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3149,11 +3152,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3172,7 +3175,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3182,11 +3185,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3198,14 +3201,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3215,14 +3218,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3231,14 +3234,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3248,14 +3251,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>76</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3264,7 +3267,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3277,18 +3280,18 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>23</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3297,28 +3300,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>25</v>
@@ -3330,14 +3333,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3347,11 +3350,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>133</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>25</v>
@@ -3363,14 +3366,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3380,14 +3383,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3396,14 +3399,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3413,11 +3416,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3429,14 +3432,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3446,11 +3449,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3462,14 +3465,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3479,14 +3482,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3495,14 +3498,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3512,14 +3515,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3528,14 +3531,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>80</v>
+        <v>209</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3545,11 +3548,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>28</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>113</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>25</v>
@@ -3568,7 +3571,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>213</v>
+        <v>83</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3578,11 +3581,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>28</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>25</v>
@@ -3594,14 +3597,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3611,11 +3614,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>25</v>
@@ -3627,7 +3630,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3644,14 +3647,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3660,14 +3663,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3677,11 +3680,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3693,14 +3696,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3710,11 +3713,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>32</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>33</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3733,24 +3736,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>227</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>32</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>202</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3759,31 +3762,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>97</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>98</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3792,31 +3795,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3825,31 +3828,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3858,28 +3861,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>236</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3904,15 +3907,15 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>54</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3924,7 +3927,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3937,18 +3940,18 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>167</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3957,7 +3960,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3970,18 +3973,18 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>246</v>
+        <v>168</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3990,31 +3993,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>248</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>201</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>247</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4023,31 +4026,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>96</v>
+        <v>249</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>202</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>52</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4056,31 +4059,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>233</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4096,24 +4099,24 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>167</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4129,21 +4132,21 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>254</v>
+        <v>168</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>32</v>
+        <v>229</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>104</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4155,66 +4158,99 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>256</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>257</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>152</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
         <v>139</v>
       </c>
-      <c t="s" r="Q90" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>3960.27</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
-        <v>257</v>
-      </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>4015.27</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
         <v>258</v>
       </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
         <v>259</v>
       </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>260</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4643,10 +4679,15 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -785,7 +785,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 7:44 PM</t>
+    <t>Saturday, 23 August, 2025 8:00 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -386,6 +386,9 @@
     <t>3.8400</t>
   </si>
   <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
     <t>HEPAMARIN 140MG 30 CAPSULE</t>
   </si>
   <si>
@@ -596,6 +599,9 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t>PRIDOCAINE CREAM 15 GM</t>
   </si>
   <si>
@@ -785,7 +791,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 8:00 PM</t>
+    <t>Saturday, 23 August, 2025 8:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2548,7 +2554,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2558,14 +2564,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2574,14 +2580,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2591,14 +2597,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2607,14 +2613,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2624,11 +2630,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2640,14 +2646,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2657,11 +2663,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2673,7 +2679,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2690,11 +2696,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2706,14 +2712,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2723,14 +2729,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2746,7 +2752,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2756,14 +2762,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2772,14 +2778,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2789,11 +2795,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>25</v>
@@ -2805,14 +2811,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2822,14 +2828,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2838,7 +2844,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2851,15 +2857,15 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2871,31 +2877,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2904,28 +2910,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>25</v>
@@ -2944,7 +2950,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2954,14 +2960,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2970,7 +2976,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2987,14 +2993,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3003,14 +3009,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3020,14 +3026,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3043,7 +3049,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3053,11 +3059,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3069,14 +3075,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3086,11 +3092,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3102,14 +3108,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3119,14 +3125,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3135,14 +3141,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3152,14 +3158,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>48</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>49</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3175,7 +3181,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3185,11 +3191,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3208,7 +3214,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3218,11 +3224,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>106</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3234,14 +3240,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3251,14 +3257,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3267,14 +3273,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3284,14 +3290,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>79</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3300,7 +3306,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3313,18 +3319,18 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>23</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3333,28 +3339,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>25</v>
@@ -3366,14 +3372,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3383,11 +3389,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>134</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3399,14 +3405,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3416,14 +3422,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3432,14 +3438,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3449,11 +3455,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>32</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3465,14 +3471,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3482,11 +3488,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3498,14 +3504,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>31</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3515,14 +3521,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3531,14 +3537,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3548,14 +3554,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3564,14 +3570,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3581,14 +3587,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>46</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>121</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3597,14 +3603,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3614,11 +3620,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>25</v>
@@ -3630,14 +3636,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3647,11 +3653,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>28</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>25</v>
@@ -3663,14 +3669,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>216</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3680,14 +3686,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3696,14 +3702,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3713,14 +3719,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3729,7 +3735,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3746,11 +3752,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>32</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>33</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3762,31 +3768,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>228</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3795,28 +3801,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3828,31 +3834,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>54</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3861,28 +3867,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3894,20 +3900,20 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>235</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -3915,10 +3921,10 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3927,28 +3933,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>54</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3960,7 +3966,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3973,18 +3979,18 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>197</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>168</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3993,7 +3999,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4006,18 +4012,18 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>247</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4026,31 +4032,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>249</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>202</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>169</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4059,31 +4065,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>55</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>249</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4092,31 +4098,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>251</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4125,31 +4131,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>203</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4165,24 +4171,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>255</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>32</v>
+        <v>231</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>107</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4191,66 +4197,132 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>257</v>
+        <v>169</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>139</v>
+        <v>231</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>256</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>257</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>153</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>32</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>258</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>259</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>153</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
         <v>140</v>
       </c>
-      <c t="s" r="Q91" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>4015.27</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
-        <v>258</v>
-      </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
-        <v>259</v>
-      </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="P94" s="13">
+        <v>4061.27</v>
+      </c>
+      <c r="Q94" s="13"/>
+    </row>
+    <row r="95" ht="16.5" customHeight="1">
+      <c t="s" r="A95" s="14">
         <v>260</v>
       </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c t="s" r="G95" s="15">
+        <v>261</v>
+      </c>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c t="s" r="K95" s="17">
+        <v>262</v>
+      </c>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="447">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4684,10 +4756,20 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="K95:Q95"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -206,6 +206,12 @@
     <t>4:0</t>
   </si>
   <si>
+    <t>CEFTRIAXONE-SANDOZ 1 GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>285.0000</t>
+  </si>
+  <si>
     <t>CEFZIM 1 GM VIAL</t>
   </si>
   <si>
@@ -218,7 +224,10 @@
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
-    <t>28:0</t>
+    <t>27:0</t>
+  </si>
+  <si>
+    <t>62.0000</t>
   </si>
   <si>
     <t>CLATEX 75MG 30 F.C.TAB.</t>
@@ -284,13 +293,13 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>19:0</t>
+    <t>18:0</t>
   </si>
   <si>
     <t>33.00</t>
   </si>
   <si>
-    <t>66.0000</t>
+    <t>99.0000</t>
   </si>
   <si>
     <t>COSMOFER 50MG/ML FOR INF. 5 AMPS.</t>
@@ -356,6 +365,21 @@
     <t>ECTOMETHRIN 5% LOTION 50 ML</t>
   </si>
   <si>
+    <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
     <t>EPILAT RETARD 20MG SR. 20 F.C. TAB.</t>
   </si>
   <si>
@@ -374,9 +398,6 @@
     <t>44.2800</t>
   </si>
   <si>
-    <t>0:5</t>
-  </si>
-  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -443,9 +464,6 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
-    <t>3:2</t>
-  </si>
-  <si>
     <t>15.8400</t>
   </si>
   <si>
@@ -563,9 +581,6 @@
     <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
   </si>
   <si>
-    <t>180.00</t>
-  </si>
-  <si>
     <t>59.4000</t>
   </si>
   <si>
@@ -575,7 +590,10 @@
     <t>92.00</t>
   </si>
   <si>
-    <t>46.0000</t>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>PANADOL EXTRA 48 TAB</t>
@@ -683,9 +701,6 @@
     <t>90.00</t>
   </si>
   <si>
-    <t>90.0000</t>
-  </si>
-  <si>
     <t>TRAJENTA 5 MG 30 TABS.</t>
   </si>
   <si>
@@ -749,6 +764,12 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -791,7 +812,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 8:08 PM</t>
+    <t>Saturday, 23 August, 2025 8:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1894,7 +1915,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1904,14 +1925,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1920,14 +1941,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1937,11 +1958,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1960,7 +1981,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1970,14 +1991,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1993,7 +2014,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2026,7 +2047,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2043,7 +2064,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>79</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2052,14 +2073,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2069,14 +2090,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2085,14 +2106,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2102,11 +2123,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>25</v>
@@ -2118,14 +2139,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2135,11 +2156,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>25</v>
@@ -2158,7 +2179,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2168,14 +2189,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2191,7 +2212,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2201,14 +2222,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2217,14 +2238,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2234,14 +2255,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>79</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2250,14 +2271,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2267,14 +2288,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2283,14 +2304,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2300,14 +2321,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2323,7 +2344,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2333,14 +2354,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2356,7 +2377,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2366,14 +2387,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2389,7 +2410,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2399,14 +2420,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2422,7 +2443,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2432,11 +2453,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2448,14 +2469,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2465,11 +2486,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2498,14 +2519,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2514,14 +2535,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2531,14 +2552,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2547,14 +2568,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2564,14 +2585,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2580,14 +2601,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2597,11 +2618,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>25</v>
@@ -2613,14 +2634,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2630,11 +2651,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2653,7 +2674,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2663,14 +2684,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2679,7 +2700,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2696,11 +2717,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2712,14 +2733,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2729,11 +2750,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2745,14 +2766,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2762,14 +2783,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2778,14 +2799,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2795,14 +2816,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2811,14 +2832,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2828,14 +2849,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>35</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2844,14 +2865,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2861,14 +2882,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2884,24 +2905,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2910,31 +2931,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2943,31 +2964,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>86</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2976,31 +2997,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3009,14 +3030,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3026,11 +3047,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -3049,7 +3070,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3059,11 +3080,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3075,14 +3096,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>31</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3092,14 +3113,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3108,14 +3129,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3125,11 +3146,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>32</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3141,14 +3162,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3165,7 +3186,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3181,7 +3202,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3191,11 +3212,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>48</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>49</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3207,14 +3228,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3224,14 +3245,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>106</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3240,14 +3261,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3257,11 +3278,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>48</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3273,14 +3294,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3290,14 +3311,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>109</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3313,7 +3334,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3330,7 +3351,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3346,17 +3367,17 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3379,7 +3400,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3389,14 +3410,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>134</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>194</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3405,28 +3426,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>23</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>25</v>
@@ -3438,14 +3459,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3455,14 +3476,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3471,14 +3492,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3488,14 +3509,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3504,14 +3525,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3521,11 +3542,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>32</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3544,7 +3565,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3577,7 +3598,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>31</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3587,14 +3608,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3603,14 +3624,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>211</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3620,14 +3641,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3636,14 +3657,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>83</v>
+        <v>213</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3653,14 +3674,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>28</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>46</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3669,14 +3690,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3686,11 +3707,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>25</v>
@@ -3702,14 +3723,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3719,11 +3740,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>28</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>25</v>
@@ -3735,14 +3756,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>222</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3759,7 +3780,7 @@
         <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3775,7 +3796,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3792,7 +3813,7 @@
         <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3818,11 +3839,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>32</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3834,20 +3855,20 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>230</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
@@ -3855,10 +3876,10 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3867,28 +3888,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>233</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3913,18 +3934,18 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>54</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3946,15 +3967,15 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3966,20 +3987,20 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
@@ -3987,10 +4008,10 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3999,28 +4020,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>243</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>54</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4032,7 +4053,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4045,18 +4066,18 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>54</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>199</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>169</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4078,7 +4099,7 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
@@ -4089,7 +4110,7 @@
         <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>249</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4098,31 +4119,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>251</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4131,31 +4152,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>256</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4164,31 +4185,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>258</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4197,31 +4218,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>205</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4230,31 +4251,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>257</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>32</v>
+        <v>236</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>107</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4263,66 +4284,132 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>259</v>
+        <v>175</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>140</v>
+        <v>236</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>141</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
-      <c r="P94" s="13">
-        <v>4061.27</v>
-      </c>
-      <c r="Q94" s="13"/>
-    </row>
-    <row r="95" ht="16.5" customHeight="1">
-      <c t="s" r="A95" s="14">
-        <v>260</v>
-      </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c t="s" r="G95" s="15">
-        <v>261</v>
-      </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="16"/>
-      <c t="s" r="K95" s="17">
-        <v>262</v>
-      </c>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>263</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>264</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>159</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>32</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>265</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>266</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>159</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>147</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="P96" s="13">
+        <v>4533.2700000000004</v>
+      </c>
+      <c r="Q96" s="13"/>
+    </row>
+    <row r="97" ht="16.5" customHeight="1">
+      <c t="s" r="A97" s="14">
+        <v>267</v>
+      </c>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c t="s" r="G97" s="15">
+        <v>268</v>
+      </c>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c t="s" r="K97" s="17">
+        <v>269</v>
+      </c>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="447">
+  <mergeCells count="457">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4766,10 +4853,20 @@
     <mergeCell ref="H93:K93"/>
     <mergeCell ref="L93:M93"/>
     <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="K97:Q97"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -143,6 +143,18 @@
     <t>9.1200</t>
   </si>
   <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
     <t>BETADINE ANTISEPTIC SOLN. 10% 60 ML</t>
   </si>
   <si>
@@ -314,6 +326,18 @@
     <t>188.0000</t>
   </si>
   <si>
+    <t>DAVALINDI 200.000 I.U./ML 1 I.M AMP.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>DEPO-PEN 1.2 MIU VIAL.</t>
   </si>
   <si>
@@ -329,18 +353,15 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>DOLCYL 2MG 30 TAB.</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>48.0000</t>
   </si>
   <si>
@@ -410,12 +431,18 @@
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
+    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>HEPAMARIN 140MG 30 CAPSULE</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>75.00</t>
   </si>
   <si>
@@ -437,7 +464,7 @@
     <t>67.00</t>
   </si>
   <si>
-    <t>67.0000</t>
+    <t>134.0000</t>
   </si>
   <si>
     <t>IVERZINE 6MG 24 TABS.</t>
@@ -461,6 +488,9 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -575,7 +605,7 @@
     <t>19.00</t>
   </si>
   <si>
-    <t>19.0000</t>
+    <t>38.0000</t>
   </si>
   <si>
     <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
@@ -593,9 +623,6 @@
     <t>69.0000</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -710,9 +737,24 @@
     <t>501.0000</t>
   </si>
   <si>
+    <t>TREFLUCAN 150MG 1 CAPS.</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>TUSSKAN SYRUP 100 ML</t>
   </si>
   <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -734,15 +776,9 @@
     <t>87:0</t>
   </si>
   <si>
-    <t>60.0000</t>
-  </si>
-  <si>
     <t>حلاوة حرير</t>
   </si>
   <si>
-    <t>11:0</t>
-  </si>
-  <si>
     <t>20.0000</t>
   </si>
   <si>
@@ -764,10 +800,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>21:0</t>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>22:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -797,13 +833,19 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>لزقه النمر بسعر القطعه</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>ماكينه حلاقه جليت فليكتور</t>
   </si>
   <si>
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>8:0</t>
+    <t>72.0000</t>
   </si>
   <si>
     <t>مناديل سولو سحب</t>
@@ -812,7 +854,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 8:29 PM</t>
+    <t>Saturday, 23 August, 2025 8:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1717,7 +1759,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1727,14 +1769,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1743,14 +1785,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1760,11 +1802,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1776,14 +1818,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1793,14 +1835,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1809,14 +1851,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1826,11 +1868,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>25</v>
@@ -1842,14 +1884,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1859,14 +1901,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1882,7 +1924,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1892,14 +1934,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>63</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>64</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1908,14 +1950,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1925,14 +1967,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1941,14 +1983,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1958,14 +2000,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1974,14 +2016,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1991,14 +2033,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2007,14 +2049,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2024,14 +2066,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2040,14 +2082,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2057,11 +2099,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>25</v>
@@ -2073,14 +2115,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2090,14 +2132,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>82</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2113,7 +2155,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2123,14 +2165,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2139,7 +2181,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2156,11 +2198,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>25</v>
@@ -2172,14 +2214,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2189,11 +2231,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>25</v>
@@ -2205,14 +2247,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2222,14 +2264,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2238,14 +2280,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2262,7 +2304,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2295,7 +2337,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>82</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2328,7 +2370,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2358,10 +2400,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2370,14 +2412,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2387,11 +2429,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2403,14 +2445,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2420,14 +2462,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>86</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2436,14 +2478,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2453,11 +2495,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2469,14 +2511,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2486,14 +2528,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2502,14 +2544,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2519,14 +2561,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>122</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2535,14 +2577,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2552,11 +2594,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>49</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2568,14 +2610,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2585,14 +2627,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2601,14 +2643,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2618,14 +2660,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2634,14 +2676,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2651,14 +2693,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2667,14 +2709,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2684,11 +2726,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>25</v>
@@ -2700,14 +2742,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2717,11 +2759,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2740,7 +2782,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2773,7 +2815,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2790,7 +2832,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2839,7 +2881,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2849,14 +2891,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>98</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2865,14 +2907,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2882,14 +2924,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2898,7 +2940,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2915,14 +2957,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2931,14 +2973,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2948,11 +2990,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>35</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2964,31 +3006,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>46</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3004,21 +3046,21 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -3030,14 +3072,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3047,14 +3089,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3063,28 +3105,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3096,28 +3138,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>25</v>
@@ -3129,14 +3171,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3146,14 +3188,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3162,14 +3204,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>31</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3179,11 +3221,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3195,7 +3237,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3212,14 +3254,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3228,14 +3270,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3245,14 +3287,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>32</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3268,7 +3310,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>102</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3278,11 +3320,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>48</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3294,14 +3336,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3311,11 +3353,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>109</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3327,14 +3369,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3344,14 +3386,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3360,14 +3402,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3377,14 +3419,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3393,14 +3435,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3410,14 +3452,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>46</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>194</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3426,31 +3468,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>23</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3459,14 +3501,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3476,11 +3518,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>25</v>
@@ -3492,14 +3534,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3509,14 +3551,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3525,31 +3567,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>33</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3558,14 +3600,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3575,14 +3617,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3591,14 +3633,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3608,14 +3650,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3624,7 +3666,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3641,11 +3683,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>32</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3664,7 +3706,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3674,14 +3716,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>122</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3690,14 +3732,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>217</v>
+        <v>31</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3707,14 +3749,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3723,14 +3765,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3740,14 +3782,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>28</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>46</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3780,7 +3822,7 @@
         <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3796,7 +3838,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>226</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3806,11 +3848,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>25</v>
@@ -3822,14 +3864,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3839,14 +3881,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>28</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3862,7 +3904,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>231</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3872,14 +3914,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3888,7 +3930,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3905,14 +3947,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>32</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>33</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3921,31 +3963,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>235</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>211</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3954,28 +3996,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>103</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>104</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3987,31 +4029,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>240</v>
+        <v>31</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>54</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4020,28 +4062,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>243</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4053,28 +4095,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>247</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4086,31 +4128,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>249</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4119,31 +4161,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>252</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>111</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>252</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4159,24 +4201,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>254</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>58</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>256</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4185,31 +4227,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>210</v>
+        <v>58</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4218,28 +4260,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>58</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4251,7 +4293,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4264,18 +4306,18 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4284,31 +4326,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>211</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>264</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4317,31 +4359,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>264</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>32</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>110</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>268</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4350,66 +4392,264 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>147</v>
+        <v>219</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
-      <c r="P96" s="13">
-        <v>4533.2700000000004</v>
-      </c>
-      <c r="Q96" s="13"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="14">
-        <v>267</v>
-      </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c t="s" r="G97" s="15">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>271</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>110</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>169</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>272</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>273</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>18</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>169</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>250</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>274</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>264</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>169</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>250</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>275</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>276</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>185</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>169</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>250</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>220</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>277</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
         <v>268</v>
       </c>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="16"/>
-      <c t="s" r="K97" s="17">
-        <v>269</v>
-      </c>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>169</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>32</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>278</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>279</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>280</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>169</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>156</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="P102" s="13">
+        <v>4885.8299999999999</v>
+      </c>
+      <c r="Q102" s="13"/>
+    </row>
+    <row r="103" ht="16.5" customHeight="1">
+      <c t="s" r="A103" s="14">
+        <v>281</v>
+      </c>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c t="s" r="G103" s="15">
+        <v>282</v>
+      </c>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="16"/>
+      <c t="s" r="K103" s="17">
+        <v>283</v>
+      </c>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="457">
+  <mergeCells count="487">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4863,10 +5103,40 @@
     <mergeCell ref="H95:K95"/>
     <mergeCell ref="L95:M95"/>
     <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="K97:Q97"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="K103:Q103"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -428,6 +428,18 @@
     <t>3.8400</t>
   </si>
   <si>
+    <t>FRESH COOL ORAL GEL 30ML</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -479,12 +491,6 @@
     <t>KAPRITAGE SOAP 100 GM</t>
   </si>
   <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -518,9 +524,6 @@
     <t>LUBRISTIRA 15ML EYE DROPS</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>83.00</t>
   </si>
   <si>
@@ -854,7 +857,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 8:45 PM</t>
+    <t>Saturday, 23 August, 2025 8:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2749,21 +2752,21 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2775,14 +2778,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2792,11 +2795,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2808,14 +2811,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2825,14 +2828,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2841,14 +2844,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2858,14 +2861,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2874,14 +2877,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2891,14 +2894,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2907,14 +2910,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2924,14 +2927,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2940,7 +2943,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2957,11 +2960,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2973,14 +2976,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2990,11 +2993,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3013,7 +3016,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3023,14 +3026,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3046,7 +3049,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3056,11 +3059,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>46</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -3072,14 +3075,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3089,14 +3092,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3105,7 +3108,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3118,15 +3121,15 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3138,31 +3141,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3171,28 +3174,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>84</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>93</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>25</v>
@@ -3211,7 +3214,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3221,14 +3224,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>84</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3237,7 +3240,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3254,14 +3257,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3270,14 +3273,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3287,14 +3290,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>32</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>33</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3310,7 +3313,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3320,11 +3323,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>32</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3336,14 +3339,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>31</v>
+        <v>186</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3353,11 +3356,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3369,14 +3372,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3386,14 +3389,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3402,14 +3405,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3419,14 +3422,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>52</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>53</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3442,7 +3445,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3452,11 +3455,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3475,7 +3478,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3485,14 +3488,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>46</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3501,14 +3504,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3518,14 +3521,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>127</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3534,14 +3537,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3551,14 +3554,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>127</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>115</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3567,31 +3570,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>23</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3600,28 +3603,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>25</v>
@@ -3633,14 +3636,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3650,11 +3653,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>154</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>25</v>
@@ -3666,14 +3669,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3683,14 +3686,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>33</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3706,7 +3709,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3716,11 +3719,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>32</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3732,14 +3735,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3749,11 +3752,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3765,14 +3768,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3782,11 +3785,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3798,14 +3801,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>222</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3815,14 +3818,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>129</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3831,14 +3834,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3848,14 +3851,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3864,14 +3867,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>90</v>
+        <v>227</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3881,11 +3884,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>28</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>50</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>25</v>
@@ -3904,7 +3907,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>231</v>
+        <v>90</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3914,11 +3917,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>28</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>25</v>
@@ -3930,14 +3933,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>232</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3947,11 +3950,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>25</v>
@@ -3963,7 +3966,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3980,14 +3983,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>128</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3996,14 +3999,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4013,11 +4016,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4029,14 +4032,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4046,11 +4049,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4062,14 +4065,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4079,11 +4082,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>32</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>33</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4102,21 +4105,21 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>247</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4128,31 +4131,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>111</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>220</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4161,31 +4164,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>111</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>112</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4194,31 +4197,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4227,20 +4230,20 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
@@ -4248,10 +4251,10 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4260,20 +4263,20 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>248</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
@@ -4281,7 +4284,7 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4306,15 +4309,15 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>58</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4326,7 +4329,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4339,18 +4342,18 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>264</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4359,7 +4362,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4372,18 +4375,18 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4392,31 +4395,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>270</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>159</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>269</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4425,31 +4428,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>110</v>
+        <v>271</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>220</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>59</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4458,31 +4461,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>159</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4498,24 +4501,24 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>264</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4524,31 +4527,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>185</v>
+        <v>265</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>220</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4564,24 +4567,24 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>268</v>
+        <v>186</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>32</v>
+        <v>251</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4590,66 +4593,99 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>156</v>
+        <v>32</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>157</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
-      <c r="P102" s="13">
-        <v>4885.8299999999999</v>
-      </c>
-      <c r="Q102" s="13"/>
-    </row>
-    <row r="103" ht="16.5" customHeight="1">
-      <c t="s" r="A103" s="14">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>280</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
         <v>281</v>
       </c>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c t="s" r="G103" s="15">
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>140</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>141</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="P103" s="13">
+        <v>4930.8299999999999</v>
+      </c>
+      <c r="Q103" s="13"/>
+    </row>
+    <row r="104" ht="16.5" customHeight="1">
+      <c t="s" r="A104" s="14">
         <v>282</v>
       </c>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="16"/>
-      <c t="s" r="K103" s="17">
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c t="s" r="G104" s="15">
         <v>283</v>
       </c>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-      <c r="Q103" s="17"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="16"/>
+      <c t="s" r="K104" s="17">
+        <v>284</v>
+      </c>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="487">
+  <mergeCells count="492">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5133,10 +5169,15 @@
     <mergeCell ref="H101:K101"/>
     <mergeCell ref="L101:M101"/>
     <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="K103:Q103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="K104:Q104"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -401,6 +401,15 @@
     <t>0:5</t>
   </si>
   <si>
+    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>45.5400</t>
+  </si>
+  <si>
     <t>EPILAT RETARD 20MG SR. 20 F.C. TAB.</t>
   </si>
   <si>
@@ -428,6 +437,15 @@
     <t>3.8400</t>
   </si>
   <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
     <t>FRESH COOL ORAL GEL 30ML</t>
   </si>
   <si>
@@ -857,7 +875,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 8:48 PM</t>
+    <t>Saturday, 23 August, 2025 8:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2653,7 +2671,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2670,7 +2688,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2686,7 +2704,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2696,14 +2714,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>129</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2729,14 +2747,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2752,24 +2770,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2778,14 +2796,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2795,14 +2813,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2811,7 +2829,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2824,15 +2842,15 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2844,14 +2862,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2861,14 +2879,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2917,7 +2935,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2934,7 +2952,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2983,7 +3001,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2993,14 +3011,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3009,14 +3027,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3026,11 +3044,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3042,14 +3060,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3059,14 +3077,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3075,14 +3093,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3092,14 +3110,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>35</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3108,14 +3126,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3125,14 +3143,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>46</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3148,13 +3166,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3165,7 +3183,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3181,24 +3199,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3207,31 +3225,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>84</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>93</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3240,31 +3258,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3273,14 +3291,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3290,11 +3308,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>84</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>25</v>
@@ -3313,7 +3331,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3323,11 +3341,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>32</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>33</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3339,14 +3357,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>186</v>
+        <v>31</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3356,14 +3374,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3372,14 +3390,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3389,11 +3407,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3405,14 +3423,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>92</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3429,7 +3447,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3445,7 +3463,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3455,11 +3473,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>52</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3471,14 +3489,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3488,14 +3506,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>46</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>117</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3504,14 +3522,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3521,14 +3539,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>52</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3537,14 +3555,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3554,14 +3572,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3570,14 +3588,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3587,14 +3605,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>115</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3603,28 +3621,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>25</v>
@@ -3636,14 +3654,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3653,14 +3671,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>154</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3669,28 +3687,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>23</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>25</v>
@@ -3702,14 +3720,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3719,14 +3737,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>33</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3735,14 +3753,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3752,14 +3770,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3768,14 +3786,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3785,11 +3803,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>32</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3808,7 +3826,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3841,7 +3859,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>223</v>
+        <v>31</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3851,14 +3869,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>129</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3867,14 +3885,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>227</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3884,14 +3902,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3900,14 +3918,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>90</v>
+        <v>229</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3917,14 +3935,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>28</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>50</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3933,14 +3951,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3950,11 +3968,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>25</v>
@@ -3966,14 +3984,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3983,11 +4001,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>28</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>25</v>
@@ -3999,14 +4017,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>238</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4020,10 +4038,10 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>128</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4032,14 +4050,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4049,14 +4067,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4065,14 +4083,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4082,11 +4100,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4105,7 +4123,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4115,11 +4133,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>32</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>33</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4131,28 +4149,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>248</v>
+        <v>31</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>111</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>112</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4164,31 +4182,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>250</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>32</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>221</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4197,20 +4215,20 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
@@ -4230,31 +4248,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>58</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>161</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4263,28 +4281,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4296,20 +4314,20 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>261</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
@@ -4317,10 +4335,10 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4329,28 +4347,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>254</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>58</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4362,7 +4380,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4375,18 +4393,18 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>58</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>265</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4395,7 +4413,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4408,18 +4426,18 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>269</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4428,31 +4446,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>271</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>161</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>271</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4468,13 +4486,13 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
@@ -4482,10 +4500,10 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>59</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>275</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4494,31 +4512,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>277</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4527,28 +4545,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>265</v>
+        <v>110</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4560,31 +4578,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>221</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4593,31 +4611,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>32</v>
+        <v>257</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4626,66 +4644,132 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>281</v>
+        <v>192</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>141</v>
+        <v>257</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>142</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
-      <c r="P103" s="13">
-        <v>4930.8299999999999</v>
-      </c>
-      <c r="Q103" s="13"/>
-    </row>
-    <row r="104" ht="16.5" customHeight="1">
-      <c t="s" r="A104" s="14">
-        <v>282</v>
-      </c>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c t="s" r="G104" s="15">
-        <v>283</v>
-      </c>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="16"/>
-      <c t="s" r="K104" s="17">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
         <v>284</v>
       </c>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>275</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>146</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>32</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>285</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>286</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>287</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>146</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>147</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="P105" s="13">
+        <v>5029.8100000000004</v>
+      </c>
+      <c r="Q105" s="13"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c t="s" r="A106" s="14">
+        <v>288</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c t="s" r="G106" s="15">
+        <v>289</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c t="s" r="K106" s="17">
+        <v>290</v>
+      </c>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="492">
+  <mergeCells count="502">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5174,10 +5258,20 @@
     <mergeCell ref="H102:K102"/>
     <mergeCell ref="L102:M102"/>
     <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="K104:Q104"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="K106:Q106"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -875,7 +875,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 8:49 PM</t>
+    <t>Saturday, 23 August, 2025 8:52 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -338,6 +338,18 @@
     <t>56.0000</t>
   </si>
   <si>
+    <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>DEPO-PEN 1.2 MIU VIAL.</t>
   </si>
   <si>
@@ -605,6 +617,12 @@
     <t>29.0000</t>
   </si>
   <si>
+    <t>OLFEN 100MG S.R. 10 DEPOCAPS.</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>OMEGA-3 PLUS 30 CAPS.</t>
   </si>
   <si>
@@ -710,13 +728,13 @@
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
-    <t>1:6</t>
+    <t>1:5</t>
   </si>
   <si>
     <t>141.00</t>
   </si>
   <si>
-    <t>7.0500</t>
+    <t>14.1000</t>
   </si>
   <si>
     <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
@@ -821,42 +839,42 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>44.0000</t>
+    <t>24:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>قطن 50جم</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>لزقه النمر بسعر القطعه</t>
   </si>
   <si>
     <t>22:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>صابون ديتول اوريجنيال 115 جم</t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>قطن 50جم</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>لزقه النمر بسعر القطعه</t>
-  </si>
-  <si>
     <t>15.0000</t>
   </si>
   <si>
@@ -875,7 +893,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 8:52 PM</t>
+    <t>Saturday, 23 August, 2025 9:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2473,7 +2491,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2483,14 +2501,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2499,14 +2517,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2516,14 +2534,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2532,14 +2550,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2553,10 +2571,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2565,14 +2583,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2582,14 +2600,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2598,14 +2616,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2615,11 +2633,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2631,14 +2649,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2648,14 +2666,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>129</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2664,14 +2682,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2688,7 +2706,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>86</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2697,14 +2715,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2714,14 +2732,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2730,14 +2748,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2747,14 +2765,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>129</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2763,14 +2781,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2780,14 +2798,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2796,14 +2814,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2813,11 +2831,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>25</v>
@@ -2829,20 +2847,20 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2853,7 +2871,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2869,21 +2887,21 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2895,14 +2913,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2912,11 +2930,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2928,14 +2946,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2945,14 +2963,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2961,14 +2979,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2978,14 +2996,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2994,14 +3012,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3011,14 +3029,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3027,14 +3045,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3044,14 +3062,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3060,7 +3078,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3077,11 +3095,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3093,14 +3111,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3110,11 +3128,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>35</v>
+        <v>151</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3126,14 +3144,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3143,14 +3161,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3159,14 +3177,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3176,11 +3194,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>46</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>25</v>
@@ -3192,14 +3210,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3209,14 +3227,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3225,7 +3243,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3238,15 +3256,15 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3258,20 +3276,20 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3282,7 +3300,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3298,21 +3316,21 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>93</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>25</v>
@@ -3324,14 +3342,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3341,14 +3359,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3357,7 +3375,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3374,14 +3392,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3390,14 +3408,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3407,14 +3425,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>33</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3423,14 +3441,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3440,11 +3458,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>32</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3463,7 +3481,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>31</v>
+        <v>196</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3473,11 +3491,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3489,14 +3507,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3506,14 +3524,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3522,14 +3540,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3539,11 +3557,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>53</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3555,14 +3573,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3572,14 +3590,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>46</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>117</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3588,14 +3606,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3605,14 +3623,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>52</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3621,14 +3639,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3638,14 +3656,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3654,14 +3672,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3671,14 +3689,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>115</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3687,28 +3705,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>25</v>
@@ -3720,14 +3738,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3737,14 +3755,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>160</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3753,28 +3771,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>23</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>25</v>
@@ -3786,14 +3804,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3803,14 +3821,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>33</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3819,14 +3837,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3836,14 +3854,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3852,14 +3870,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3869,11 +3887,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>32</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3892,7 +3910,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3925,7 +3943,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>229</v>
+        <v>31</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3935,14 +3953,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>129</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3951,14 +3969,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>233</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3968,14 +3986,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3984,14 +4002,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>90</v>
+        <v>235</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4001,14 +4019,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>50</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4017,14 +4035,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4034,14 +4052,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4050,14 +4068,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4067,11 +4085,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>28</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>25</v>
@@ -4083,14 +4101,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>244</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4104,10 +4122,10 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>128</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4116,14 +4134,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4133,14 +4151,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4149,14 +4167,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4166,11 +4184,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4189,7 +4207,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4199,11 +4217,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>32</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>33</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4215,28 +4233,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>254</v>
+        <v>31</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>111</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>112</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4248,31 +4266,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>32</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>227</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4281,28 +4299,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4314,31 +4332,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>58</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4347,28 +4365,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4380,20 +4398,20 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>267</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
@@ -4401,10 +4419,10 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4413,28 +4431,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>58</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4446,7 +4464,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4459,18 +4477,18 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>58</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>271</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4479,7 +4497,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4492,18 +4510,18 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>275</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4512,31 +4530,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>277</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>226</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>167</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4545,31 +4563,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>59</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>280</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4578,31 +4596,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>282</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4611,28 +4629,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>271</v>
+        <v>114</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>282</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4644,31 +4662,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>192</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4677,31 +4695,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>32</v>
+        <v>263</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4710,66 +4728,132 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>287</v>
+        <v>196</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>147</v>
+        <v>263</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>148</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
-      <c r="P105" s="13">
-        <v>5029.8100000000004</v>
-      </c>
-      <c r="Q105" s="13"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c t="s" r="A106" s="14">
-        <v>288</v>
-      </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c t="s" r="G106" s="15">
-        <v>289</v>
-      </c>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="16"/>
-      <c t="s" r="K106" s="17">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
         <v>290</v>
       </c>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>280</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>150</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>32</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>291</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>292</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>293</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>150</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>151</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="P107" s="13">
+        <v>5134.8599999999997</v>
+      </c>
+      <c r="Q107" s="13"/>
+    </row>
+    <row r="108" ht="16.5" customHeight="1">
+      <c t="s" r="A108" s="14">
+        <v>294</v>
+      </c>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c t="s" r="G108" s="15">
+        <v>295</v>
+      </c>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="16"/>
+      <c t="s" r="K108" s="17">
+        <v>296</v>
+      </c>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="502">
+  <mergeCells count="512">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5268,10 +5352,20 @@
     <mergeCell ref="H104:K104"/>
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="N104:O104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="K106:Q106"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="K108:Q108"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -893,7 +893,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 9:03 PM</t>
+    <t>Saturday, 23 August, 2025 9:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -281,111 +281,114 @@
     <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
   </si>
   <si>
+    <t>71.2800</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>COSMOFER 50MG/ML FOR INF. 5 AMPS.</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>470.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
+    <t>DAVALINDI 200.000 I.U./ML 1 I.M AMP.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DOLCYL 2MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>8:2</t>
+  </si>
+  <si>
+    <t>63.8400</t>
+  </si>
+  <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>18:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>COSMOFER 50MG/ML FOR INF. 5 AMPS.</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>470.00</t>
-  </si>
-  <si>
-    <t>188.0000</t>
-  </si>
-  <si>
-    <t>DAVALINDI 200.000 I.U./ML 1 I.M AMP.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>DEPO-PEN 1.2 MIU VIAL.</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>DOLCYL 2MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>8:2</t>
-  </si>
-  <si>
-    <t>63.8400</t>
-  </si>
-  <si>
     <t>DROSPIFEM 0.03/3MG 21 TABS.</t>
   </si>
   <si>
@@ -788,6 +791,15 @@
     <t>TUSSKAN SYRUP 100 ML</t>
   </si>
   <si>
+    <t>VILDABETES 50/1000MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
@@ -893,7 +905,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 9:12 PM</t>
+    <t>Saturday, 23 August, 2025 9:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2260,7 +2272,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2274,10 +2286,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2607,7 +2619,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>90</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2616,7 +2628,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2633,11 +2645,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2649,7 +2661,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2682,14 +2694,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2699,14 +2711,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2715,7 +2727,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2732,11 +2744,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>86</v>
@@ -2748,7 +2760,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2765,11 +2777,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2781,14 +2793,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2802,10 +2814,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2814,14 +2826,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2835,7 +2847,7 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>25</v>
@@ -2847,14 +2859,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2864,11 +2876,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>25</v>
@@ -2880,7 +2892,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2893,15 +2905,15 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2913,7 +2925,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2930,11 +2942,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2946,7 +2958,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2963,11 +2975,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2979,7 +2991,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2996,11 +3008,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>25</v>
@@ -3012,7 +3024,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3029,11 +3041,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3045,7 +3057,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3062,11 +3074,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3078,7 +3090,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3095,11 +3107,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3111,7 +3123,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3128,11 +3140,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3144,7 +3156,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3165,7 +3177,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3177,14 +3189,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3198,7 +3210,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>25</v>
@@ -3210,7 +3222,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3227,11 +3239,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>25</v>
@@ -3243,7 +3255,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3260,11 +3272,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3276,7 +3288,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3289,15 +3301,15 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3309,28 +3321,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>25</v>
@@ -3342,7 +3354,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3375,7 +3387,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3392,11 +3404,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3408,7 +3420,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3425,11 +3437,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>25</v>
@@ -3441,7 +3453,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3474,14 +3486,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3491,11 +3503,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3507,7 +3519,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3524,11 +3536,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3540,7 +3552,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3561,7 +3573,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3573,7 +3585,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3590,11 +3602,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>25</v>
@@ -3606,7 +3618,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3639,7 +3651,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3672,7 +3684,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3689,11 +3701,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3705,7 +3717,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3722,11 +3734,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>25</v>
@@ -3738,7 +3750,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3755,11 +3767,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>119</v>
@@ -3771,7 +3783,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3784,7 +3796,7 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3792,7 +3804,7 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>25</v>
@@ -3804,7 +3816,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3821,11 +3833,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>25</v>
@@ -3837,14 +3849,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3854,11 +3866,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>25</v>
@@ -3870,7 +3882,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3903,7 +3915,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3920,11 +3932,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3936,7 +3948,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3953,11 +3965,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3969,7 +3981,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3986,11 +3998,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4002,14 +4014,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4019,14 +4031,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4035,14 +4047,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4052,11 +4064,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>86</v>
@@ -4068,14 +4080,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4101,14 +4113,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4118,11 +4130,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>25</v>
@@ -4134,7 +4146,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4151,11 +4163,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>25</v>
@@ -4167,7 +4179,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4184,11 +4196,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4200,7 +4212,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4217,11 +4229,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4233,7 +4245,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4250,11 +4262,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4266,7 +4278,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4299,31 +4311,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>115</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>116</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4332,31 +4344,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>115</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>233</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4365,31 +4377,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>115</v>
+        <v>267</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>116</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4398,31 +4410,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>171</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4431,20 +4443,20 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
@@ -4452,10 +4464,10 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4464,20 +4476,20 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>264</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
@@ -4485,7 +4497,7 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4497,7 +4509,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4510,11 +4522,11 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>58</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
@@ -4530,7 +4542,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4543,18 +4555,18 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>121</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>276</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4563,7 +4575,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4576,15 +4588,15 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>280</v>
@@ -4603,24 +4615,24 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>282</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>171</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>284</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4629,31 +4641,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>114</v>
+        <v>286</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>233</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>59</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4662,31 +4674,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>171</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4695,31 +4707,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>287</v>
+        <v>18</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>288</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4728,31 +4740,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>196</v>
+        <v>291</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>233</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4761,31 +4773,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>280</v>
+        <v>197</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>32</v>
+        <v>267</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4794,66 +4806,99 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
+        <v>295</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>296</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>297</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>151</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
         <v>152</v>
       </c>
-      <c t="s" r="Q106" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="107" ht="25.5" customHeight="1">
-      <c r="P107" s="13">
-        <v>5134.8599999999997</v>
-      </c>
-      <c r="Q107" s="13"/>
-    </row>
-    <row r="108" ht="16.5" customHeight="1">
-      <c t="s" r="A108" s="14">
-        <v>294</v>
-      </c>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c t="s" r="G108" s="15">
-        <v>295</v>
-      </c>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="16"/>
-      <c t="s" r="K108" s="17">
-        <v>296</v>
-      </c>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
-      <c r="P108" s="17"/>
-      <c r="Q108" s="17"/>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="P108" s="13">
+        <v>5231.8800000000001</v>
+      </c>
+      <c r="Q108" s="13"/>
+    </row>
+    <row r="109" ht="16.5" customHeight="1">
+      <c t="s" r="A109" s="14">
+        <v>298</v>
+      </c>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c t="s" r="G109" s="15">
+        <v>299</v>
+      </c>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c t="s" r="K109" s="17">
+        <v>300</v>
+      </c>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="512">
+  <mergeCells count="517">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5362,10 +5407,15 @@
     <mergeCell ref="H106:K106"/>
     <mergeCell ref="L106:M106"/>
     <mergeCell ref="N106:O106"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="K108:Q108"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="K109:Q109"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -686,6 +686,15 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>PERFORMA EXTRA STRENGTH 5% TOPICAL SOLUTION 60 ML</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>156.0000</t>
+  </si>
+  <si>
     <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -755,6 +764,12 @@
     <t>17.0000</t>
   </si>
   <si>
+    <t>STOPRRHEA 2 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
     <t>SWABIVENT NEBULIZER SOLN. 20 AMP. 2.5ML</t>
   </si>
   <si>
@@ -899,13 +914,22 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>معجون سيجنال 50 مل</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>Saturday, 23 August, 2025 9:13 PM</t>
+    <t>Saturday, 23 August, 2025 9:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3889,7 +3913,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3899,11 +3923,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>32</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3915,14 +3939,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3932,11 +3956,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>32</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3955,7 +3979,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3988,7 +4012,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4021,7 +4045,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4031,14 +4055,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>134</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4047,14 +4071,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4064,14 +4088,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>86</v>
+        <v>134</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4080,14 +4104,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>125</v>
+        <v>243</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4097,14 +4121,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>28</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>50</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>25</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4113,14 +4137,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>245</v>
+        <v>125</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4130,11 +4154,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>28</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>25</v>
@@ -4146,14 +4170,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>248</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4196,14 +4220,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>252</v>
+        <v>179</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>133</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4219,7 +4243,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4236,7 +4260,7 @@
         <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4252,7 +4276,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4266,7 +4290,7 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4278,14 +4302,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4295,11 +4319,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>32</v>
+        <v>259</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>33</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4311,14 +4335,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4328,14 +4352,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4344,28 +4368,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>264</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4384,24 +4408,24 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>266</v>
+        <v>86</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4460,14 +4484,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>58</v>
+        <v>272</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>172</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4476,14 +4500,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4493,11 +4517,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4509,14 +4533,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>276</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4530,10 +4554,10 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4542,14 +4566,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>269</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4559,11 +4583,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>58</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4575,7 +4599,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4592,14 +4616,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>58</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>121</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>280</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4608,7 +4632,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4625,14 +4649,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>284</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4641,14 +4665,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>286</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4658,14 +4682,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>233</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>172</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>285</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4674,14 +4698,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4691,14 +4715,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>59</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>289</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4707,14 +4731,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>18</v>
+        <v>291</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4724,14 +4748,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>172</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4740,14 +4764,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>291</v>
+        <v>114</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4757,11 +4781,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>292</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4773,14 +4797,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>197</v>
+        <v>18</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4790,14 +4814,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>234</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4806,14 +4830,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4823,14 +4847,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>32</v>
+        <v>272</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4839,14 +4863,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>297</v>
+        <v>197</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4856,49 +4880,148 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>152</v>
+        <v>272</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
+        <v>237</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>299</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>289</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>151</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>32</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>300</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>301</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>302</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>151</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>303</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>304</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>305</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>302</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>151</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>152</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
         <v>153</v>
       </c>
-      <c t="s" r="Q107" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="108" ht="24.75" customHeight="1">
-      <c r="P108" s="13">
-        <v>5231.8800000000001</v>
-      </c>
-      <c r="Q108" s="13"/>
-    </row>
-    <row r="109" ht="16.5" customHeight="1">
-      <c t="s" r="A109" s="14">
-        <v>298</v>
-      </c>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c t="s" r="G109" s="15">
-        <v>299</v>
-      </c>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="16"/>
-      <c t="s" r="K109" s="17">
-        <v>300</v>
-      </c>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
+      <c t="s" r="Q110" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="P111" s="13">
+        <v>5454.5600000000004</v>
+      </c>
+      <c r="Q111" s="13"/>
+    </row>
+    <row r="112" ht="16.5" customHeight="1">
+      <c t="s" r="A112" s="14">
+        <v>306</v>
+      </c>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c t="s" r="G112" s="15">
+        <v>307</v>
+      </c>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="16"/>
+      <c t="s" r="K112" s="17">
+        <v>308</v>
+      </c>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="517">
+  <mergeCells count="532">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5412,10 +5535,25 @@
     <mergeCell ref="H107:K107"/>
     <mergeCell ref="L107:M107"/>
     <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="K109:Q109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="K112:Q112"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ACYCLOVIR-MISR 5% TOPICAL CREAM 10 GM</t>
   </si>
   <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>23.00</t>
   </si>
   <si>
     <t>23.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>AGIOLAX 12 GRANULES IN SACHETS</t>
   </si>
   <si>
@@ -494,6 +506,15 @@
     <t>24.7500</t>
   </si>
   <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
     <t>HISTAZINE-1 0.1% SYRUP 100ML</t>
   </si>
   <si>
@@ -602,9 +623,6 @@
     <t>MUCOPHYLLINE SYRUP 125 ML</t>
   </si>
   <si>
-    <t>16:0</t>
-  </si>
-  <si>
     <t>50.00</t>
   </si>
   <si>
@@ -659,9 +677,6 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>92.00</t>
-  </si>
-  <si>
     <t>69.0000</t>
   </si>
   <si>
@@ -815,6 +830,18 @@
     <t>61.3800</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8377:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
@@ -827,9 +854,6 @@
     <t>42:0</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
     <t>بلاستر مترسيلك 2.5 سم</t>
   </si>
   <si>
@@ -857,15 +881,9 @@
     <t>4.00</t>
   </si>
   <si>
-    <t>4.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>24:0</t>
   </si>
   <si>
@@ -902,9 +920,6 @@
     <t>22:0</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>ماكينه حلاقه جليت فليكتور</t>
   </si>
   <si>
@@ -929,7 +944,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 9:28 PM</t>
+    <t>Saturday, 23 August, 2025 9:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1653,7 +1668,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1662,14 +1677,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1679,14 +1694,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>29</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1719,7 +1734,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1735,7 +1750,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1745,14 +1760,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1761,14 +1776,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1778,14 +1793,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1794,14 +1809,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1818,7 +1833,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1851,7 +1866,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1867,7 +1882,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1877,14 +1892,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1893,14 +1908,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1910,11 +1925,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1926,14 +1941,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1943,14 +1958,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1959,14 +1974,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1976,14 +1991,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1992,14 +2007,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2009,14 +2024,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2032,7 +2047,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2042,14 +2057,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>67</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>68</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2058,14 +2073,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2075,14 +2090,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2091,14 +2106,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2108,14 +2123,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2124,14 +2139,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2141,14 +2156,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2157,14 +2172,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2174,14 +2189,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2190,7 +2205,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2207,14 +2222,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2223,14 +2238,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2240,14 +2255,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>86</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2263,7 +2278,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2273,14 +2288,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2289,14 +2304,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2306,14 +2321,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>86</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2322,14 +2337,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2339,14 +2354,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2355,14 +2370,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2372,14 +2387,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2388,14 +2403,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2412,7 +2427,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2445,7 +2460,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>86</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2478,7 +2493,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2560,7 +2575,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2570,14 +2585,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>119</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2586,14 +2601,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2603,14 +2618,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2619,14 +2634,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2636,14 +2651,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>125</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2659,7 +2674,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2669,14 +2684,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2685,14 +2700,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2702,11 +2717,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2718,14 +2733,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2735,14 +2750,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>134</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2751,14 +2766,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2775,7 +2790,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2784,14 +2799,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2801,14 +2816,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2817,14 +2832,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>142</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2834,14 +2849,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>134</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2850,14 +2865,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2867,14 +2882,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2883,14 +2898,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2900,14 +2915,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>36</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2916,20 +2931,20 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2940,7 +2955,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2956,21 +2971,21 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2982,14 +2997,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2999,11 +3014,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3015,14 +3030,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3032,14 +3047,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3048,14 +3063,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3065,14 +3080,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3081,14 +3096,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3098,14 +3113,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3114,14 +3129,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3131,11 +3146,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3147,14 +3162,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3164,14 +3179,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3180,14 +3195,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3197,11 +3212,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>35</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3213,14 +3228,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3230,14 +3245,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3246,14 +3261,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3263,14 +3278,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>39</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3279,14 +3294,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3296,14 +3311,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>50</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3312,31 +3327,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3345,20 +3360,20 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3369,7 +3384,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3385,24 +3400,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>84</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>93</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3411,31 +3426,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>31</v>
+        <v>192</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3444,14 +3459,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3461,14 +3476,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>88</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3477,14 +3492,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3494,11 +3509,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>32</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3510,14 +3525,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>197</v>
+        <v>35</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3527,14 +3542,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3543,14 +3558,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3560,11 +3575,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>36</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3583,7 +3598,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3593,11 +3608,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>118</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3609,14 +3624,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3626,14 +3641,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3642,14 +3657,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3659,11 +3674,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>53</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3675,14 +3690,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3692,14 +3707,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>46</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3708,14 +3723,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3725,14 +3740,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>56</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3741,14 +3756,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3758,14 +3773,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3774,14 +3789,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3791,14 +3806,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>119</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3807,31 +3822,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3840,14 +3855,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3857,14 +3872,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3873,31 +3888,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>27</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3913,7 +3928,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3923,14 +3938,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3939,14 +3954,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3956,14 +3971,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>32</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>33</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3972,14 +3987,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3989,11 +4004,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4005,14 +4020,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4022,11 +4037,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>36</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4038,14 +4053,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4055,11 +4070,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4071,14 +4086,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>35</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4088,14 +4103,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>134</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4104,14 +4119,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>243</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4121,14 +4136,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4137,14 +4152,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>125</v>
+        <v>244</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4154,14 +4169,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>28</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>50</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>25</v>
+        <v>138</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4194,7 +4209,7 @@
         <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4210,7 +4225,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4220,14 +4235,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>179</v>
+        <v>32</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4236,14 +4251,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>253</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4260,7 +4275,7 @@
         <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4286,14 +4301,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>186</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>133</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4309,7 +4324,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4326,7 +4341,7 @@
         <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4342,7 +4357,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4356,7 +4371,7 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>263</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4368,14 +4383,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4385,11 +4400,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>32</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>33</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4401,14 +4416,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4418,14 +4433,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4434,28 +4449,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>269</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4474,24 +4489,24 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>271</v>
+        <v>90</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4513,18 +4528,18 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>115</v>
+        <v>275</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>116</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4533,31 +4548,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>172</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4566,31 +4581,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4599,28 +4614,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>282</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4632,31 +4647,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>284</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>281</v>
+        <v>62</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4665,31 +4680,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>278</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>62</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>121</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>285</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4698,31 +4713,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>287</v>
+        <v>62</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>289</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4731,31 +4746,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>291</v>
+        <v>22</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>236</v>
+        <v>289</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>172</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4764,31 +4779,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>291</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4797,31 +4812,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>172</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>68</v>
+        <v>295</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4830,31 +4845,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>297</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4870,24 +4885,24 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>197</v>
+        <v>118</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>237</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4896,31 +4911,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>289</v>
+        <v>22</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>300</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4942,15 +4957,15 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>303</v>
+        <v>14</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>304</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4962,66 +4977,165 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>302</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>153</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
-      <c r="P111" s="13">
-        <v>5454.5600000000004</v>
-      </c>
-      <c r="Q111" s="13"/>
-    </row>
-    <row r="112" ht="16.5" customHeight="1">
-      <c t="s" r="A112" s="14">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>304</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>295</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>155</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>36</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>305</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
         <v>306</v>
       </c>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c t="s" r="G112" s="15">
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
         <v>307</v>
       </c>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="16"/>
-      <c t="s" r="K112" s="17">
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>155</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
         <v>308</v>
       </c>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="17"/>
-      <c r="Q112" s="17"/>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>309</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>310</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>307</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>155</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>156</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="P114" s="13">
+        <v>5565.5600000000004</v>
+      </c>
+      <c r="Q114" s="13"/>
+    </row>
+    <row r="115" ht="16.5" customHeight="1">
+      <c t="s" r="A115" s="14">
+        <v>311</v>
+      </c>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c t="s" r="G115" s="15">
+        <v>312</v>
+      </c>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c t="s" r="K115" s="17">
+        <v>313</v>
+      </c>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="532">
+  <mergeCells count="547">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5550,10 +5664,25 @@
     <mergeCell ref="H110:K110"/>
     <mergeCell ref="L110:M110"/>
     <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="K112:Q112"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="K115:Q115"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -944,7 +944,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 9:33 PM</t>
+    <t>Saturday, 23 August, 2025 9:38 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -944,7 +944,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 9:38 PM</t>
+    <t>Saturday, 23 August, 2025 9:41 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -230,6 +230,15 @@
     <t>4:0</t>
   </si>
   <si>
+    <t>CEFOTAX 2 GM VIAL</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
     <t>CEFTRIAXONE-SANDOZ 1 GM I.M. VIAL</t>
   </si>
   <si>
@@ -317,13 +326,13 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>18:0</t>
+    <t>17:0</t>
   </si>
   <si>
     <t>33.00</t>
   </si>
   <si>
-    <t>99.0000</t>
+    <t>132.0000</t>
   </si>
   <si>
     <t>COSMOFER 50MG/ML FOR INF. 5 AMPS.</t>
@@ -608,6 +617,9 @@
     <t>109.0000</t>
   </si>
   <si>
+    <t>MEGALASE SYRUP 125 ML</t>
+  </si>
+  <si>
     <t>MILGA ADVANCE 30 F.C. TABS</t>
   </si>
   <si>
@@ -701,6 +713,15 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>PARAGESIC 500MG 5 SUPP.</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>PERFORMA EXTRA STRENGTH 5% TOPICAL SOLUTION 60 ML</t>
   </si>
   <si>
@@ -884,7 +905,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>24:0</t>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>34:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -944,7 +968,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 9:41 PM</t>
+    <t>Saturday, 23 August, 2025 9:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2113,7 +2137,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2123,14 +2147,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2139,14 +2163,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2156,14 +2180,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2179,7 +2203,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2189,14 +2213,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2212,7 +2236,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2222,14 +2246,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2245,7 +2269,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2278,7 +2302,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2295,7 +2319,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>90</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2304,14 +2328,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2321,14 +2345,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2337,14 +2361,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2354,14 +2378,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>90</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2370,14 +2394,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2387,14 +2411,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2410,7 +2434,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2420,14 +2444,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2443,7 +2467,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2453,14 +2477,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2469,14 +2493,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2486,14 +2510,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2502,14 +2526,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2519,14 +2543,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2535,14 +2559,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2552,11 +2576,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2568,14 +2592,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2585,11 +2609,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2601,14 +2625,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2622,10 +2646,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2641,7 +2665,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2651,14 +2675,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2667,14 +2691,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2691,7 +2715,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>129</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2700,14 +2724,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2717,14 +2741,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>50</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>132</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2740,7 +2764,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2750,11 +2774,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2766,14 +2790,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2783,14 +2807,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>138</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2799,14 +2823,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2816,14 +2840,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q44" s="12">
         <v>141</v>
-      </c>
-      <c t="s" r="Q44" s="12">
-        <v>90</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2839,7 +2863,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2856,7 +2880,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2872,7 +2896,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2882,14 +2906,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>138</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2915,14 +2939,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>29</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2938,7 +2962,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2948,7 +2972,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>36</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2971,24 +2995,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2997,28 +3021,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3030,14 +3054,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3047,11 +3071,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3070,7 +3094,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3087,7 +3111,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3103,7 +3127,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3120,7 +3144,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3136,7 +3160,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3169,7 +3193,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3186,7 +3210,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3202,7 +3226,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3219,7 +3243,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3245,11 +3269,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3261,14 +3285,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3278,11 +3302,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3294,14 +3318,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>135</v>
+        <v>49</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3311,14 +3335,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3327,14 +3351,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3344,7 +3368,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>50</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3367,7 +3391,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3384,7 +3408,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3406,7 +3430,7 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3433,24 +3457,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3459,28 +3483,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>195</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>88</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>97</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>29</v>
@@ -3492,14 +3516,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3509,14 +3533,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>91</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3549,7 +3573,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3575,11 +3599,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3598,7 +3622,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3615,7 +3639,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3631,7 +3655,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3641,11 +3665,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>36</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3657,14 +3681,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3674,11 +3698,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>122</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3690,14 +3714,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3707,14 +3731,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3723,14 +3747,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3740,11 +3764,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>57</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3763,7 +3787,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3773,14 +3797,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>50</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>125</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3789,14 +3813,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3806,14 +3830,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>56</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3829,7 +3853,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3839,14 +3863,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3855,14 +3879,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3872,14 +3896,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>166</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>123</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3895,17 +3919,17 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -3928,7 +3952,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3938,14 +3962,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>29</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3961,21 +3985,21 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>27</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>29</v>
@@ -3987,7 +4011,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4004,14 +4028,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>175</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4020,14 +4044,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4037,14 +4061,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>36</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>37</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4060,7 +4084,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4093,7 +4117,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4136,11 +4160,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>36</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4152,14 +4176,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>244</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4169,14 +4193,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>138</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4185,14 +4209,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>248</v>
+        <v>35</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4202,14 +4226,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4218,14 +4242,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4235,14 +4259,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>32</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>54</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4251,14 +4275,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4268,14 +4292,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>29</v>
+        <v>141</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4284,14 +4308,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>255</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4301,14 +4325,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>186</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>29</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4324,7 +4348,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4334,11 +4358,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>259</v>
+        <v>32</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>29</v>
@@ -4350,14 +4374,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>260</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4367,14 +4391,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>137</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4390,7 +4414,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4400,14 +4424,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>189</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4416,14 +4440,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4433,14 +4457,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4449,7 +4473,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4466,11 +4490,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>36</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4489,7 +4513,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4506,7 +4530,7 @@
         <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4522,7 +4546,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>274</v>
+        <v>35</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4532,14 +4556,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4548,28 +4572,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>278</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4581,31 +4605,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>280</v>
+        <v>93</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>14</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4614,31 +4638,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>119</v>
+        <v>282</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>120</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4647,31 +4671,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4680,31 +4704,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4713,28 +4737,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>22</v>
+        <v>289</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>286</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4746,31 +4770,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>22</v>
+        <v>291</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>289</v>
+        <v>62</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>276</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4779,31 +4803,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>22</v>
+        <v>285</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>275</v>
+        <v>62</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>125</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>291</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4812,7 +4836,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4825,18 +4849,18 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>293</v>
+        <v>62</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>295</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4845,31 +4869,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>297</v>
+        <v>22</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>241</v>
+        <v>296</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>179</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4878,31 +4902,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>63</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>299</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4924,18 +4948,18 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>14</v>
+        <v>301</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>179</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>72</v>
+        <v>303</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4944,31 +4968,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>14</v>
+        <v>248</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>15</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4977,31 +5001,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>14</v>
+        <v>307</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>242</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5010,31 +5034,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>295</v>
+        <v>22</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>305</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>35</v>
+        <v>72</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5043,28 +5067,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>308</v>
+        <v>14</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>309</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5076,66 +5100,165 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>307</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>157</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
-      <c r="P114" s="13">
-        <v>5565.5600000000004</v>
-      </c>
-      <c r="Q114" s="13"/>
-    </row>
-    <row r="115" ht="16.5" customHeight="1">
-      <c t="s" r="A115" s="14">
-        <v>311</v>
-      </c>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c t="s" r="G115" s="15">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
         <v>312</v>
       </c>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="16"/>
-      <c t="s" r="K115" s="17">
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>303</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>158</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>36</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
         <v>313</v>
       </c>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
-      <c r="P115" s="17"/>
-      <c r="Q115" s="17"/>
+      <c t="s" r="Q114" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>314</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>315</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>158</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>316</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>317</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>318</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>315</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>158</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>159</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="P117" s="13">
+        <v>5799.5600000000004</v>
+      </c>
+      <c r="Q117" s="13"/>
+    </row>
+    <row r="118" ht="16.5" customHeight="1">
+      <c t="s" r="A118" s="14">
+        <v>319</v>
+      </c>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c t="s" r="G118" s="15">
+        <v>320</v>
+      </c>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c t="s" r="K118" s="17">
+        <v>321</v>
+      </c>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="547">
+  <mergeCells count="562">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5679,10 +5802,25 @@
     <mergeCell ref="H113:K113"/>
     <mergeCell ref="L113:M113"/>
     <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="K115:Q115"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="K118:Q118"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -113,525 +113,543 @@
     <t>0.0000</t>
   </si>
   <si>
+    <t>AMRIZOLE 500 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>12.5000</t>
+  </si>
+  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>ATOREZA 40/10MG 28 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.1200</t>
+  </si>
+  <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
+    <t>BETADINE ANTISEPTIC SOLN. 10% 60 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>BETAFOS 1 AMP. 2ML</t>
+  </si>
+  <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>24.00</t>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>BLOKATENS 5/80MG 28 F.C. TAB</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>61.0000</t>
+  </si>
+  <si>
+    <t>CALCIMATE 500 MG 12 CAPS.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>CALDIN C 30 TABS.</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>-62.7000</t>
+  </si>
+  <si>
+    <t>0:-2</t>
+  </si>
+  <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>172.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>CEFOTAX 2 GM VIAL</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>CEFTRIAXONE-SANDOZ 1 GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>285.0000</t>
+  </si>
+  <si>
+    <t>CEFZIM 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>27:0</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>CLATEX 75MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>CONCOR 5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>CONCOR AMLO 5/5 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>69.3000</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>71.2800</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>132.0000</t>
+  </si>
+  <si>
+    <t>COSMOFER 50MG/ML FOR INF. 5 AMPS.</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>470.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
+    <t>DAVALINDI 200.000 I.U./ML 1 I.M AMP.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DOLCYL 2MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>8:2</t>
+  </si>
+  <si>
+    <t>63.8400</t>
+  </si>
+  <si>
+    <t>DROSPIFEM 0.03/3MG 21 TABS.</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
+    <t>ECTOMETHRIN 5% LOTION 50 ML</t>
+  </si>
+  <si>
+    <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>45.5400</t>
+  </si>
+  <si>
+    <t>EPILAT RETARD 20MG SR. 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>44.2800</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:6</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>FRESH COOL ORAL GEL 30ML</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>HEPAMARIN 140MG 30 CAPSULE</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>HISTAZINE-1 0.1% SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>134.0000</t>
+  </si>
+  <si>
+    <t>IVERZINE 6MG 24 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>KAPRITAGE SOAP 100 GM</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>LOADLESS 5/20MG 30 CAP</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>LOLAWEST 3GM 6 SACHETS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>LUBRISTIRA 15ML EYE DROPS</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUNGOCORT 0.5/2ML  AMP</t>
+  </si>
+  <si>
+    <t>0:16</t>
+  </si>
+  <si>
+    <t>264.00</t>
+  </si>
+  <si>
+    <t>13.2000</t>
+  </si>
+  <si>
+    <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
+  </si>
+  <si>
+    <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
+    <t>MEGALASE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>MIXDERM CREAM 15 GM</t>
   </si>
   <si>
     <t>24.0000</t>
   </si>
   <si>
-    <t>ANTODINE 20MG 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>19.8000</t>
-  </si>
-  <si>
-    <t>ATOREZA 40/10MG 28 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>210.00</t>
-  </si>
-  <si>
-    <t>105.0000</t>
-  </si>
-  <si>
-    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>9.1200</t>
-  </si>
-  <si>
-    <t>B-COM I.M./I.V. 6 AMP</t>
-  </si>
-  <si>
-    <t>3:4</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>7.6800</t>
-  </si>
-  <si>
-    <t>BETADINE ANTISEPTIC SOLN. 10% 60 ML</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>BETAFOS 1 AMP. 2ML</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>BLOKATENS 5/80MG 28 F.C. TAB</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>61.0000</t>
-  </si>
-  <si>
-    <t>CALCIMATE 500 MG 12 CAPS.</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>CALDIN C 30 TABS.</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>-62.7000</t>
-  </si>
-  <si>
-    <t>0:-2</t>
-  </si>
-  <si>
-    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>172.0000</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>CEFOTAX 2 GM VIAL</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>124.0000</t>
-  </si>
-  <si>
-    <t>CEFTRIAXONE-SANDOZ 1 GM I.M. VIAL</t>
-  </si>
-  <si>
-    <t>285.0000</t>
-  </si>
-  <si>
-    <t>CEFZIM 1 GM VIAL</t>
-  </si>
-  <si>
-    <t>59.00</t>
-  </si>
-  <si>
-    <t>59.0000</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>27:0</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>CLATEX 75MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>COLOVATIL 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>CONCOR 5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>CONCOR AMLO 5/5 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>69.3000</t>
-  </si>
-  <si>
-    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>71.2800</t>
-  </si>
-  <si>
-    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>17:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>132.0000</t>
-  </si>
-  <si>
-    <t>COSMOFER 50MG/ML FOR INF. 5 AMPS.</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>470.00</t>
-  </si>
-  <si>
-    <t>188.0000</t>
-  </si>
-  <si>
-    <t>DAVALINDI 200.000 I.U./ML 1 I.M AMP.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>DEPO-PEN 1.2 MIU VIAL.</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>DOLCYL 2MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>8:2</t>
-  </si>
-  <si>
-    <t>63.8400</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>DROSPIFEM 0.03/3MG 21 TABS.</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>87.0000</t>
-  </si>
-  <si>
-    <t>ECTOMETHRIN 5% LOTION 50 ML</t>
-  </si>
-  <si>
-    <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>45.5400</t>
-  </si>
-  <si>
-    <t>EPILAT RETARD 20MG SR. 20 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>44.2800</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>6:6</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>FRESH COOL ORAL GEL 30ML</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>HEPAMARIN 140MG 30 CAPSULE</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>24.7500</t>
-  </si>
-  <si>
-    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>HISTAZINE-1 0.1% SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>134.0000</t>
-  </si>
-  <si>
-    <t>IVERZINE 6MG 24 TABS.</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>84.0000</t>
-  </si>
-  <si>
-    <t>KAPRITAGE SOAP 100 GM</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>LOADLESS 5/20MG 30 CAP</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>LOLAWEST 3GM 6 SACHETS</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>LUBRISTIRA 15ML EYE DROPS</t>
-  </si>
-  <si>
-    <t>83.00</t>
-  </si>
-  <si>
-    <t>83.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUNGOCORT 0.5/2ML  AMP</t>
-  </si>
-  <si>
-    <t>0:16</t>
-  </si>
-  <si>
-    <t>264.00</t>
-  </si>
-  <si>
-    <t>13.2000</t>
-  </si>
-  <si>
-    <t>MAXOPHAGE XR 1000MG 30 EXT. REL. TABS.</t>
-  </si>
-  <si>
-    <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>109.00</t>
-  </si>
-  <si>
-    <t>109.0000</t>
-  </si>
-  <si>
-    <t>MEGALASE SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t>MILGA ADVANCE 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>MIXDERM CREAM 15 GM</t>
-  </si>
-  <si>
     <t>MUCOPHYLLINE SYRUP 125 ML</t>
   </si>
   <si>
@@ -641,6 +659,15 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>NITAZODE 100MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>OCTOVENT PLUS SYRUP 100 ML</t>
   </si>
   <si>
@@ -695,9 +722,6 @@
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
-    <t>27.0000</t>
-  </si>
-  <si>
     <t>PANADOL JOINT 24 ER TABS.</t>
   </si>
   <si>
@@ -854,54 +878,57 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8377:0</t>
+    <t>8375:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>42:0</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>87:0</t>
+  </si>
+  <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حنه جومانا </t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
     <t>4.0000</t>
   </si>
   <si>
-    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>42:0</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2.5 سم</t>
-  </si>
-  <si>
-    <t>26:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>87:0</t>
-  </si>
-  <si>
-    <t>حلاوة حرير</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">حنه جومانا </t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -968,7 +995,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 9:52 PM</t>
+    <t>Saturday, 23 August, 2025 9:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1774,7 +1801,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1784,14 +1811,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1800,14 +1827,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1817,14 +1844,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1833,14 +1860,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1850,11 +1877,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>29</v>
@@ -1866,14 +1893,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1883,11 +1910,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>29</v>
@@ -1899,14 +1926,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1916,11 +1943,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>29</v>
@@ -1932,14 +1959,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1949,14 +1976,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1965,14 +1992,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1982,14 +2009,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1998,14 +2025,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2015,14 +2042,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2031,14 +2058,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2048,14 +2075,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2064,14 +2091,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2088,7 +2115,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>67</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2097,14 +2124,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2114,14 +2141,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>72</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2130,14 +2157,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2147,14 +2174,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2163,14 +2190,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2180,14 +2207,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>35</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2196,14 +2223,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2220,7 +2247,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2229,14 +2256,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2246,11 +2273,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>18</v>
@@ -2262,14 +2289,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2279,14 +2306,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>29</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2302,7 +2329,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2319,7 +2346,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2335,7 +2362,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2345,14 +2372,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>93</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2361,14 +2388,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2378,7 +2405,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -2401,7 +2428,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2411,14 +2438,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>93</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2427,14 +2454,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2444,14 +2471,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>29</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2460,14 +2487,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2477,14 +2504,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2493,14 +2520,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2510,14 +2537,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>72</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2526,14 +2553,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2543,14 +2570,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>93</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2559,14 +2586,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2576,11 +2603,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2592,14 +2619,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2609,14 +2636,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2625,14 +2652,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2642,14 +2669,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2658,14 +2685,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2675,14 +2702,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2691,14 +2718,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2708,11 +2735,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2724,14 +2751,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2741,14 +2768,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>132</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2757,14 +2784,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2774,14 +2801,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2790,14 +2817,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2807,11 +2834,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2823,14 +2850,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2840,14 +2867,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>141</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2856,14 +2883,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2873,14 +2900,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2889,14 +2916,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2906,11 +2933,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>57</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2922,14 +2949,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2939,14 +2966,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2955,14 +2982,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2972,14 +2999,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>36</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>29</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2988,14 +3015,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3005,14 +3032,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3021,31 +3048,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>159</v>
+        <v>27</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3054,14 +3081,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3071,14 +3098,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3087,14 +3114,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>146</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3104,14 +3131,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3120,31 +3147,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3153,14 +3180,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3170,11 +3197,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3186,7 +3213,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3203,11 +3230,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3219,14 +3246,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3236,14 +3263,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3252,14 +3279,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3269,11 +3296,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3285,7 +3312,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3302,11 +3329,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3318,14 +3345,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3335,14 +3362,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3351,14 +3378,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3368,14 +3395,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>50</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3401,14 +3428,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3417,14 +3444,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3434,11 +3461,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3450,31 +3477,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>54</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3483,28 +3510,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>195</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>29</v>
@@ -3516,14 +3543,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3533,14 +3560,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>91</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3549,28 +3576,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3582,31 +3609,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>56</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>57</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3622,7 +3649,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3632,11 +3659,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>100</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>29</v>
@@ -3648,14 +3675,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3665,11 +3692,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>36</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>37</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3688,7 +3715,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3698,11 +3725,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>61</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3714,14 +3741,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3731,14 +3758,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3747,14 +3774,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3764,11 +3791,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3780,14 +3807,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3797,14 +3824,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3813,14 +3840,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3830,11 +3857,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>56</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>57</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3853,7 +3880,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3863,11 +3890,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>128</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3879,14 +3906,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3896,14 +3923,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>132</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3912,14 +3939,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3929,11 +3956,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>139</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>29</v>
@@ -3945,14 +3972,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3962,14 +3989,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>169</v>
+        <v>61</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3978,31 +4005,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4018,7 +4045,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4028,14 +4055,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4044,14 +4071,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4061,7 +4088,7 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>144</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -4084,7 +4111,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4094,14 +4121,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>174</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4110,31 +4137,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>27</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4143,14 +4170,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4160,14 +4187,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>37</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4176,14 +4203,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4193,14 +4220,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4209,14 +4236,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4226,11 +4253,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4242,14 +4269,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4259,11 +4286,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4275,14 +4302,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>251</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4292,14 +4319,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>38</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>141</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4308,14 +4335,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>255</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4325,14 +4352,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4341,14 +4368,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4358,14 +4385,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>32</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4374,14 +4401,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4391,14 +4418,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4407,14 +4434,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>259</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4424,14 +4451,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>189</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>29</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4440,14 +4467,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>263</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4457,14 +4484,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>29</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4473,14 +4500,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4490,14 +4517,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>32</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4506,14 +4533,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>22</v>
+        <v>268</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4523,14 +4550,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4539,14 +4566,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4556,14 +4583,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>274</v>
+        <v>194</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4572,7 +4599,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4589,14 +4616,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>36</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>37</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4605,14 +4632,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4622,14 +4649,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4638,14 +4665,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>281</v>
+        <v>22</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4655,14 +4682,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4671,28 +4698,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>285</v>
+        <v>60</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>122</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>123</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4704,31 +4731,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>287</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4737,31 +4764,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>289</v>
+        <v>102</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>122</v>
+        <v>286</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>123</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4770,31 +4797,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>62</v>
+        <v>290</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>35</v>
+        <v>81</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4810,21 +4837,21 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>293</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4843,24 +4870,24 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>22</v>
+        <v>295</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4869,28 +4896,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>22</v>
+        <v>297</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>296</v>
+        <v>35</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>283</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4902,31 +4929,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>22</v>
+        <v>299</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>282</v>
+        <v>71</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>298</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>299</v>
+        <v>60</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4942,24 +4969,24 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>22</v>
+        <v>293</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>301</v>
+        <v>71</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>303</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4968,31 +4995,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>305</v>
+        <v>22</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>248</v>
+        <v>71</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>182</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5001,28 +5028,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>63</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5034,7 +5061,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5047,18 +5074,18 @@
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>14</v>
+        <v>290</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>182</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>72</v>
+        <v>308</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5074,24 +5101,24 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>310</v>
+        <v>22</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>14</v>
+        <v>310</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>15</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>312</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5100,28 +5127,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>314</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>14</v>
+        <v>256</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>249</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>18</v>
@@ -5133,31 +5160,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>303</v>
+        <v>129</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>36</v>
+        <v>316</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>313</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5166,31 +5193,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>315</v>
+        <v>22</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>316</v>
+        <v>14</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>317</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5206,59 +5233,191 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
-      <c r="P117" s="13">
-        <v>5799.5600000000004</v>
-      </c>
-      <c r="Q117" s="13"/>
-    </row>
-    <row r="118" ht="16.5" customHeight="1">
-      <c t="s" r="A118" s="14">
-        <v>319</v>
-      </c>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c t="s" r="G118" s="15">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
         <v>320</v>
       </c>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="16"/>
-      <c t="s" r="K118" s="17">
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>12</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>163</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>14</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>257</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
         <v>321</v>
       </c>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>312</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>163</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>38</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>322</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>323</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>324</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>163</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>325</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>326</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>327</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>324</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>163</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>164</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="P121" s="13">
+        <v>6016.0600000000004</v>
+      </c>
+      <c r="Q121" s="13"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="14">
+        <v>328</v>
+      </c>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c t="s" r="G122" s="15">
+        <v>329</v>
+      </c>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c t="s" r="K122" s="17">
+        <v>330</v>
+      </c>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="562">
+  <mergeCells count="582">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5817,10 +5976,30 @@
     <mergeCell ref="H116:K116"/>
     <mergeCell ref="L116:M116"/>
     <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="K118:Q118"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="K122:Q122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -824,6 +824,15 @@
     <t>17.0000</t>
   </si>
   <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>STOPRRHEA 2 MG 30 ORODISPERSIBLE TABS.</t>
   </si>
   <si>
@@ -866,6 +875,12 @@
     <t>TUSSKAN SYRUP 100 ML</t>
   </si>
   <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>VILDABETES 50/1000MG 30 TABS.</t>
   </si>
   <si>
@@ -944,39 +959,36 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>21.0000</t>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>قطن 50جم</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>لزقه النمر بسعر القطعه</t>
+  </si>
+  <si>
+    <t>22:0</t>
+  </si>
+  <si>
+    <t>ماكينه حلاقه جليت فليكتور</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
   </si>
   <si>
     <t>7:0</t>
   </si>
   <si>
-    <t>صابون ديتول اوريجنيال 115 جم</t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>قطن 50جم</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>لزقه النمر بسعر القطعه</t>
-  </si>
-  <si>
-    <t>22:0</t>
-  </si>
-  <si>
-    <t>ماكينه حلاقه جليت فليكتور</t>
-  </si>
-  <si>
-    <t>محلول ملح</t>
-  </si>
-  <si>
     <t>72.0000</t>
   </si>
   <si>
@@ -995,7 +1007,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 9:54 PM</t>
+    <t>Saturday, 23 August, 2025 9:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4573,7 +4585,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4583,14 +4595,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>194</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4599,7 +4611,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4616,7 +4628,7 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>194</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
@@ -4653,10 +4665,10 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>145</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4665,14 +4677,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4682,11 +4694,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4705,7 +4717,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4738,7 +4750,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4748,11 +4760,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>38</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>212</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4764,14 +4776,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4781,14 +4793,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>286</v>
+        <v>38</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4804,7 +4816,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>289</v>
+        <v>81</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4814,14 +4826,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>290</v>
+        <v>132</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>81</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4830,31 +4842,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>293</v>
+        <v>102</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>35</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>130</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4863,31 +4875,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>14</v>
+        <v>295</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>257</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>18</v>
+        <v>81</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4896,14 +4908,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4929,14 +4941,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4946,14 +4958,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>187</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>60</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4962,14 +4974,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4979,11 +4991,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>301</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4995,14 +5007,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>22</v>
+        <v>304</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5016,10 +5028,10 @@
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>301</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5028,14 +5040,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>22</v>
+        <v>298</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5045,11 +5057,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>304</v>
+        <v>71</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5061,7 +5073,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5078,14 +5090,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>290</v>
+        <v>71</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>308</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5094,7 +5106,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5111,14 +5123,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>312</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5127,14 +5139,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>314</v>
+        <v>22</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5144,14 +5156,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>187</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>18</v>
+        <v>313</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5160,14 +5172,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5177,14 +5189,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>72</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5193,14 +5205,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>22</v>
+        <v>317</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5210,14 +5222,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>14</v>
+        <v>256</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
         <v>187</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5233,7 +5245,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>319</v>
+        <v>129</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5243,11 +5255,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>14</v>
+        <v>319</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5266,7 +5278,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5280,10 +5292,10 @@
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>257</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>18</v>
+        <v>81</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5299,7 +5311,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5309,14 +5321,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>322</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5332,7 +5344,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>324</v>
+        <v>12</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5342,14 +5354,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>326</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5358,14 +5370,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5375,49 +5387,115 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
+        <v>326</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>327</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>328</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>163</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>329</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>330</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>331</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>328</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>163</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>164</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
         <v>165</v>
       </c>
-      <c t="s" r="Q120" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="121" ht="25.5" customHeight="1">
-      <c r="P121" s="13">
-        <v>6016.0600000000004</v>
-      </c>
-      <c r="Q121" s="13"/>
-    </row>
-    <row r="122" ht="16.5" customHeight="1">
-      <c t="s" r="A122" s="14">
-        <v>328</v>
-      </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c t="s" r="G122" s="15">
-        <v>329</v>
-      </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="16"/>
-      <c t="s" r="K122" s="17">
-        <v>330</v>
-      </c>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="17"/>
-      <c r="Q122" s="17"/>
+      <c t="s" r="Q122" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="P123" s="13">
+        <v>6076.0600000000004</v>
+      </c>
+      <c r="Q123" s="13"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c t="s" r="A124" s="14">
+        <v>332</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c t="s" r="G124" s="15">
+        <v>333</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c t="s" r="K124" s="17">
+        <v>334</v>
+      </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="582">
+  <mergeCells count="592">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5996,10 +6074,20 @@
     <mergeCell ref="H120:K120"/>
     <mergeCell ref="L120:M120"/>
     <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="K122:Q122"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="K124:Q124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -308,6 +308,12 @@
     <t>20.7900</t>
   </si>
   <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
     <t>CONCOR 5MG 30 TAB</t>
   </si>
   <si>
@@ -900,6 +906,9 @@
   </si>
   <si>
     <t>8.0000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
@@ -2473,7 +2482,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2487,10 +2496,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2499,14 +2508,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2516,14 +2525,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>104</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>29</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2539,7 +2548,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2549,14 +2558,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>102</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2572,7 +2581,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2582,14 +2591,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>29</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2605,7 +2614,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2615,14 +2624,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2631,14 +2640,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2648,14 +2657,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2664,14 +2673,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2681,14 +2690,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>102</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2697,14 +2706,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2714,14 +2723,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2730,14 +2739,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2747,11 +2756,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2763,14 +2772,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2780,11 +2789,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2796,14 +2805,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2813,14 +2822,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>28</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>133</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2829,14 +2838,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2846,14 +2855,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2862,14 +2871,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2883,10 +2892,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2895,14 +2904,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2912,14 +2921,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2928,14 +2937,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2945,11 +2954,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2961,14 +2970,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2978,14 +2987,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>146</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2994,14 +3003,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3011,14 +3020,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>102</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3027,14 +3036,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3044,14 +3053,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3060,14 +3069,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3077,14 +3086,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>146</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3093,14 +3102,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3110,14 +3119,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>29</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3126,14 +3135,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3143,11 +3152,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>29</v>
@@ -3159,31 +3168,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3192,28 +3201,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3225,14 +3234,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3242,11 +3251,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3258,14 +3267,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3275,14 +3284,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3291,14 +3300,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3308,14 +3317,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3324,14 +3333,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3341,11 +3350,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3357,14 +3366,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3374,14 +3383,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3390,14 +3399,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3407,14 +3416,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3423,7 +3432,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3440,11 +3449,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3456,14 +3465,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3473,11 +3482,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3496,7 +3505,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>143</v>
+        <v>53</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3506,14 +3515,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3529,7 +3538,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3539,11 +3548,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>54</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>29</v>
@@ -3555,14 +3564,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3572,14 +3581,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3588,7 +3597,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3601,15 +3610,15 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3621,31 +3630,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3654,28 +3663,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>202</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>100</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>108</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>29</v>
@@ -3687,14 +3696,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3704,14 +3713,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>102</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3720,14 +3729,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3737,11 +3746,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>61</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>62</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3753,14 +3762,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3770,14 +3779,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>61</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3786,14 +3795,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3803,14 +3812,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>38</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3826,7 +3835,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3836,11 +3845,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>38</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3852,14 +3861,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3869,11 +3878,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3885,14 +3894,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3902,11 +3911,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3918,14 +3927,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3935,7 +3944,7 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>132</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -3958,7 +3967,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3968,14 +3977,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>134</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3984,14 +3993,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4001,14 +4010,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>61</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>62</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4017,14 +4026,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4034,11 +4043,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4050,14 +4059,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4067,14 +4076,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>54</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4083,14 +4092,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4100,14 +4109,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>144</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4123,7 +4132,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4133,14 +4142,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>133</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4156,24 +4165,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>27</v>
+        <v>176</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>66</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>29</v>
+        <v>135</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4182,28 +4191,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>180</v>
+        <v>27</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>29</v>
@@ -4222,7 +4231,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4232,11 +4241,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>182</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>29</v>
@@ -4248,14 +4257,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4265,14 +4274,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4281,14 +4290,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4298,11 +4307,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4314,14 +4323,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4331,11 +4340,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>38</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4347,14 +4356,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4364,11 +4373,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>38</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4380,14 +4389,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4397,11 +4406,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4413,14 +4422,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4430,11 +4439,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4446,14 +4455,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>259</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4463,14 +4472,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>146</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4479,14 +4488,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4496,14 +4505,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>102</v>
+        <v>148</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4512,14 +4521,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>47</v>
+        <v>265</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4529,14 +4538,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>32</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>58</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>29</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4545,14 +4554,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>268</v>
+        <v>47</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4562,11 +4571,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>32</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>29</v>
@@ -4578,14 +4587,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>29</v>
+        <v>270</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4595,14 +4604,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4611,14 +4620,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4628,14 +4637,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>194</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4661,11 +4670,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>196</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>29</v>
@@ -4677,7 +4686,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4694,14 +4703,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>145</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4717,7 +4726,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4731,7 +4740,7 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4743,14 +4752,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4760,11 +4769,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4776,14 +4785,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4793,11 +4802,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>38</v>
+        <v>287</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>212</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4809,14 +4818,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4826,14 +4835,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>289</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4849,7 +4858,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4859,11 +4868,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>134</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>29</v>
@@ -4875,14 +4884,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>294</v>
+        <v>104</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4892,14 +4901,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>81</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4908,31 +4917,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>35</v>
+        <v>297</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>130</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4948,24 +4957,24 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>300</v>
+        <v>78</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>14</v>
+        <v>196</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>257</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4974,20 +4983,20 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
@@ -4995,7 +5004,7 @@
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5007,31 +5016,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>187</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>60</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5040,28 +5049,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>306</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5073,20 +5082,20 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>22</v>
+        <v>307</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
@@ -5094,10 +5103,10 @@
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>306</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5113,21 +5122,21 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>22</v>
+        <v>301</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>309</v>
+        <v>71</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5139,7 +5148,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5152,18 +5161,18 @@
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>295</v>
+        <v>71</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>313</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5172,7 +5181,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5185,18 +5194,18 @@
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>212</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>125</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5205,31 +5214,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>317</v>
+        <v>22</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>187</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>18</v>
+        <v>316</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5238,31 +5247,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>72</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>127</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5271,31 +5280,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>22</v>
+        <v>320</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>14</v>
+        <v>258</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5311,21 +5320,21 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>322</v>
+        <v>131</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>14</v>
+        <v>322</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5344,13 +5353,13 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
@@ -5358,10 +5367,10 @@
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>257</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>18</v>
+        <v>81</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5383,18 +5392,18 @@
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>326</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5403,31 +5412,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>328</v>
+        <v>12</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>329</v>
+        <v>14</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>330</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5436,7 +5445,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5449,53 +5458,119 @@
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
+        <v>329</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>330</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>331</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
         <v>165</v>
       </c>
-      <c t="s" r="Q122" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="123" ht="24.75" customHeight="1">
-      <c r="P123" s="13">
-        <v>6076.0600000000004</v>
-      </c>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
-      <c t="s" r="A124" s="14">
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
         <v>332</v>
       </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c t="s" r="G124" s="15">
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
         <v>333</v>
       </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c t="s" r="K124" s="17">
+      <c t="s" r="Q123" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
         <v>334</v>
       </c>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>331</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>165</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>166</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="P125" s="13">
+        <v>6277.0600000000004</v>
+      </c>
+      <c r="Q125" s="13"/>
+    </row>
+    <row r="126" ht="16.5" customHeight="1">
+      <c t="s" r="A126" s="14">
+        <v>335</v>
+      </c>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c t="s" r="G126" s="15">
+        <v>336</v>
+      </c>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="16"/>
+      <c t="s" r="K126" s="17">
+        <v>337</v>
+      </c>
+      <c r="L126" s="17"/>
+      <c r="M126" s="17"/>
+      <c r="N126" s="17"/>
+      <c r="O126" s="17"/>
+      <c r="P126" s="17"/>
+      <c r="Q126" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="602">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6084,10 +6159,20 @@
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="P125:Q125"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="K126:Q126"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -122,6 +122,18 @@
     <t>12.5000</t>
   </si>
   <si>
+    <t>AMRIZOLE 500MG 5 VAGINAL SUPP.</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -290,6 +302,15 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>CLATEX 75MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -413,9 +434,6 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>0:3</t>
   </si>
   <si>
@@ -494,6 +512,15 @@
     <t>3.8400</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
   </si>
   <si>
@@ -575,6 +602,15 @@
     <t>KAPRITAGE SOAP 100 GM</t>
   </si>
   <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -746,12 +782,6 @@
     <t>PARAGESIC 500MG 5 SUPP.</t>
   </si>
   <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
     <t>PERFORMA EXTRA STRENGTH 5% TOPICAL SOLUTION 60 ML</t>
   </si>
   <si>
@@ -785,12 +815,6 @@
     <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>QUIBRON T/SR 300MG 100 TAB</t>
   </si>
   <si>
@@ -839,6 +863,9 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
     <t>STOPRRHEA 2 MG 30 ORODISPERSIBLE TABS.</t>
   </si>
   <si>
@@ -881,12 +908,18 @@
     <t>TUSSKAN SYRUP 100 ML</t>
   </si>
   <si>
+    <t>UNIFUNGI 150MG 2 CAPS.</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>106.0000</t>
+  </si>
+  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
     <t>VILDABETES 50/1000MG 30 TABS.</t>
   </si>
   <si>
@@ -896,6 +929,18 @@
     <t>61.3800</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -956,10 +1001,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>34:0</t>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>35:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1016,7 +1061,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 9:57 PM</t>
+    <t>Saturday, 23 August, 2025 10:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1855,7 +1900,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1865,14 +1910,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1881,14 +1926,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1898,14 +1943,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1914,14 +1959,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1931,11 +1976,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>29</v>
@@ -1947,14 +1992,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1964,11 +2009,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>29</v>
@@ -1980,14 +2025,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1997,11 +2042,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>29</v>
@@ -2053,7 +2098,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2063,14 +2108,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2079,14 +2124,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2136,7 +2181,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2152,7 +2197,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2162,11 +2207,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>29</v>
@@ -2178,14 +2223,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2195,11 +2240,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>29</v>
@@ -2211,14 +2256,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2228,14 +2273,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>76</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2251,7 +2296,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2261,14 +2306,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>80</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>81</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2277,14 +2322,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2301,7 +2346,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2310,14 +2355,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2327,14 +2372,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>60</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2343,14 +2388,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2360,14 +2405,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2376,14 +2421,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2393,14 +2438,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2409,14 +2454,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2426,14 +2471,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2442,14 +2487,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2459,11 +2504,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>29</v>
@@ -2475,14 +2520,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2492,14 +2537,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2508,14 +2553,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2525,14 +2570,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>104</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2541,14 +2586,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2558,14 +2603,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2574,14 +2619,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2591,14 +2636,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2607,14 +2652,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2624,11 +2669,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>29</v>
@@ -2640,14 +2685,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2657,14 +2702,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2673,14 +2718,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2690,14 +2735,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>81</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2713,7 +2758,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2723,14 +2768,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2739,14 +2784,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2756,14 +2801,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2772,14 +2817,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2789,14 +2834,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2805,14 +2850,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2822,7 +2867,7 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2845,7 +2890,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2855,14 +2900,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>135</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2871,14 +2916,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2888,11 +2933,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2904,14 +2949,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2921,14 +2966,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>47</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2937,14 +2982,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2954,11 +2999,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>58</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2977,7 +3022,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2987,14 +3032,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3003,14 +3048,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3020,14 +3065,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>148</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3053,14 +3098,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>61</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3069,14 +3114,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3086,14 +3131,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q50" s="12">
         <v>154</v>
-      </c>
-      <c t="s" r="Q50" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3109,7 +3154,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3119,14 +3164,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>148</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3142,7 +3187,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3152,14 +3197,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3175,7 +3220,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3185,14 +3230,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>27</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>29</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3208,24 +3253,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>42</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3234,14 +3279,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3251,11 +3296,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3267,14 +3312,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3284,14 +3329,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3300,31 +3345,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>174</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3333,14 +3378,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3350,11 +3395,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3406,7 +3451,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3423,7 +3468,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3439,7 +3484,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3482,11 +3527,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3498,14 +3543,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3515,14 +3560,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>41</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3531,14 +3576,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3548,14 +3593,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>54</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3564,7 +3609,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3581,14 +3626,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3597,14 +3642,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3614,14 +3659,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3630,28 +3675,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>45</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3663,28 +3708,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>58</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>29</v>
@@ -3696,14 +3741,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3713,11 +3758,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>102</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>110</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>29</v>
@@ -3729,14 +3774,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3746,11 +3791,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3762,7 +3807,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3775,15 +3820,15 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>174</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>61</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>62</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3795,28 +3840,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>60</v>
+        <v>214</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>174</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>29</v>
@@ -3828,14 +3873,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3845,14 +3890,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3861,14 +3906,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3878,11 +3923,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3894,14 +3939,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3911,11 +3956,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>65</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3927,14 +3972,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3944,14 +3989,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3960,14 +4005,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3977,11 +4022,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3993,14 +4038,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4010,14 +4055,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4026,14 +4071,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4043,11 +4088,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>61</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>62</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4059,14 +4104,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4076,11 +4121,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>54</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>39</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4092,14 +4137,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4109,14 +4154,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>98</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4125,14 +4170,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4142,11 +4187,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>146</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>29</v>
@@ -4158,14 +4203,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4175,14 +4220,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>176</v>
+        <v>65</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>135</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4191,31 +4236,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4224,14 +4269,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4241,14 +4286,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>182</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4257,14 +4302,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4274,11 +4319,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>152</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>29</v>
@@ -4290,14 +4335,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4307,14 +4352,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>185</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>141</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4323,31 +4368,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>174</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>27</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4356,14 +4401,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4373,14 +4418,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>38</v>
+        <v>191</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4389,14 +4434,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4406,14 +4451,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4422,14 +4467,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4439,11 +4484,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>168</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4462,7 +4507,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4495,7 +4540,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>261</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4505,14 +4550,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>42</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>148</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4521,14 +4566,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>265</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4538,14 +4583,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4554,14 +4599,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4571,14 +4616,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>32</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>58</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4587,14 +4632,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>270</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4604,14 +4649,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>39</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4620,14 +4665,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>29</v>
+        <v>269</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4637,14 +4682,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>154</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4653,14 +4698,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4670,14 +4715,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>196</v>
+        <v>274</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>29</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4686,14 +4731,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4703,11 +4748,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>32</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>29</v>
@@ -4719,14 +4764,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>278</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4736,14 +4781,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>147</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4752,14 +4797,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4769,11 +4814,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4785,14 +4830,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4802,11 +4847,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4818,7 +4863,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4835,14 +4880,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>38</v>
+        <v>208</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>214</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4851,14 +4896,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4868,11 +4913,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>134</v>
+        <v>288</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>29</v>
@@ -4884,14 +4929,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4901,14 +4946,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>294</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4917,14 +4962,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>296</v>
+        <v>22</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4934,14 +4979,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4950,14 +4995,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4967,11 +5012,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>196</v>
+        <v>296</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>197</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4983,28 +5028,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>301</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>132</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5016,28 +5061,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>303</v>
+        <v>22</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>14</v>
+        <v>300</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>259</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>18</v>
@@ -5049,31 +5094,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>305</v>
+        <v>85</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5082,31 +5127,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>307</v>
+        <v>111</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>71</v>
+        <v>304</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>189</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5115,31 +5160,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>71</v>
+        <v>308</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
         <v>309</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5155,24 +5200,24 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>22</v>
+        <v>311</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>71</v>
+        <v>312</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5181,28 +5226,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>312</v>
+        <v>208</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>313</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5214,31 +5259,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>22</v>
+        <v>316</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>297</v>
+        <v>35</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>315</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>316</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5254,24 +5299,24 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>22</v>
+        <v>318</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>318</v>
+        <v>14</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>127</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5293,18 +5338,18 @@
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>258</v>
+        <v>35</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5320,24 +5365,24 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>131</v>
+        <v>322</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>322</v>
+        <v>75</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>72</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5353,24 +5398,24 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>22</v>
+        <v>316</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>189</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5379,28 +5424,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>325</v>
+        <v>22</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>15</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5419,24 +5464,24 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>14</v>
+        <v>327</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>259</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5445,31 +5490,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>328</v>
+        <v>22</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>38</v>
+        <v>312</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>60</v>
+        <v>331</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5478,31 +5523,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>331</v>
+        <v>22</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>333</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5518,59 +5563,290 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>166</v>
+        <v>39</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
-      <c r="P125" s="13">
-        <v>6277.0600000000004</v>
-      </c>
-      <c r="Q125" s="13"/>
-    </row>
-    <row r="126" ht="16.5" customHeight="1">
-      <c t="s" r="A126" s="14">
-        <v>335</v>
-      </c>
-      <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c t="s" r="G126" s="15">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
         <v>336</v>
       </c>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="16"/>
-      <c t="s" r="K126" s="17">
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>138</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>174</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
         <v>337</v>
       </c>
-      <c r="L126" s="17"/>
-      <c r="M126" s="17"/>
-      <c r="N126" s="17"/>
-      <c r="O126" s="17"/>
-      <c r="P126" s="17"/>
-      <c r="Q126" s="17"/>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>338</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>22</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>174</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>14</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>201</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>339</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>340</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>174</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>14</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>341</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>12</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>174</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>14</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>342</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>343</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>174</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>42</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>344</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>345</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>346</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>174</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>347</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>348</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>349</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>346</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>174</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>175</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>176</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="P132" s="13">
+        <v>6533.8900000000003</v>
+      </c>
+      <c r="Q132" s="13"/>
+    </row>
+    <row r="133" ht="16.5" customHeight="1">
+      <c t="s" r="A133" s="14">
+        <v>350</v>
+      </c>
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c t="s" r="G133" s="15">
+        <v>351</v>
+      </c>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="16"/>
+      <c t="s" r="K133" s="17">
+        <v>352</v>
+      </c>
+      <c r="L133" s="17"/>
+      <c r="M133" s="17"/>
+      <c r="N133" s="17"/>
+      <c r="O133" s="17"/>
+      <c r="P133" s="17"/>
+      <c r="Q133" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="602">
+  <mergeCells count="637">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6169,10 +6445,45 @@
     <mergeCell ref="H124:K124"/>
     <mergeCell ref="L124:M124"/>
     <mergeCell ref="N124:O124"/>
-    <mergeCell ref="P125:Q125"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="K126:Q126"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="P132:Q132"/>
+    <mergeCell ref="A133:F133"/>
+    <mergeCell ref="G133:I133"/>
+    <mergeCell ref="K133:Q133"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -152,6 +152,18 @@
     <t>19.8000</t>
   </si>
   <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
     <t>ATOREZA 40/10MG 28 F.C. TAB.</t>
   </si>
   <si>
@@ -203,9 +215,6 @@
     <t>BETAFOS 1 AMP. 2ML</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>31.00</t>
   </si>
   <si>
@@ -386,6 +395,15 @@
     <t>132.0000</t>
   </si>
   <si>
+    <t>CORASORE 150MG 20 TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
     <t>COSMOFER 50MG/ML FOR INF. 5 AMPS.</t>
   </si>
   <si>
@@ -401,9 +419,6 @@
     <t>DAVALINDI 200.000 I.U./ML 1 I.M AMP.</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>56.00</t>
   </si>
   <si>
@@ -545,6 +560,15 @@
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
     <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
   </si>
   <si>
@@ -920,6 +944,12 @@
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
+    <t>VERSERC 16MG 30 TAB</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
     <t>VILDABETES 50/1000MG 30 TABS.</t>
   </si>
   <si>
@@ -977,7 +1007,10 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>87:0</t>
+    <t>86:0</t>
+  </si>
+  <si>
+    <t>80.0000</t>
   </si>
   <si>
     <t>حلاوة حرير</t>
@@ -1013,6 +1046,9 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>9:0</t>
+  </si>
+  <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
@@ -1028,6 +1064,9 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>لزقه النمر بسعر القطعه</t>
   </si>
   <si>
@@ -1040,12 +1079,6 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
@@ -1061,7 +1094,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 10:32 PM</t>
+    <t>Saturday, 23 August, 2025 10:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1999,7 +2032,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2009,11 +2042,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>29</v>
@@ -2025,14 +2058,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2042,11 +2075,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>29</v>
@@ -2058,14 +2091,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2075,11 +2108,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>29</v>
@@ -2131,7 +2164,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2141,14 +2174,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2157,14 +2190,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2197,7 +2230,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2207,14 +2240,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2223,14 +2256,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2263,7 +2296,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2296,7 +2329,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2313,7 +2346,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>80</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2322,14 +2355,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2339,14 +2372,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2355,14 +2388,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2372,14 +2405,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>88</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2395,7 +2428,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2405,14 +2438,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>64</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2421,14 +2454,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2438,14 +2471,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2461,7 +2494,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2471,14 +2504,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2494,7 +2527,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2504,14 +2537,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2527,7 +2560,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2560,7 +2593,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2593,7 +2626,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2607,10 +2640,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2619,14 +2652,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2636,14 +2669,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2652,14 +2685,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2669,14 +2702,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>29</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2685,14 +2718,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2702,14 +2735,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>111</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2718,14 +2751,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2735,14 +2768,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>29</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2751,14 +2784,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2768,14 +2801,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2791,7 +2824,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2801,14 +2834,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2817,14 +2850,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2834,14 +2867,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>111</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2850,14 +2883,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2867,14 +2900,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2883,14 +2916,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2900,14 +2933,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2916,14 +2949,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2933,11 +2966,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2949,14 +2982,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2966,14 +2999,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>141</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2989,7 +3022,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2999,11 +3032,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -3015,14 +3048,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3032,14 +3065,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>51</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3048,14 +3081,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3065,11 +3098,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -3081,14 +3114,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3098,14 +3131,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3114,14 +3147,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3138,7 +3171,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>154</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3147,7 +3180,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3164,14 +3197,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>65</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3180,14 +3213,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3197,14 +3230,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3213,14 +3246,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3230,14 +3263,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>27</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>154</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3246,14 +3279,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3263,14 +3296,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>42</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3279,14 +3312,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3296,14 +3329,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>27</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3312,14 +3345,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3329,11 +3362,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>29</v>
@@ -3345,28 +3378,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>174</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3378,14 +3411,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3395,14 +3428,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3424,15 +3457,15 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>179</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3444,14 +3477,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3461,14 +3494,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3477,14 +3510,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3494,14 +3527,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>72</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3510,7 +3543,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3527,11 +3560,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3543,14 +3576,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3560,14 +3593,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3576,14 +3609,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3593,11 +3626,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3609,7 +3642,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3626,11 +3659,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3642,14 +3675,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3659,14 +3692,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3675,14 +3708,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3692,11 +3725,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>45</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3708,14 +3741,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>151</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3725,14 +3758,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>58</v>
+        <v>180</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3741,14 +3774,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3758,11 +3791,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>29</v>
@@ -3774,14 +3807,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3791,7 +3824,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>45</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3814,24 +3847,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>174</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>62</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3840,28 +3873,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>214</v>
+        <v>22</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>174</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>29</v>
@@ -3873,14 +3906,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3890,14 +3923,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>109</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>117</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3913,13 +3946,13 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>179</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3946,24 +3979,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>222</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>179</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>65</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>66</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3972,14 +4005,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3989,11 +4022,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>112</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>29</v>
@@ -4005,14 +4038,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4022,11 +4055,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>42</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -4038,14 +4071,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4055,11 +4088,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>68</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4078,7 +4111,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4095,7 +4128,7 @@
         <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4111,7 +4144,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4121,11 +4154,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>42</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4137,14 +4170,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4154,7 +4187,7 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>98</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -4177,7 +4210,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4194,7 +4227,7 @@
         <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4210,7 +4243,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4220,11 +4253,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>65</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>66</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4236,7 +4269,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4253,11 +4286,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>43</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4269,14 +4302,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4286,14 +4319,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4302,14 +4335,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4319,14 +4352,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>152</v>
+        <v>68</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4335,14 +4368,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4352,14 +4385,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>185</v>
+        <v>62</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>141</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4368,31 +4401,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>174</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>27</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>70</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4401,14 +4434,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4418,11 +4451,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>29</v>
@@ -4434,14 +4467,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4451,14 +4484,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>193</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>29</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4467,31 +4500,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>179</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>168</v>
+        <v>27</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>169</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4500,7 +4533,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4517,14 +4550,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>199</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4533,14 +4566,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4550,14 +4583,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>42</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>226</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4566,14 +4599,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4583,11 +4616,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>173</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4599,14 +4632,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4616,11 +4649,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4632,7 +4665,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4649,11 +4682,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>40</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4665,14 +4698,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>269</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4689,7 +4722,7 @@
         <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>154</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4705,7 +4738,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>273</v>
+        <v>48</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4715,14 +4748,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4731,14 +4764,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4748,14 +4781,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4764,14 +4797,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4781,14 +4814,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>29</v>
+        <v>159</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4797,14 +4830,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>29</v>
+        <v>281</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4821,7 +4854,7 @@
         <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4837,7 +4870,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4847,14 +4880,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>282</v>
+        <v>32</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>283</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4870,7 +4903,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>286</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4880,11 +4913,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>208</v>
+        <v>287</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>29</v>
@@ -4896,14 +4929,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4913,14 +4946,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4929,14 +4962,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4946,11 +4979,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>153</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4962,14 +4995,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4979,14 +5012,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>293</v>
+        <v>216</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
         <v>294</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5002,7 +5035,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5019,7 +5052,7 @@
         <v>297</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5045,11 +5078,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>42</v>
+        <v>299</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>226</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5061,7 +5094,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5078,14 +5111,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5094,14 +5127,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5111,14 +5144,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>98</v>
+        <v>304</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>99</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5127,14 +5160,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5144,14 +5177,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>304</v>
+        <v>42</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>305</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5160,14 +5193,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>307</v>
+        <v>22</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5184,7 +5217,7 @@
         <v>309</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5200,7 +5233,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>311</v>
+        <v>88</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5210,14 +5243,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>312</v>
+        <v>101</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>313</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>85</v>
+        <v>29</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5226,14 +5259,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5243,14 +5276,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>208</v>
+        <v>152</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>209</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5259,31 +5292,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>316</v>
+        <v>114</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>174</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>35</v>
+        <v>314</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>139</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5292,31 +5325,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>174</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>14</v>
+        <v>318</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>40</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5325,31 +5358,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>174</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>35</v>
+        <v>322</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>139</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5358,31 +5391,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>322</v>
+        <v>85</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>174</v>
+        <v>13</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>75</v>
+        <v>216</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5391,28 +5424,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>324</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5424,31 +5457,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>22</v>
+        <v>328</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>324</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5457,28 +5490,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>22</v>
+        <v>330</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>327</v>
+        <v>35</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>328</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5490,31 +5523,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>22</v>
+        <v>332</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>312</v>
+        <v>78</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>331</v>
+        <v>88</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5523,31 +5556,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>22</v>
+        <v>326</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>333</v>
+        <v>78</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>226</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>134</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5556,31 +5589,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>335</v>
+        <v>22</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>201</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5589,28 +5622,28 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>76</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5622,7 +5655,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5635,18 +5668,18 @@
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>14</v>
+        <v>322</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>201</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>85</v>
+        <v>342</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5655,31 +5688,31 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>340</v>
+        <v>22</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>14</v>
+        <v>344</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>16</v>
+        <v>345</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5688,28 +5721,28 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>12</v>
+        <v>347</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>40</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>18</v>
@@ -5721,31 +5754,31 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>343</v>
+        <v>143</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>42</v>
+        <v>349</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>344</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5754,31 +5787,31 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>346</v>
+        <v>22</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>347</v>
+        <v>14</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5787,66 +5820,198 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>175</v>
+        <v>14</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>176</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
-      <c r="P132" s="13">
-        <v>6533.8900000000003</v>
-      </c>
-      <c r="Q132" s="13"/>
-    </row>
-    <row r="133" ht="16.5" customHeight="1">
-      <c t="s" r="A133" s="14">
-        <v>350</v>
-      </c>
-      <c r="B133" s="14"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
-      <c t="s" r="G133" s="15">
-        <v>351</v>
-      </c>
-      <c r="H133" s="15"/>
-      <c r="I133" s="15"/>
-      <c r="J133" s="16"/>
-      <c t="s" r="K133" s="17">
-        <v>352</v>
-      </c>
-      <c r="L133" s="17"/>
-      <c r="M133" s="17"/>
-      <c r="N133" s="17"/>
-      <c r="O133" s="17"/>
-      <c r="P133" s="17"/>
-      <c r="Q133" s="17"/>
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>354</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>12</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>179</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>14</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>355</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>143</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>179</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>42</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>217</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>356</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>357</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>179</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>358</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>359</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>360</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>357</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>179</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>180</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="P136" s="13">
+        <v>6696.1099999999997</v>
+      </c>
+      <c r="Q136" s="13"/>
+    </row>
+    <row r="137" ht="16.5" customHeight="1">
+      <c t="s" r="A137" s="14">
+        <v>361</v>
+      </c>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c t="s" r="G137" s="15">
+        <v>362</v>
+      </c>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="16"/>
+      <c t="s" r="K137" s="17">
+        <v>363</v>
+      </c>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+      <c r="O137" s="17"/>
+      <c r="P137" s="17"/>
+      <c r="Q137" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="637">
+  <mergeCells count="657">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6480,10 +6645,30 @@
     <mergeCell ref="H131:K131"/>
     <mergeCell ref="L131:M131"/>
     <mergeCell ref="N131:O131"/>
-    <mergeCell ref="P132:Q132"/>
-    <mergeCell ref="A133:F133"/>
-    <mergeCell ref="G133:I133"/>
-    <mergeCell ref="K133:Q133"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P136:Q136"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="K137:Q137"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -1094,7 +1094,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 10:34 PM</t>
+    <t>Saturday, 23 August, 2025 10:36 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -452,6 +452,24 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>DOLCYL 2MG 30 TAB.</t>
   </si>
   <si>
@@ -521,10 +539,7 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>6:6</t>
-  </si>
-  <si>
-    <t>3.8400</t>
+    <t>6:5</t>
   </si>
   <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
@@ -965,12 +980,6 @@
     <t>4:2</t>
   </si>
   <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -1034,9 +1043,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>70.0000</t>
-  </si>
-  <si>
     <t>35:0</t>
   </si>
   <si>
@@ -1094,7 +1100,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 10:36 PM</t>
+    <t>Saturday, 23 August, 2025 10:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3088,7 +3094,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3098,14 +3104,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3114,14 +3120,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>55</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3131,14 +3137,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3147,14 +3153,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3164,11 +3170,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>62</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3187,7 +3193,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3197,14 +3203,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3213,14 +3219,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3230,14 +3236,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>159</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3263,14 +3269,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>65</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>114</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3279,14 +3285,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3296,14 +3302,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q54" s="12">
         <v>165</v>
-      </c>
-      <c t="s" r="Q54" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3319,7 +3325,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3329,14 +3335,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>159</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3352,7 +3358,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3362,14 +3368,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3385,7 +3391,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3395,14 +3401,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>27</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3418,7 +3424,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3428,14 +3434,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>29</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3444,28 +3450,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3477,14 +3483,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>48</v>
+        <v>165</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3494,14 +3500,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3517,24 +3523,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>184</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>72</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3543,14 +3549,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3560,11 +3566,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3576,14 +3582,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3593,11 +3599,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>72</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>29</v>
@@ -3609,14 +3615,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3626,11 +3632,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3642,14 +3648,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3659,14 +3665,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3675,14 +3681,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3692,14 +3698,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3708,7 +3714,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3725,11 +3731,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3741,14 +3747,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3758,14 +3764,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3774,14 +3780,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3791,14 +3797,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3807,14 +3813,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3824,11 +3830,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3847,7 +3853,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>156</v>
+        <v>55</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3857,11 +3863,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>62</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>29</v>
@@ -3873,14 +3879,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3890,14 +3896,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>45</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3913,7 +3919,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3923,14 +3929,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>62</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3939,31 +3945,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3972,31 +3978,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>222</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4005,31 +4011,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>184</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>112</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>120</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4045,24 +4051,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>48</v>
+        <v>227</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>184</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4071,14 +4077,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4088,14 +4094,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4104,7 +4110,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4121,14 +4127,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4137,7 +4143,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4154,11 +4160,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4177,7 +4183,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4194,7 +4200,7 @@
         <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4210,7 +4216,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4220,11 +4226,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>42</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4236,14 +4242,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4253,11 +4259,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4269,7 +4275,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4286,7 +4292,7 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>101</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -4309,7 +4315,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4326,7 +4332,7 @@
         <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4342,7 +4348,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>143</v>
+        <v>22</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4352,11 +4358,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>69</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4368,14 +4374,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4385,14 +4391,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>62</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>43</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4401,14 +4407,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4418,14 +4424,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>68</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4434,14 +4440,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4451,14 +4457,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>157</v>
+        <v>62</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4474,7 +4480,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4484,14 +4490,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>193</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>146</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4500,28 +4506,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>27</v>
+        <v>163</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>73</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>29</v>
@@ -4533,14 +4539,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4550,14 +4556,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>29</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4566,28 +4572,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>184</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>29</v>
@@ -4606,7 +4612,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4616,14 +4622,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>174</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4632,14 +4638,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4649,14 +4655,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4665,14 +4671,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4682,11 +4688,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>234</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4698,14 +4704,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4715,11 +4721,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4731,14 +4737,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4748,11 +4754,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>42</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4764,14 +4770,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4781,11 +4787,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>39</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>40</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4797,14 +4803,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>277</v>
+        <v>48</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4821,7 +4827,7 @@
         <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>159</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4837,7 +4843,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>281</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4847,14 +4853,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>39</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>283</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>114</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4863,14 +4869,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>55</v>
+        <v>282</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4880,14 +4886,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>32</v>
+        <v>283</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>66</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>29</v>
+        <v>165</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4920,7 +4926,7 @@
         <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>29</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4936,7 +4942,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4946,14 +4952,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>290</v>
+        <v>32</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>291</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4962,14 +4968,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>18</v>
+        <v>291</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4979,14 +4985,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4995,14 +5001,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5012,14 +5018,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>216</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5028,14 +5034,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5045,14 +5051,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5078,14 +5084,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>299</v>
+        <v>221</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>158</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5101,7 +5107,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5118,7 +5124,7 @@
         <v>302</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5134,7 +5140,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5148,7 +5154,7 @@
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>305</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5160,14 +5166,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5177,11 +5183,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>42</v>
+        <v>306</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>234</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5193,14 +5199,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5210,14 +5216,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5226,14 +5232,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5243,14 +5249,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>102</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5259,14 +5265,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5276,14 +5282,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>152</v>
+        <v>313</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5292,14 +5298,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5309,11 +5315,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>314</v>
+        <v>101</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>315</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>29</v>
@@ -5332,7 +5338,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>317</v>
+        <v>114</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5342,11 +5348,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>318</v>
+        <v>158</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>29</v>
@@ -5358,14 +5364,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>321</v>
+        <v>114</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5375,14 +5381,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>88</v>
+        <v>29</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5391,14 +5397,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>85</v>
+        <v>322</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5408,14 +5414,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>216</v>
+        <v>148</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>217</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5424,31 +5430,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>35</v>
+        <v>325</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>144</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5464,24 +5470,24 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>328</v>
+        <v>85</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>14</v>
+        <v>221</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5490,20 +5496,20 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
@@ -5523,31 +5529,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>333</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>88</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5556,28 +5562,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>335</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5589,20 +5595,20 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>22</v>
+        <v>335</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
@@ -5610,10 +5616,10 @@
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5629,21 +5635,21 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>22</v>
+        <v>329</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>338</v>
+        <v>78</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5655,7 +5661,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5668,18 +5674,18 @@
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>322</v>
+        <v>78</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>342</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5688,7 +5694,7 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -5701,18 +5707,18 @@
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>73</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>345</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5721,31 +5727,31 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>347</v>
+        <v>22</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>39</v>
+        <v>325</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>18</v>
+        <v>344</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5754,31 +5760,31 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>143</v>
+        <v>22</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>16</v>
+        <v>347</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5787,31 +5793,31 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>22</v>
+        <v>349</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>351</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>85</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5820,28 +5826,28 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>353</v>
+        <v>143</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>14</v>
+        <v>351</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5853,20 +5859,20 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
@@ -5874,10 +5880,10 @@
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>40</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>18</v>
+        <v>85</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5886,31 +5892,31 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>143</v>
+        <v>355</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>217</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5926,24 +5932,24 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>357</v>
+        <v>12</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>358</v>
+        <v>14</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>359</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5952,66 +5958,132 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>357</v>
+        <v>143</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c t="s" r="L135" s="10">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>181</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
-      <c r="P136" s="13">
-        <v>6696.1099999999997</v>
-      </c>
-      <c r="Q136" s="13"/>
-    </row>
-    <row r="137" ht="16.5" customHeight="1">
-      <c t="s" r="A137" s="14">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
+        <v>358</v>
+      </c>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>359</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>184</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>360</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
         <v>361</v>
       </c>
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c t="s" r="G137" s="15">
+      <c t="s" r="Q136" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
         <v>362</v>
       </c>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
-      <c r="J137" s="16"/>
-      <c t="s" r="K137" s="17">
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>359</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>184</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>185</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
+        <v>186</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="P138" s="13">
+        <v>6786.7799999999997</v>
+      </c>
+      <c r="Q138" s="13"/>
+    </row>
+    <row r="139" ht="16.5" customHeight="1">
+      <c t="s" r="A139" s="14">
         <v>363</v>
       </c>
-      <c r="L137" s="17"/>
-      <c r="M137" s="17"/>
-      <c r="N137" s="17"/>
-      <c r="O137" s="17"/>
-      <c r="P137" s="17"/>
-      <c r="Q137" s="17"/>
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c t="s" r="G139" s="15">
+        <v>364</v>
+      </c>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="16"/>
+      <c t="s" r="K139" s="17">
+        <v>365</v>
+      </c>
+      <c r="L139" s="17"/>
+      <c r="M139" s="17"/>
+      <c r="N139" s="17"/>
+      <c r="O139" s="17"/>
+      <c r="P139" s="17"/>
+      <c r="Q139" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="657">
+  <mergeCells count="667">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6665,10 +6737,20 @@
     <mergeCell ref="H135:K135"/>
     <mergeCell ref="L135:M135"/>
     <mergeCell ref="N135:O135"/>
-    <mergeCell ref="P136:Q136"/>
-    <mergeCell ref="A137:F137"/>
-    <mergeCell ref="G137:I137"/>
-    <mergeCell ref="K137:Q137"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="P138:Q138"/>
+    <mergeCell ref="A139:F139"/>
+    <mergeCell ref="G139:I139"/>
+    <mergeCell ref="K139:Q139"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-23_00-00.xlsx
+++ b/DaySale_2025-08-23_00-00.xlsx
@@ -335,7 +335,10 @@
     <t>63.00</t>
   </si>
   <si>
-    <t>20.7900</t>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>COLOVERIN D 135MG 30 TAB</t>
@@ -353,9 +356,6 @@
     <t>47.5200</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>CONCOR AMLO 5/5 MG 30 TABS</t>
   </si>
   <si>
@@ -575,6 +575,15 @@
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
@@ -632,9 +641,6 @@
     <t>IVERZINE 6MG 24 TABS.</t>
   </si>
   <si>
-    <t>84.00</t>
-  </si>
-  <si>
     <t>84.0000</t>
   </si>
   <si>
@@ -902,6 +908,12 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
     <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -1043,7 +1055,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>35:0</t>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>38:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1100,7 +1115,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Saturday, 23 August, 2025 10:39 PM</t>
+    <t>Saturday, 23 August, 2025 10:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2632,7 +2647,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2649,7 +2664,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>29</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2658,7 +2673,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2675,7 +2690,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2691,7 +2706,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2708,14 +2723,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2731,7 +2746,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2781,7 +2796,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2807,7 +2822,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2946,7 +2961,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -3094,7 +3109,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3342,7 +3357,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3441,7 +3456,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3589,7 +3604,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>189</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3599,7 +3614,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>72</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3622,7 +3637,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>192</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3632,14 +3647,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>72</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3655,7 +3670,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3672,7 +3687,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3688,7 +3703,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3705,7 +3720,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3721,7 +3736,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3754,7 +3769,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3771,7 +3786,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3787,7 +3802,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3804,7 +3819,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3830,11 +3845,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3846,14 +3861,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3863,14 +3878,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3879,14 +3894,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3896,14 +3911,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3919,7 +3934,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>162</v>
+        <v>61</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3929,14 +3944,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3952,7 +3967,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>22</v>
+        <v>162</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3962,11 +3977,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>62</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>29</v>
@@ -3978,14 +3993,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3995,14 +4010,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4011,7 +4026,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -4024,15 +4039,15 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>184</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -4044,14 +4059,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>227</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4061,14 +4076,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4077,28 +4092,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>229</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>184</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>112</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>29</v>
@@ -4110,14 +4125,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4127,14 +4142,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>113</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4143,14 +4158,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4160,11 +4175,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>68</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>69</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4176,14 +4191,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4193,14 +4208,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>68</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4209,14 +4224,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4226,14 +4241,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>42</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4249,7 +4264,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4259,11 +4274,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>42</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4275,14 +4290,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4292,11 +4307,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4308,14 +4323,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4325,11 +4340,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4341,14 +4356,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4358,7 +4373,7 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>101</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
@@ -4381,7 +4396,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4391,14 +4406,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>252</v>
+        <v>101</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4407,14 +4422,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4424,14 +4439,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>68</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>69</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4440,14 +4455,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4457,11 +4472,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4473,14 +4488,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4490,14 +4505,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>62</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4506,14 +4521,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4523,14 +4538,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>163</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4546,7 +4561,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4556,14 +4571,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>146</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4579,24 +4594,24 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>184</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>27</v>
+        <v>201</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>73</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>29</v>
+        <v>146</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4605,28 +4620,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>184</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>29</v>
@@ -4645,7